--- a/apps/load_data/2023/06/PLMOVMAE.xlsx
+++ b/apps/load_data/2023/06/PLMOVMAE.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NOMBRADOS -2023\HHY0623\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2023\HHY0623\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B458644-5640-4246-B52A-DF3A2583E01A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6EDC714-6FCD-40AE-8FE7-079BF76DF76F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13050" windowHeight="11040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13050" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CJ$285</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CJ$285</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12089" uniqueCount="3533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12070" uniqueCount="3530">
   <si>
     <t>CODEJE</t>
   </si>
@@ -7276,9 +7277,6 @@
     <t>0082A         1</t>
   </si>
   <si>
-    <t>S/N</t>
-  </si>
-  <si>
     <t>Mjhjfeeh11111d1flüjmhhfkgkech</t>
   </si>
   <si>
@@ -8509,9 +8507,6 @@
     <t>0136A         1</t>
   </si>
   <si>
-    <t>S/M</t>
-  </si>
-  <si>
     <t>6501080BIHTE003</t>
   </si>
   <si>
@@ -8828,9 +8823,6 @@
   </si>
   <si>
     <t>0111A         1</t>
-  </si>
-  <si>
-    <t>SUSPENSION</t>
   </si>
   <si>
     <t>7306280HYLAM000</t>
@@ -10627,7 +10619,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -11467,10 +11459,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CJ285"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD170" sqref="AC170:AD240"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -43005,12 +42999,7 @@
       <c r="AB170" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AC170" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD170" s="1" t="s">
-        <v>2417</v>
-      </c>
+      <c r="AC170" s="3"/>
       <c r="AF170" s="1" t="s">
         <v>107</v>
       </c>
@@ -43063,16 +43052,16 @@
         <v>23</v>
       </c>
       <c r="BD170" s="1" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="BG170" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH170" s="1" t="s">
+        <v>2418</v>
+      </c>
+      <c r="BI170" s="1" t="s">
         <v>2419</v>
-      </c>
-      <c r="BI170" s="1" t="s">
-        <v>2420</v>
       </c>
       <c r="BN170" s="1" t="s">
         <v>118</v>
@@ -43087,13 +43076,13 @@
         <v>163</v>
       </c>
       <c r="BS170" s="1" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="BT170" s="3">
         <v>36225</v>
       </c>
       <c r="BU170" s="1" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="BV170" s="1" t="s">
         <v>122</v>
@@ -43114,19 +43103,19 @@
         <v>112</v>
       </c>
       <c r="CD170" s="1" t="s">
+        <v>2422</v>
+      </c>
+      <c r="CE170" s="1" t="s">
         <v>2423</v>
       </c>
-      <c r="CE170" s="1" t="s">
+      <c r="CF170" s="1" t="s">
         <v>2424</v>
       </c>
-      <c r="CF170" s="1" t="s">
+      <c r="CH170" s="1" t="s">
         <v>2425</v>
       </c>
-      <c r="CH170" s="1" t="s">
+      <c r="CI170" s="1" t="s">
         <v>2426</v>
-      </c>
-      <c r="CI170" s="1" t="s">
-        <v>2427</v>
       </c>
       <c r="CJ170" s="1" t="s">
         <v>130</v>
@@ -43158,16 +43147,16 @@
         <v>95</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K171" s="1" t="s">
+        <v>2428</v>
+      </c>
+      <c r="L171" s="1" t="s">
         <v>2429</v>
-      </c>
-      <c r="L171" s="1" t="s">
-        <v>2430</v>
       </c>
       <c r="O171" s="1" t="s">
         <v>101</v>
@@ -43190,12 +43179,7 @@
       <c r="AB171" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="AC171" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD171" s="1" t="s">
-        <v>2417</v>
-      </c>
+      <c r="AC171" s="3"/>
       <c r="AF171" s="1" t="s">
         <v>107</v>
       </c>
@@ -43242,7 +43226,7 @@
         <v>112</v>
       </c>
       <c r="AZ171" s="1" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="BB171" s="1">
         <v>5</v>
@@ -43251,7 +43235,7 @@
         <v>22</v>
       </c>
       <c r="BD171" s="1" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="BN171" s="1" t="s">
         <v>118</v>
@@ -43278,7 +43262,7 @@
         <v>111</v>
       </c>
       <c r="CA171" s="1" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="CB171" s="1" t="s">
         <v>124</v>
@@ -43287,10 +43271,10 @@
         <v>112</v>
       </c>
       <c r="CD171" s="1" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="CH171" s="1" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="CI171" s="1" t="s">
         <v>130</v>
@@ -43331,19 +43315,19 @@
         <v>97</v>
       </c>
       <c r="K172" s="1" t="s">
+        <v>2434</v>
+      </c>
+      <c r="L172" s="1" t="s">
         <v>2435</v>
       </c>
-      <c r="L172" s="1" t="s">
+      <c r="N172" s="1" t="s">
         <v>2436</v>
-      </c>
-      <c r="N172" s="1" t="s">
-        <v>2437</v>
       </c>
       <c r="O172" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P172" s="1" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="Q172" s="3">
         <v>27018</v>
@@ -43366,12 +43350,7 @@
       <c r="AA172" s="1">
         <v>0</v>
       </c>
-      <c r="AC172" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD172" s="1" t="s">
-        <v>2417</v>
-      </c>
+      <c r="AC172" s="3"/>
       <c r="AF172" s="1" t="s">
         <v>107</v>
       </c>
@@ -43421,7 +43400,7 @@
         <v>112</v>
       </c>
       <c r="AZ172" s="1" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="BB172" s="1">
         <v>6</v>
@@ -43430,13 +43409,13 @@
         <v>23</v>
       </c>
       <c r="BD172" s="1" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="BG172" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH172" s="1" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="BN172" s="1" t="s">
         <v>118</v>
@@ -43445,7 +43424,7 @@
         <v>106</v>
       </c>
       <c r="BU172" s="1" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="BV172" s="1" t="s">
         <v>122</v>
@@ -43463,16 +43442,16 @@
         <v>112</v>
       </c>
       <c r="CD172" s="1" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="CE172" s="1" t="s">
         <v>1285</v>
       </c>
       <c r="CF172" s="1" t="s">
+        <v>2443</v>
+      </c>
+      <c r="CH172" s="1" t="s">
         <v>2444</v>
-      </c>
-      <c r="CH172" s="1" t="s">
-        <v>2445</v>
       </c>
       <c r="CI172" s="1" t="s">
         <v>130</v>
@@ -43513,19 +43492,19 @@
         <v>97</v>
       </c>
       <c r="K173" s="1" t="s">
+        <v>2445</v>
+      </c>
+      <c r="L173" s="1" t="s">
         <v>2446</v>
       </c>
-      <c r="L173" s="1" t="s">
+      <c r="N173" s="1" t="s">
         <v>2447</v>
-      </c>
-      <c r="N173" s="1" t="s">
-        <v>2448</v>
       </c>
       <c r="O173" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P173" s="1" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="Q173" s="3">
         <v>29037</v>
@@ -43551,12 +43530,7 @@
       <c r="AB173" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AC173" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD173" s="1" t="s">
-        <v>2417</v>
-      </c>
+      <c r="AC173" s="3"/>
       <c r="AF173" s="1" t="s">
         <v>107</v>
       </c>
@@ -43606,7 +43580,7 @@
         <v>112</v>
       </c>
       <c r="AZ173" s="1" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="BB173" s="1">
         <v>6</v>
@@ -43615,13 +43589,13 @@
         <v>23</v>
       </c>
       <c r="BD173" s="1" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="BG173" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH173" s="1" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="BN173" s="1" t="s">
         <v>118</v>
@@ -43630,7 +43604,7 @@
         <v>106</v>
       </c>
       <c r="BU173" s="1" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="BV173" s="1" t="s">
         <v>122</v>
@@ -43651,13 +43625,13 @@
         <v>700</v>
       </c>
       <c r="CE173" s="1" t="s">
+        <v>2453</v>
+      </c>
+      <c r="CF173" s="1" t="s">
         <v>2454</v>
       </c>
-      <c r="CF173" s="1" t="s">
+      <c r="CH173" s="1" t="s">
         <v>2455</v>
-      </c>
-      <c r="CH173" s="1" t="s">
-        <v>2456</v>
       </c>
       <c r="CI173" s="1" t="s">
         <v>130</v>
@@ -43698,19 +43672,19 @@
         <v>97</v>
       </c>
       <c r="K174" s="1" t="s">
+        <v>2456</v>
+      </c>
+      <c r="L174" s="1" t="s">
         <v>2457</v>
       </c>
-      <c r="L174" s="1" t="s">
+      <c r="N174" s="1" t="s">
         <v>2458</v>
-      </c>
-      <c r="N174" s="1" t="s">
-        <v>2459</v>
       </c>
       <c r="O174" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P174" s="1" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="Q174" s="3">
         <v>26647</v>
@@ -43733,12 +43707,7 @@
       <c r="AA174" s="1">
         <v>0</v>
       </c>
-      <c r="AC174" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD174" s="1" t="s">
-        <v>2417</v>
-      </c>
+      <c r="AC174" s="3"/>
       <c r="AF174" s="1" t="s">
         <v>107</v>
       </c>
@@ -43788,7 +43757,7 @@
         <v>112</v>
       </c>
       <c r="AZ174" s="1" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="BB174" s="1">
         <v>6</v>
@@ -43797,13 +43766,13 @@
         <v>23</v>
       </c>
       <c r="BD174" s="1" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="BG174" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH174" s="1" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="BI174" s="1" t="s">
         <v>600</v>
@@ -43815,7 +43784,7 @@
         <v>106</v>
       </c>
       <c r="BU174" s="1" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="BV174" s="1" t="s">
         <v>122</v>
@@ -43833,16 +43802,16 @@
         <v>112</v>
       </c>
       <c r="CD174" s="1" t="s">
+        <v>2464</v>
+      </c>
+      <c r="CE174" s="1" t="s">
+        <v>2464</v>
+      </c>
+      <c r="CF174" s="1" t="s">
         <v>2465</v>
       </c>
-      <c r="CE174" s="1" t="s">
-        <v>2465</v>
-      </c>
-      <c r="CF174" s="1" t="s">
+      <c r="CH174" s="1" t="s">
         <v>2466</v>
-      </c>
-      <c r="CH174" s="1" t="s">
-        <v>2467</v>
       </c>
       <c r="CI174" s="1" t="s">
         <v>607</v>
@@ -43883,19 +43852,19 @@
         <v>97</v>
       </c>
       <c r="K175" s="1" t="s">
+        <v>2467</v>
+      </c>
+      <c r="L175" s="1" t="s">
         <v>2468</v>
       </c>
-      <c r="L175" s="1" t="s">
+      <c r="N175" s="1" t="s">
         <v>2469</v>
-      </c>
-      <c r="N175" s="1" t="s">
-        <v>2470</v>
       </c>
       <c r="O175" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P175" s="1" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="Q175" s="3">
         <v>25405</v>
@@ -43927,12 +43896,7 @@
       <c r="AB175" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AC175" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD175" s="1" t="s">
-        <v>2417</v>
-      </c>
+      <c r="AC175" s="3"/>
       <c r="AF175" s="1" t="s">
         <v>107</v>
       </c>
@@ -43979,7 +43943,7 @@
         <v>112</v>
       </c>
       <c r="AZ175" s="1" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="BB175" s="1">
         <v>6</v>
@@ -43988,13 +43952,13 @@
         <v>23</v>
       </c>
       <c r="BD175" s="1" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="BG175" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH175" s="1" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="BI175" s="1" t="s">
         <v>434</v>
@@ -44009,13 +43973,13 @@
         <v>119</v>
       </c>
       <c r="BS175" s="1" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="BT175" s="3">
         <v>35243</v>
       </c>
       <c r="BU175" s="1" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="BV175" s="1" t="s">
         <v>122</v>
@@ -44033,16 +43997,16 @@
         <v>112</v>
       </c>
       <c r="CD175" s="1" t="s">
+        <v>2476</v>
+      </c>
+      <c r="CE175" s="1" t="s">
         <v>2477</v>
       </c>
-      <c r="CE175" s="1" t="s">
+      <c r="CF175" s="1" t="s">
         <v>2478</v>
       </c>
-      <c r="CF175" s="1" t="s">
+      <c r="CH175" s="1" t="s">
         <v>2479</v>
-      </c>
-      <c r="CH175" s="1" t="s">
-        <v>2480</v>
       </c>
       <c r="CI175" s="1" t="s">
         <v>441</v>
@@ -44083,19 +44047,19 @@
         <v>97</v>
       </c>
       <c r="K176" s="1" t="s">
+        <v>2480</v>
+      </c>
+      <c r="L176" s="1" t="s">
         <v>2481</v>
       </c>
-      <c r="L176" s="1" t="s">
+      <c r="N176" s="1" t="s">
         <v>2482</v>
-      </c>
-      <c r="N176" s="1" t="s">
-        <v>2483</v>
       </c>
       <c r="O176" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P176" s="1" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="Q176" s="3">
         <v>28845</v>
@@ -44118,12 +44082,7 @@
       <c r="AA176" s="1">
         <v>0</v>
       </c>
-      <c r="AC176" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD176" s="1" t="s">
-        <v>2417</v>
-      </c>
+      <c r="AC176" s="3"/>
       <c r="AF176" s="1" t="s">
         <v>107</v>
       </c>
@@ -44173,7 +44132,7 @@
         <v>112</v>
       </c>
       <c r="AZ176" s="1" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="BB176" s="1">
         <v>6</v>
@@ -44182,13 +44141,13 @@
         <v>23</v>
       </c>
       <c r="BD176" s="1" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="BG176" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH176" s="1" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="BI176" s="1" t="s">
         <v>1202</v>
@@ -44200,7 +44159,7 @@
         <v>106</v>
       </c>
       <c r="BU176" s="1" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="BV176" s="1" t="s">
         <v>122</v>
@@ -44218,16 +44177,16 @@
         <v>112</v>
       </c>
       <c r="CD176" s="1" t="s">
+        <v>2488</v>
+      </c>
+      <c r="CE176" s="1" t="s">
         <v>2489</v>
       </c>
-      <c r="CE176" s="1" t="s">
+      <c r="CF176" s="1" t="s">
         <v>2490</v>
       </c>
-      <c r="CF176" s="1" t="s">
+      <c r="CH176" s="1" t="s">
         <v>2491</v>
-      </c>
-      <c r="CH176" s="1" t="s">
-        <v>2492</v>
       </c>
       <c r="CI176" s="1" t="s">
         <v>1208</v>
@@ -44268,19 +44227,19 @@
         <v>97</v>
       </c>
       <c r="K177" s="1" t="s">
+        <v>2492</v>
+      </c>
+      <c r="L177" s="1" t="s">
         <v>2493</v>
       </c>
-      <c r="L177" s="1" t="s">
+      <c r="N177" s="1" t="s">
         <v>2494</v>
-      </c>
-      <c r="N177" s="1" t="s">
-        <v>2495</v>
       </c>
       <c r="O177" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P177" s="1" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="Q177" s="3">
         <v>21425</v>
@@ -44303,12 +44262,7 @@
       <c r="AA177" s="1">
         <v>0</v>
       </c>
-      <c r="AC177" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD177" s="1" t="s">
-        <v>2417</v>
-      </c>
+      <c r="AC177" s="3"/>
       <c r="AF177" s="1" t="s">
         <v>107</v>
       </c>
@@ -44358,7 +44312,7 @@
         <v>112</v>
       </c>
       <c r="AZ177" s="1" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="BB177" s="1">
         <v>6</v>
@@ -44367,13 +44321,13 @@
         <v>23</v>
       </c>
       <c r="BD177" s="1" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="BG177" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH177" s="1" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="BI177" s="1" t="s">
         <v>600</v>
@@ -44388,7 +44342,7 @@
         <v>163</v>
       </c>
       <c r="BU177" s="1" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="BV177" s="1" t="s">
         <v>122</v>
@@ -44406,16 +44360,16 @@
         <v>112</v>
       </c>
       <c r="CD177" s="1" t="s">
+        <v>2500</v>
+      </c>
+      <c r="CE177" s="1" t="s">
         <v>2501</v>
       </c>
-      <c r="CE177" s="1" t="s">
+      <c r="CF177" s="1" t="s">
         <v>2502</v>
       </c>
-      <c r="CF177" s="1" t="s">
+      <c r="CH177" s="1" t="s">
         <v>2503</v>
-      </c>
-      <c r="CH177" s="1" t="s">
-        <v>2504</v>
       </c>
       <c r="CI177" s="1" t="s">
         <v>607</v>
@@ -44450,25 +44404,25 @@
         <v>95</v>
       </c>
       <c r="I178" s="1" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K178" s="1" t="s">
+        <v>2505</v>
+      </c>
+      <c r="L178" s="1" t="s">
         <v>2506</v>
       </c>
-      <c r="L178" s="1" t="s">
+      <c r="N178" s="1" t="s">
         <v>2507</v>
-      </c>
-      <c r="N178" s="1" t="s">
-        <v>2508</v>
       </c>
       <c r="O178" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P178" s="1" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="Q178" s="3">
         <v>23286</v>
@@ -44497,12 +44451,7 @@
       <c r="AA178" s="1">
         <v>0</v>
       </c>
-      <c r="AC178" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD178" s="1" t="s">
-        <v>2417</v>
-      </c>
+      <c r="AC178" s="3"/>
       <c r="AF178" s="1" t="s">
         <v>107</v>
       </c>
@@ -44552,7 +44501,7 @@
         <v>112</v>
       </c>
       <c r="AZ178" s="1" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="BB178" s="1">
         <v>6</v>
@@ -44561,13 +44510,13 @@
         <v>23</v>
       </c>
       <c r="BD178" s="1" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="BG178" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH178" s="1" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="BN178" s="1" t="s">
         <v>118</v>
@@ -44576,7 +44525,7 @@
         <v>106</v>
       </c>
       <c r="BU178" s="1" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="BV178" s="1" t="s">
         <v>122</v>
@@ -44588,7 +44537,7 @@
         <v>111</v>
       </c>
       <c r="CA178" s="1" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="CB178" s="1" t="s">
         <v>124</v>
@@ -44597,16 +44546,16 @@
         <v>112</v>
       </c>
       <c r="CD178" s="1" t="s">
+        <v>2514</v>
+      </c>
+      <c r="CE178" s="1" t="s">
         <v>2515</v>
       </c>
-      <c r="CE178" s="1" t="s">
+      <c r="CF178" s="1" t="s">
         <v>2516</v>
       </c>
-      <c r="CF178" s="1" t="s">
+      <c r="CH178" s="1" t="s">
         <v>2517</v>
-      </c>
-      <c r="CH178" s="1" t="s">
-        <v>2518</v>
       </c>
       <c r="CI178" s="1" t="s">
         <v>130</v>
@@ -44647,19 +44596,19 @@
         <v>97</v>
       </c>
       <c r="K179" s="1" t="s">
+        <v>2518</v>
+      </c>
+      <c r="L179" s="1" t="s">
         <v>2519</v>
       </c>
-      <c r="L179" s="1" t="s">
+      <c r="N179" s="1" t="s">
         <v>2520</v>
-      </c>
-      <c r="N179" s="1" t="s">
-        <v>2521</v>
       </c>
       <c r="O179" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P179" s="1" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="Q179" s="3">
         <v>26907</v>
@@ -44682,12 +44631,7 @@
       <c r="AA179" s="1">
         <v>0</v>
       </c>
-      <c r="AC179" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD179" s="1" t="s">
-        <v>2417</v>
-      </c>
+      <c r="AC179" s="3"/>
       <c r="AF179" s="1" t="s">
         <v>107</v>
       </c>
@@ -44734,7 +44678,7 @@
         <v>112</v>
       </c>
       <c r="AZ179" s="1" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="BB179" s="1">
         <v>6</v>
@@ -44743,16 +44687,16 @@
         <v>23</v>
       </c>
       <c r="BD179" s="1" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="BG179" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH179" s="1" t="s">
+        <v>2524</v>
+      </c>
+      <c r="BI179" s="1" t="s">
         <v>2525</v>
-      </c>
-      <c r="BI179" s="1" t="s">
-        <v>2526</v>
       </c>
       <c r="BN179" s="1" t="s">
         <v>118</v>
@@ -44764,13 +44708,13 @@
         <v>119</v>
       </c>
       <c r="BS179" s="1" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="BT179" s="3">
         <v>35950</v>
       </c>
       <c r="BU179" s="1" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="BV179" s="1" t="s">
         <v>122</v>
@@ -44788,19 +44732,19 @@
         <v>112</v>
       </c>
       <c r="CD179" s="1" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="CE179" s="1" t="s">
         <v>1899</v>
       </c>
       <c r="CF179" s="1" t="s">
+        <v>2529</v>
+      </c>
+      <c r="CH179" s="1" t="s">
         <v>2530</v>
       </c>
-      <c r="CH179" s="1" t="s">
+      <c r="CI179" s="1" t="s">
         <v>2531</v>
-      </c>
-      <c r="CI179" s="1" t="s">
-        <v>2532</v>
       </c>
       <c r="CJ179" s="1" t="s">
         <v>130</v>
@@ -44838,19 +44782,19 @@
         <v>97</v>
       </c>
       <c r="K180" s="1" t="s">
+        <v>2532</v>
+      </c>
+      <c r="L180" s="1" t="s">
         <v>2533</v>
       </c>
-      <c r="L180" s="1" t="s">
+      <c r="N180" s="1" t="s">
         <v>2534</v>
-      </c>
-      <c r="N180" s="1" t="s">
-        <v>2535</v>
       </c>
       <c r="O180" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P180" s="1" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="Q180" s="3">
         <v>28642</v>
@@ -44925,7 +44869,7 @@
         <v>112</v>
       </c>
       <c r="AZ180" s="1" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="BB180" s="1">
         <v>6</v>
@@ -44934,13 +44878,13 @@
         <v>23</v>
       </c>
       <c r="BD180" s="1" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="BG180" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH180" s="1" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="BI180" s="1" t="s">
         <v>391</v>
@@ -44955,7 +44899,7 @@
         <v>163</v>
       </c>
       <c r="BU180" s="1" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="BV180" s="1" t="s">
         <v>122</v>
@@ -44973,16 +44917,16 @@
         <v>112</v>
       </c>
       <c r="CD180" s="1" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="CE180" s="1" t="s">
         <v>438</v>
       </c>
       <c r="CF180" s="1" t="s">
+        <v>2541</v>
+      </c>
+      <c r="CH180" s="1" t="s">
         <v>2542</v>
-      </c>
-      <c r="CH180" s="1" t="s">
-        <v>2543</v>
       </c>
       <c r="CI180" s="1" t="s">
         <v>398</v>
@@ -45023,19 +44967,19 @@
         <v>97</v>
       </c>
       <c r="K181" s="1" t="s">
+        <v>2543</v>
+      </c>
+      <c r="L181" s="1" t="s">
         <v>2544</v>
       </c>
-      <c r="L181" s="1" t="s">
+      <c r="N181" s="1" t="s">
         <v>2545</v>
-      </c>
-      <c r="N181" s="1" t="s">
-        <v>2546</v>
       </c>
       <c r="O181" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P181" s="1" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="Q181" s="3">
         <v>28239</v>
@@ -45104,7 +45048,7 @@
         <v>112</v>
       </c>
       <c r="AZ181" s="1" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="BB181" s="1">
         <v>6</v>
@@ -45113,16 +45057,16 @@
         <v>23</v>
       </c>
       <c r="BD181" s="1" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="BG181" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH181" s="1" t="s">
+        <v>2549</v>
+      </c>
+      <c r="BI181" s="1" t="s">
         <v>2550</v>
-      </c>
-      <c r="BI181" s="1" t="s">
-        <v>2551</v>
       </c>
       <c r="BN181" s="1" t="s">
         <v>118</v>
@@ -45134,13 +45078,13 @@
         <v>236</v>
       </c>
       <c r="BS181" s="1" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="BT181" s="3">
         <v>36099</v>
       </c>
       <c r="BU181" s="1" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="BV181" s="1" t="s">
         <v>122</v>
@@ -45158,19 +45102,19 @@
         <v>112</v>
       </c>
       <c r="CD181" s="1" t="s">
+        <v>2553</v>
+      </c>
+      <c r="CE181" s="1" t="s">
         <v>2554</v>
       </c>
-      <c r="CE181" s="1" t="s">
+      <c r="CF181" s="1" t="s">
         <v>2555</v>
       </c>
-      <c r="CF181" s="1" t="s">
+      <c r="CH181" s="1" t="s">
         <v>2556</v>
       </c>
-      <c r="CH181" s="1" t="s">
+      <c r="CI181" s="1" t="s">
         <v>2557</v>
-      </c>
-      <c r="CI181" s="1" t="s">
-        <v>2558</v>
       </c>
       <c r="CJ181" s="1" t="s">
         <v>130</v>
@@ -45208,19 +45152,19 @@
         <v>97</v>
       </c>
       <c r="K182" s="1" t="s">
+        <v>2558</v>
+      </c>
+      <c r="L182" s="1" t="s">
         <v>2559</v>
       </c>
-      <c r="L182" s="1" t="s">
+      <c r="N182" s="1" t="s">
         <v>2560</v>
-      </c>
-      <c r="N182" s="1" t="s">
-        <v>2561</v>
       </c>
       <c r="O182" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P182" s="1" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="Q182" s="3">
         <v>25589</v>
@@ -45289,7 +45233,7 @@
         <v>112</v>
       </c>
       <c r="AZ182" s="1" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="BB182" s="1">
         <v>6</v>
@@ -45298,16 +45242,16 @@
         <v>23</v>
       </c>
       <c r="BD182" s="1" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="BG182" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH182" s="1" t="s">
+        <v>2564</v>
+      </c>
+      <c r="BI182" s="1" t="s">
         <v>2565</v>
-      </c>
-      <c r="BI182" s="1" t="s">
-        <v>2566</v>
       </c>
       <c r="BN182" s="1" t="s">
         <v>118</v>
@@ -45319,13 +45263,13 @@
         <v>103</v>
       </c>
       <c r="BS182" s="1" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="BT182" s="3">
         <v>37735</v>
       </c>
       <c r="BU182" s="1" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="BV182" s="1" t="s">
         <v>122</v>
@@ -45343,19 +45287,19 @@
         <v>112</v>
       </c>
       <c r="CD182" s="1" t="s">
+        <v>2568</v>
+      </c>
+      <c r="CE182" s="1" t="s">
         <v>2569</v>
       </c>
-      <c r="CE182" s="1" t="s">
+      <c r="CF182" s="1" t="s">
         <v>2570</v>
       </c>
-      <c r="CF182" s="1" t="s">
+      <c r="CH182" s="1" t="s">
         <v>2571</v>
       </c>
-      <c r="CH182" s="1" t="s">
+      <c r="CI182" s="1" t="s">
         <v>2572</v>
-      </c>
-      <c r="CI182" s="1" t="s">
-        <v>2573</v>
       </c>
       <c r="CJ182" s="1" t="s">
         <v>130</v>
@@ -45393,19 +45337,19 @@
         <v>97</v>
       </c>
       <c r="K183" s="1" t="s">
+        <v>2573</v>
+      </c>
+      <c r="L183" s="1" t="s">
         <v>2574</v>
       </c>
-      <c r="L183" s="1" t="s">
+      <c r="N183" s="1" t="s">
         <v>2575</v>
-      </c>
-      <c r="N183" s="1" t="s">
-        <v>2576</v>
       </c>
       <c r="O183" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P183" s="1" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="Q183" s="3">
         <v>29170</v>
@@ -45477,7 +45421,7 @@
         <v>112</v>
       </c>
       <c r="AZ183" s="1" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="BB183" s="1">
         <v>6</v>
@@ -45486,13 +45430,13 @@
         <v>23</v>
       </c>
       <c r="BD183" s="1" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="BG183" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH183" s="1" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="BI183" s="1" t="s">
         <v>391</v>
@@ -45504,7 +45448,7 @@
         <v>106</v>
       </c>
       <c r="BU183" s="1" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="BV183" s="1" t="s">
         <v>122</v>
@@ -45522,16 +45466,16 @@
         <v>112</v>
       </c>
       <c r="CD183" s="1" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="CE183" s="1" t="s">
         <v>906</v>
       </c>
       <c r="CF183" s="1" t="s">
+        <v>2582</v>
+      </c>
+      <c r="CH183" s="1" t="s">
         <v>2583</v>
-      </c>
-      <c r="CH183" s="1" t="s">
-        <v>2584</v>
       </c>
       <c r="CI183" s="1" t="s">
         <v>398</v>
@@ -45572,19 +45516,19 @@
         <v>97</v>
       </c>
       <c r="K184" s="1" t="s">
+        <v>2584</v>
+      </c>
+      <c r="L184" s="1" t="s">
         <v>2585</v>
       </c>
-      <c r="L184" s="1" t="s">
+      <c r="N184" s="1" t="s">
         <v>2586</v>
-      </c>
-      <c r="N184" s="1" t="s">
-        <v>2587</v>
       </c>
       <c r="O184" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P184" s="1" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="Q184" s="3">
         <v>27250</v>
@@ -45614,10 +45558,10 @@
         <v>107</v>
       </c>
       <c r="AG184" s="1" t="s">
+        <v>2588</v>
+      </c>
+      <c r="AH184" s="1" t="s">
         <v>2589</v>
-      </c>
-      <c r="AH184" s="1" t="s">
-        <v>2590</v>
       </c>
       <c r="AI184" s="1" t="s">
         <v>112</v>
@@ -45659,7 +45603,7 @@
         <v>112</v>
       </c>
       <c r="AZ184" s="1" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="BB184" s="1">
         <v>6</v>
@@ -45668,13 +45612,13 @@
         <v>23</v>
       </c>
       <c r="BD184" s="1" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="BG184" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH184" s="1" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="BN184" s="1" t="s">
         <v>118</v>
@@ -45683,7 +45627,7 @@
         <v>106</v>
       </c>
       <c r="BU184" s="1" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="BV184" s="1" t="s">
         <v>122</v>
@@ -45704,13 +45648,13 @@
         <v>1668</v>
       </c>
       <c r="CE184" s="1" t="s">
+        <v>2594</v>
+      </c>
+      <c r="CF184" s="1" t="s">
         <v>2595</v>
       </c>
-      <c r="CF184" s="1" t="s">
+      <c r="CH184" s="1" t="s">
         <v>2596</v>
-      </c>
-      <c r="CH184" s="1" t="s">
-        <v>2597</v>
       </c>
       <c r="CI184" s="1" t="s">
         <v>130</v>
@@ -45751,19 +45695,19 @@
         <v>97</v>
       </c>
       <c r="K185" s="1" t="s">
+        <v>2597</v>
+      </c>
+      <c r="L185" s="1" t="s">
         <v>2598</v>
       </c>
-      <c r="L185" s="1" t="s">
+      <c r="N185" s="1" t="s">
         <v>2599</v>
-      </c>
-      <c r="N185" s="1" t="s">
-        <v>2600</v>
       </c>
       <c r="O185" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P185" s="1" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="Q185" s="3">
         <v>27999</v>
@@ -45835,7 +45779,7 @@
         <v>112</v>
       </c>
       <c r="AZ185" s="1" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="BB185" s="1">
         <v>6</v>
@@ -45844,16 +45788,16 @@
         <v>23</v>
       </c>
       <c r="BD185" s="1" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="BG185" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH185" s="1" t="s">
+        <v>2603</v>
+      </c>
+      <c r="BI185" s="1" t="s">
         <v>2604</v>
-      </c>
-      <c r="BI185" s="1" t="s">
-        <v>2605</v>
       </c>
       <c r="BN185" s="1" t="s">
         <v>118</v>
@@ -45865,13 +45809,13 @@
         <v>103</v>
       </c>
       <c r="BS185" s="1" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="BT185" s="3">
         <v>43602</v>
       </c>
       <c r="BU185" s="1" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="BV185" s="1" t="s">
         <v>122</v>
@@ -45895,13 +45839,13 @@
         <v>994</v>
       </c>
       <c r="CF185" s="1" t="s">
+        <v>2607</v>
+      </c>
+      <c r="CH185" s="1" t="s">
         <v>2608</v>
       </c>
-      <c r="CH185" s="1" t="s">
+      <c r="CI185" s="1" t="s">
         <v>2609</v>
-      </c>
-      <c r="CI185" s="1" t="s">
-        <v>2610</v>
       </c>
       <c r="CJ185" s="1" t="s">
         <v>130</v>
@@ -45939,19 +45883,19 @@
         <v>97</v>
       </c>
       <c r="K186" s="1" t="s">
+        <v>2610</v>
+      </c>
+      <c r="L186" s="1" t="s">
         <v>2611</v>
       </c>
-      <c r="L186" s="1" t="s">
+      <c r="N186" s="1" t="s">
         <v>2612</v>
-      </c>
-      <c r="N186" s="1" t="s">
-        <v>2613</v>
       </c>
       <c r="O186" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P186" s="1" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="Q186" s="3">
         <v>29305</v>
@@ -46023,7 +45967,7 @@
         <v>112</v>
       </c>
       <c r="AZ186" s="1" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="BB186" s="1">
         <v>6</v>
@@ -46032,13 +45976,13 @@
         <v>23</v>
       </c>
       <c r="BD186" s="1" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="BG186" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH186" s="1" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="BI186" s="1" t="s">
         <v>765</v>
@@ -46050,7 +45994,7 @@
         <v>106</v>
       </c>
       <c r="BU186" s="1" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="BV186" s="1" t="s">
         <v>122</v>
@@ -46068,16 +46012,16 @@
         <v>112</v>
       </c>
       <c r="CD186" s="1" t="s">
+        <v>2618</v>
+      </c>
+      <c r="CE186" s="1" t="s">
         <v>2619</v>
       </c>
-      <c r="CE186" s="1" t="s">
+      <c r="CF186" s="1" t="s">
         <v>2620</v>
       </c>
-      <c r="CF186" s="1" t="s">
+      <c r="CH186" s="1" t="s">
         <v>2621</v>
-      </c>
-      <c r="CH186" s="1" t="s">
-        <v>2622</v>
       </c>
       <c r="CI186" s="1" t="s">
         <v>771</v>
@@ -46118,19 +46062,19 @@
         <v>97</v>
       </c>
       <c r="K187" s="1" t="s">
+        <v>2622</v>
+      </c>
+      <c r="L187" s="1" t="s">
         <v>2623</v>
       </c>
-      <c r="L187" s="1" t="s">
+      <c r="N187" s="1" t="s">
         <v>2624</v>
-      </c>
-      <c r="N187" s="1" t="s">
-        <v>2625</v>
       </c>
       <c r="O187" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P187" s="1" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="Q187" s="3">
         <v>23125</v>
@@ -46163,7 +46107,7 @@
         <v>42247</v>
       </c>
       <c r="AD187" s="1" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="AF187" s="1" t="s">
         <v>107</v>
@@ -46217,16 +46161,16 @@
         <v>23</v>
       </c>
       <c r="BD187" s="1" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="BG187" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH187" s="1" t="s">
+        <v>2628</v>
+      </c>
+      <c r="BI187" s="1" t="s">
         <v>2629</v>
-      </c>
-      <c r="BI187" s="1" t="s">
-        <v>2630</v>
       </c>
       <c r="BN187" s="1" t="s">
         <v>118</v>
@@ -46238,13 +46182,13 @@
         <v>236</v>
       </c>
       <c r="BS187" s="1" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="BT187" s="3">
         <v>36580</v>
       </c>
       <c r="BU187" s="1" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="BV187" s="1" t="s">
         <v>122</v>
@@ -46265,7 +46209,7 @@
         <v>112</v>
       </c>
       <c r="CD187" s="1" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="CE187" s="1" t="s">
         <v>312</v>
@@ -46274,10 +46218,10 @@
         <v>1702</v>
       </c>
       <c r="CH187" s="1" t="s">
+        <v>2633</v>
+      </c>
+      <c r="CI187" s="1" t="s">
         <v>2634</v>
-      </c>
-      <c r="CI187" s="1" t="s">
-        <v>2635</v>
       </c>
       <c r="CJ187" s="1" t="s">
         <v>130</v>
@@ -46315,19 +46259,19 @@
         <v>97</v>
       </c>
       <c r="K188" s="1" t="s">
+        <v>2635</v>
+      </c>
+      <c r="L188" s="1" t="s">
         <v>2636</v>
       </c>
-      <c r="L188" s="1" t="s">
+      <c r="N188" s="1" t="s">
         <v>2637</v>
-      </c>
-      <c r="N188" s="1" t="s">
-        <v>2638</v>
       </c>
       <c r="O188" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P188" s="1" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="Q188" s="3">
         <v>30023</v>
@@ -46405,13 +46349,13 @@
         <v>23</v>
       </c>
       <c r="BD188" s="1" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="BG188" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH188" s="1" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="BI188" s="1" t="s">
         <v>1980</v>
@@ -46426,13 +46370,13 @@
         <v>119</v>
       </c>
       <c r="BS188" s="1" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="BT188" s="3">
         <v>37747</v>
       </c>
       <c r="BU188" s="1" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="BV188" s="1" t="s">
         <v>122</v>
@@ -46456,10 +46400,10 @@
         <v>684</v>
       </c>
       <c r="CF188" s="1" t="s">
+        <v>2643</v>
+      </c>
+      <c r="CH188" s="1" t="s">
         <v>2644</v>
-      </c>
-      <c r="CH188" s="1" t="s">
-        <v>2645</v>
       </c>
       <c r="CI188" s="1" t="s">
         <v>1988</v>
@@ -46500,22 +46444,22 @@
         <v>97</v>
       </c>
       <c r="K189" s="1" t="s">
+        <v>2645</v>
+      </c>
+      <c r="L189" s="1" t="s">
         <v>2646</v>
-      </c>
-      <c r="L189" s="1" t="s">
-        <v>2647</v>
       </c>
       <c r="M189" s="1" t="s">
         <v>103</v>
       </c>
       <c r="N189" s="1" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
       <c r="O189" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P189" s="1" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
       <c r="Q189" s="3">
         <v>26205</v>
@@ -46596,13 +46540,13 @@
         <v>23</v>
       </c>
       <c r="BD189" s="1" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
       <c r="BG189" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH189" s="1" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
       <c r="BN189" s="1" t="s">
         <v>118</v>
@@ -46611,7 +46555,7 @@
         <v>106</v>
       </c>
       <c r="BU189" s="1" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="BV189" s="1" t="s">
         <v>122</v>
@@ -46629,16 +46573,16 @@
         <v>112</v>
       </c>
       <c r="CD189" s="1" t="s">
+        <v>2652</v>
+      </c>
+      <c r="CE189" s="1" t="s">
         <v>2653</v>
       </c>
-      <c r="CE189" s="1" t="s">
+      <c r="CF189" s="1" t="s">
         <v>2654</v>
       </c>
-      <c r="CF189" s="1" t="s">
+      <c r="CH189" s="1" t="s">
         <v>2655</v>
-      </c>
-      <c r="CH189" s="1" t="s">
-        <v>2656</v>
       </c>
       <c r="CI189" s="1" t="s">
         <v>130</v>
@@ -46679,19 +46623,19 @@
         <v>97</v>
       </c>
       <c r="K190" s="1" t="s">
+        <v>2656</v>
+      </c>
+      <c r="L190" s="1" t="s">
         <v>2657</v>
       </c>
-      <c r="L190" s="1" t="s">
+      <c r="N190" s="1" t="s">
         <v>2658</v>
-      </c>
-      <c r="N190" s="1" t="s">
-        <v>2659</v>
       </c>
       <c r="O190" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P190" s="1" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
       <c r="Q190" s="3">
         <v>31662</v>
@@ -46772,13 +46716,13 @@
         <v>23</v>
       </c>
       <c r="BD190" s="1" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
       <c r="BG190" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH190" s="1" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="BI190" s="1" t="s">
         <v>600</v>
@@ -46793,7 +46737,7 @@
         <v>163</v>
       </c>
       <c r="BU190" s="1" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="BV190" s="1" t="s">
         <v>122</v>
@@ -46811,16 +46755,16 @@
         <v>112</v>
       </c>
       <c r="CD190" s="1" t="s">
+        <v>2663</v>
+      </c>
+      <c r="CE190" s="1" t="s">
         <v>2664</v>
       </c>
-      <c r="CE190" s="1" t="s">
+      <c r="CF190" s="1" t="s">
         <v>2665</v>
       </c>
-      <c r="CF190" s="1" t="s">
+      <c r="CH190" s="1" t="s">
         <v>2666</v>
-      </c>
-      <c r="CH190" s="1" t="s">
-        <v>2667</v>
       </c>
       <c r="CI190" s="1" t="s">
         <v>607</v>
@@ -46861,19 +46805,19 @@
         <v>97</v>
       </c>
       <c r="K191" s="1" t="s">
+        <v>2667</v>
+      </c>
+      <c r="L191" s="1" t="s">
         <v>2668</v>
       </c>
-      <c r="L191" s="1" t="s">
+      <c r="N191" s="1" t="s">
         <v>2669</v>
-      </c>
-      <c r="N191" s="1" t="s">
-        <v>2670</v>
       </c>
       <c r="O191" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P191" s="1" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="Q191" s="3">
         <v>29117</v>
@@ -46948,16 +46892,16 @@
         <v>23</v>
       </c>
       <c r="BD191" s="1" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
       <c r="BG191" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH191" s="1" t="s">
+        <v>2672</v>
+      </c>
+      <c r="BI191" s="1" t="s">
         <v>2673</v>
-      </c>
-      <c r="BI191" s="1" t="s">
-        <v>2674</v>
       </c>
       <c r="BN191" s="1" t="s">
         <v>118</v>
@@ -46969,13 +46913,13 @@
         <v>103</v>
       </c>
       <c r="BS191" s="1" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
       <c r="BT191" s="3">
         <v>37334</v>
       </c>
       <c r="BU191" s="1" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
       <c r="BV191" s="1" t="s">
         <v>122</v>
@@ -46996,16 +46940,16 @@
         <v>516</v>
       </c>
       <c r="CE191" s="1" t="s">
+        <v>2676</v>
+      </c>
+      <c r="CF191" s="1" t="s">
         <v>2677</v>
       </c>
-      <c r="CF191" s="1" t="s">
+      <c r="CH191" s="1" t="s">
         <v>2678</v>
       </c>
-      <c r="CH191" s="1" t="s">
+      <c r="CI191" s="1" t="s">
         <v>2679</v>
-      </c>
-      <c r="CI191" s="1" t="s">
-        <v>2680</v>
       </c>
       <c r="CJ191" s="1" t="s">
         <v>130</v>
@@ -47043,19 +46987,19 @@
         <v>97</v>
       </c>
       <c r="K192" s="1" t="s">
+        <v>2680</v>
+      </c>
+      <c r="L192" s="1" t="s">
         <v>2681</v>
       </c>
-      <c r="L192" s="1" t="s">
+      <c r="N192" s="1" t="s">
         <v>2682</v>
-      </c>
-      <c r="N192" s="1" t="s">
-        <v>2683</v>
       </c>
       <c r="O192" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P192" s="1" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
       <c r="Q192" s="3">
         <v>30007</v>
@@ -47133,16 +47077,16 @@
         <v>23</v>
       </c>
       <c r="BD192" s="1" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
       <c r="BG192" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH192" s="1" t="s">
+        <v>2685</v>
+      </c>
+      <c r="BI192" s="1" t="s">
         <v>2686</v>
-      </c>
-      <c r="BI192" s="1" t="s">
-        <v>2687</v>
       </c>
       <c r="BN192" s="1" t="s">
         <v>118</v>
@@ -47154,13 +47098,13 @@
         <v>103</v>
       </c>
       <c r="BS192" s="1" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
       <c r="BT192" s="3">
         <v>37904</v>
       </c>
       <c r="BU192" s="1" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
       <c r="BV192" s="1" t="s">
         <v>122</v>
@@ -47181,16 +47125,16 @@
         <v>994</v>
       </c>
       <c r="CE192" s="1" t="s">
+        <v>2689</v>
+      </c>
+      <c r="CF192" s="1" t="s">
         <v>2690</v>
       </c>
-      <c r="CF192" s="1" t="s">
+      <c r="CH192" s="1" t="s">
         <v>2691</v>
       </c>
-      <c r="CH192" s="1" t="s">
+      <c r="CI192" s="1" t="s">
         <v>2692</v>
-      </c>
-      <c r="CI192" s="1" t="s">
-        <v>2693</v>
       </c>
       <c r="CJ192" s="1" t="s">
         <v>130</v>
@@ -47228,19 +47172,19 @@
         <v>97</v>
       </c>
       <c r="K193" s="1" t="s">
+        <v>2693</v>
+      </c>
+      <c r="L193" s="1" t="s">
         <v>2694</v>
       </c>
-      <c r="L193" s="1" t="s">
+      <c r="N193" s="1" t="s">
         <v>2695</v>
-      </c>
-      <c r="N193" s="1" t="s">
-        <v>2696</v>
       </c>
       <c r="O193" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P193" s="1" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
       <c r="Q193" s="3">
         <v>26221</v>
@@ -47318,13 +47262,13 @@
         <v>23</v>
       </c>
       <c r="BD193" s="1" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="BG193" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH193" s="1" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="BI193" s="1" t="s">
         <v>391</v>
@@ -47339,13 +47283,13 @@
         <v>119</v>
       </c>
       <c r="BS193" s="1" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
       <c r="BT193" s="3">
         <v>36111</v>
       </c>
       <c r="BU193" s="1" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
       <c r="BV193" s="1" t="s">
         <v>122</v>
@@ -47363,16 +47307,16 @@
         <v>112</v>
       </c>
       <c r="CD193" s="1" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="CE193" s="1" t="s">
         <v>1190</v>
       </c>
       <c r="CF193" s="1" t="s">
+        <v>2702</v>
+      </c>
+      <c r="CH193" s="1" t="s">
         <v>2703</v>
-      </c>
-      <c r="CH193" s="1" t="s">
-        <v>2704</v>
       </c>
       <c r="CI193" s="1" t="s">
         <v>398</v>
@@ -47413,19 +47357,19 @@
         <v>97</v>
       </c>
       <c r="K194" s="1" t="s">
+        <v>2704</v>
+      </c>
+      <c r="L194" s="1" t="s">
         <v>2705</v>
       </c>
-      <c r="L194" s="1" t="s">
+      <c r="N194" s="1" t="s">
         <v>2706</v>
-      </c>
-      <c r="N194" s="1" t="s">
-        <v>2707</v>
       </c>
       <c r="O194" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P194" s="1" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="Q194" s="3">
         <v>27571</v>
@@ -47500,16 +47444,16 @@
         <v>23</v>
       </c>
       <c r="BD194" s="1" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="BG194" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH194" s="1" t="s">
+        <v>2709</v>
+      </c>
+      <c r="BI194" s="1" t="s">
         <v>2710</v>
-      </c>
-      <c r="BI194" s="1" t="s">
-        <v>2711</v>
       </c>
       <c r="BN194" s="1" t="s">
         <v>118</v>
@@ -47521,13 +47465,13 @@
         <v>119</v>
       </c>
       <c r="BS194" s="1" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="BT194" s="3">
         <v>37785</v>
       </c>
       <c r="BU194" s="1" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="BV194" s="1" t="s">
         <v>122</v>
@@ -47545,19 +47489,19 @@
         <v>112</v>
       </c>
       <c r="CD194" s="1" t="s">
+        <v>2713</v>
+      </c>
+      <c r="CE194" s="1" t="s">
         <v>2714</v>
       </c>
-      <c r="CE194" s="1" t="s">
+      <c r="CF194" s="1" t="s">
         <v>2715</v>
       </c>
-      <c r="CF194" s="1" t="s">
+      <c r="CH194" s="1" t="s">
         <v>2716</v>
       </c>
-      <c r="CH194" s="1" t="s">
+      <c r="CI194" s="1" t="s">
         <v>2717</v>
-      </c>
-      <c r="CI194" s="1" t="s">
-        <v>2718</v>
       </c>
       <c r="CJ194" s="1" t="s">
         <v>130</v>
@@ -47589,16 +47533,16 @@
         <v>95</v>
       </c>
       <c r="I195" s="1" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K195" s="1" t="s">
+        <v>2719</v>
+      </c>
+      <c r="L195" s="1" t="s">
         <v>2720</v>
-      </c>
-      <c r="L195" s="1" t="s">
-        <v>2721</v>
       </c>
       <c r="O195" s="1" t="s">
         <v>101</v>
@@ -47676,7 +47620,7 @@
         <v>20</v>
       </c>
       <c r="BD195" s="1" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="BN195" s="1" t="s">
         <v>118</v>
@@ -47691,7 +47635,7 @@
         <v>0</v>
       </c>
       <c r="CA195" s="1" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="CB195" s="1" t="s">
         <v>124</v>
@@ -47700,7 +47644,7 @@
         <v>112</v>
       </c>
       <c r="CD195" s="1" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="CH195" s="1" t="s">
         <v>130</v>
@@ -47744,19 +47688,19 @@
         <v>97</v>
       </c>
       <c r="K196" s="1" t="s">
+        <v>2723</v>
+      </c>
+      <c r="L196" s="1" t="s">
         <v>2724</v>
       </c>
-      <c r="L196" s="1" t="s">
+      <c r="N196" s="1" t="s">
         <v>2725</v>
-      </c>
-      <c r="N196" s="1" t="s">
-        <v>2726</v>
       </c>
       <c r="O196" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P196" s="1" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="Q196" s="3">
         <v>30993</v>
@@ -47828,7 +47772,7 @@
         <v>112</v>
       </c>
       <c r="AZ196" s="1" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="BB196" s="1">
         <v>6</v>
@@ -47837,13 +47781,13 @@
         <v>23</v>
       </c>
       <c r="BD196" s="1" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="BG196" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH196" s="1" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="BN196" s="1" t="s">
         <v>118</v>
@@ -47852,7 +47796,7 @@
         <v>106</v>
       </c>
       <c r="BU196" s="1" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="BV196" s="1" t="s">
         <v>122</v>
@@ -47870,16 +47814,16 @@
         <v>112</v>
       </c>
       <c r="CD196" s="1" t="s">
+        <v>2731</v>
+      </c>
+      <c r="CE196" s="1" t="s">
         <v>2732</v>
       </c>
-      <c r="CE196" s="1" t="s">
+      <c r="CF196" s="1" t="s">
         <v>2733</v>
       </c>
-      <c r="CF196" s="1" t="s">
+      <c r="CH196" s="1" t="s">
         <v>2734</v>
-      </c>
-      <c r="CH196" s="1" t="s">
-        <v>2735</v>
       </c>
       <c r="CI196" s="1" t="s">
         <v>130</v>
@@ -47920,19 +47864,19 @@
         <v>97</v>
       </c>
       <c r="K197" s="1" t="s">
+        <v>2735</v>
+      </c>
+      <c r="L197" s="1" t="s">
         <v>2736</v>
       </c>
-      <c r="L197" s="1" t="s">
+      <c r="N197" s="1" t="s">
         <v>2737</v>
-      </c>
-      <c r="N197" s="1" t="s">
-        <v>2738</v>
       </c>
       <c r="O197" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P197" s="1" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="Q197" s="3">
         <v>30065</v>
@@ -48004,7 +47948,7 @@
         <v>112</v>
       </c>
       <c r="AZ197" s="1" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="BB197" s="1">
         <v>6</v>
@@ -48013,16 +47957,16 @@
         <v>23</v>
       </c>
       <c r="BD197" s="1" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="BG197" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH197" s="1" t="s">
+        <v>2741</v>
+      </c>
+      <c r="BI197" s="1" t="s">
         <v>2742</v>
-      </c>
-      <c r="BI197" s="1" t="s">
-        <v>2743</v>
       </c>
       <c r="BN197" s="1" t="s">
         <v>118</v>
@@ -48031,7 +47975,7 @@
         <v>106</v>
       </c>
       <c r="BU197" s="1" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="BV197" s="1" t="s">
         <v>122</v>
@@ -48049,19 +47993,19 @@
         <v>112</v>
       </c>
       <c r="CD197" s="1" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="CE197" s="1" t="s">
         <v>1165</v>
       </c>
       <c r="CF197" s="1" t="s">
+        <v>2745</v>
+      </c>
+      <c r="CH197" s="1" t="s">
         <v>2746</v>
       </c>
-      <c r="CH197" s="1" t="s">
+      <c r="CI197" s="1" t="s">
         <v>2747</v>
-      </c>
-      <c r="CI197" s="1" t="s">
-        <v>2748</v>
       </c>
       <c r="CJ197" s="1" t="s">
         <v>130</v>
@@ -48099,19 +48043,19 @@
         <v>97</v>
       </c>
       <c r="K198" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="L198" s="1" t="s">
         <v>2749</v>
       </c>
-      <c r="L198" s="1" t="s">
+      <c r="N198" s="1" t="s">
         <v>2750</v>
-      </c>
-      <c r="N198" s="1" t="s">
-        <v>2751</v>
       </c>
       <c r="O198" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P198" s="1" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="Q198" s="3">
         <v>30033</v>
@@ -48183,7 +48127,7 @@
         <v>112</v>
       </c>
       <c r="AZ198" s="1" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="BB198" s="1">
         <v>6</v>
@@ -48192,7 +48136,7 @@
         <v>23</v>
       </c>
       <c r="BD198" s="1" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="BG198" s="1" t="s">
         <v>115</v>
@@ -48207,7 +48151,7 @@
         <v>106</v>
       </c>
       <c r="BU198" s="1" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="BV198" s="1" t="s">
         <v>122</v>
@@ -48228,10 +48172,10 @@
         <v>1165</v>
       </c>
       <c r="CE198" s="1" t="s">
+        <v>2755</v>
+      </c>
+      <c r="CF198" s="1" t="s">
         <v>2756</v>
-      </c>
-      <c r="CF198" s="1" t="s">
-        <v>2757</v>
       </c>
       <c r="CH198" s="1" t="s">
         <v>1076</v>
@@ -48275,19 +48219,19 @@
         <v>97</v>
       </c>
       <c r="K199" s="1" t="s">
+        <v>2757</v>
+      </c>
+      <c r="L199" s="1" t="s">
         <v>2758</v>
       </c>
-      <c r="L199" s="1" t="s">
+      <c r="N199" s="1" t="s">
         <v>2759</v>
-      </c>
-      <c r="N199" s="1" t="s">
-        <v>2760</v>
       </c>
       <c r="O199" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P199" s="1" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
       <c r="Q199" s="3">
         <v>29411</v>
@@ -48359,7 +48303,7 @@
         <v>112</v>
       </c>
       <c r="AZ199" s="1" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="BB199" s="1">
         <v>6</v>
@@ -48368,13 +48312,13 @@
         <v>23</v>
       </c>
       <c r="BD199" s="1" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
       <c r="BG199" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH199" s="1" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
       <c r="BI199" s="1" t="s">
         <v>1980</v>
@@ -48392,13 +48336,13 @@
         <v>163</v>
       </c>
       <c r="BS199" s="1" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
       <c r="BT199" s="3">
         <v>37513</v>
       </c>
       <c r="BU199" s="1" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="BV199" s="1" t="s">
         <v>122</v>
@@ -48416,16 +48360,16 @@
         <v>112</v>
       </c>
       <c r="CD199" s="1" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
       <c r="CE199" s="1" t="s">
         <v>126</v>
       </c>
       <c r="CF199" s="1" t="s">
+        <v>2767</v>
+      </c>
+      <c r="CH199" s="1" t="s">
         <v>2768</v>
-      </c>
-      <c r="CH199" s="1" t="s">
-        <v>2769</v>
       </c>
       <c r="CI199" s="1" t="s">
         <v>1988</v>
@@ -48466,19 +48410,19 @@
         <v>97</v>
       </c>
       <c r="K200" s="1" t="s">
+        <v>2769</v>
+      </c>
+      <c r="L200" s="1" t="s">
         <v>2770</v>
       </c>
-      <c r="L200" s="1" t="s">
+      <c r="N200" s="1" t="s">
         <v>2771</v>
-      </c>
-      <c r="N200" s="1" t="s">
-        <v>2772</v>
       </c>
       <c r="O200" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P200" s="1" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
       <c r="Q200" s="3">
         <v>32173</v>
@@ -48556,16 +48500,16 @@
         <v>23</v>
       </c>
       <c r="BD200" s="1" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
       <c r="BG200" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH200" s="1" t="s">
+        <v>2774</v>
+      </c>
+      <c r="BI200" s="1" t="s">
         <v>2775</v>
-      </c>
-      <c r="BI200" s="1" t="s">
-        <v>2776</v>
       </c>
       <c r="BN200" s="1" t="s">
         <v>118</v>
@@ -48577,13 +48521,13 @@
         <v>236</v>
       </c>
       <c r="BS200" s="1" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
       <c r="BT200" s="3">
         <v>41024</v>
       </c>
       <c r="BU200" s="1" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="BV200" s="1" t="s">
         <v>122</v>
@@ -48601,19 +48545,19 @@
         <v>112</v>
       </c>
       <c r="CD200" s="1" t="s">
+        <v>2778</v>
+      </c>
+      <c r="CE200" s="1" t="s">
         <v>2779</v>
       </c>
-      <c r="CE200" s="1" t="s">
+      <c r="CF200" s="1" t="s">
         <v>2780</v>
       </c>
-      <c r="CF200" s="1" t="s">
+      <c r="CH200" s="1" t="s">
         <v>2781</v>
       </c>
-      <c r="CH200" s="1" t="s">
+      <c r="CI200" s="1" t="s">
         <v>2782</v>
-      </c>
-      <c r="CI200" s="1" t="s">
-        <v>2783</v>
       </c>
       <c r="CJ200" s="1" t="s">
         <v>130</v>
@@ -48651,10 +48595,10 @@
         <v>97</v>
       </c>
       <c r="K201" s="1" t="s">
+        <v>2783</v>
+      </c>
+      <c r="L201" s="1" t="s">
         <v>2784</v>
-      </c>
-      <c r="L201" s="1" t="s">
-        <v>2785</v>
       </c>
       <c r="O201" s="1" t="s">
         <v>101</v>
@@ -48681,10 +48625,10 @@
         <v>107</v>
       </c>
       <c r="AG201" s="1" t="s">
+        <v>2588</v>
+      </c>
+      <c r="AH201" s="1" t="s">
         <v>2589</v>
-      </c>
-      <c r="AH201" s="1" t="s">
-        <v>2590</v>
       </c>
       <c r="AJ201" s="1" t="s">
         <v>110</v>
@@ -48726,7 +48670,7 @@
         <v>112</v>
       </c>
       <c r="AZ201" s="1" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
       <c r="BB201" s="1">
         <v>2</v>
@@ -48735,7 +48679,7 @@
         <v>21</v>
       </c>
       <c r="BD201" s="1" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="BN201" s="1" t="s">
         <v>118</v>
@@ -48762,7 +48706,7 @@
         <v>112</v>
       </c>
       <c r="CD201" s="1" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
       <c r="CH201" s="1" t="s">
         <v>1934</v>
@@ -48806,19 +48750,19 @@
         <v>97</v>
       </c>
       <c r="K202" s="1" t="s">
+        <v>2787</v>
+      </c>
+      <c r="L202" s="1" t="s">
         <v>2788</v>
       </c>
-      <c r="L202" s="1" t="s">
+      <c r="N202" s="1" t="s">
         <v>2789</v>
-      </c>
-      <c r="N202" s="1" t="s">
-        <v>2790</v>
       </c>
       <c r="O202" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P202" s="1" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="Q202" s="3">
         <v>30408</v>
@@ -48887,7 +48831,7 @@
         <v>112</v>
       </c>
       <c r="AZ202" s="1" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="BB202" s="1">
         <v>6</v>
@@ -48896,13 +48840,13 @@
         <v>23</v>
       </c>
       <c r="BD202" s="1" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="BG202" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH202" s="1" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="BI202" s="1" t="s">
         <v>2356</v>
@@ -48917,13 +48861,13 @@
         <v>103</v>
       </c>
       <c r="BS202" s="1" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="BT202" s="3">
         <v>37336</v>
       </c>
       <c r="BU202" s="1" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="BV202" s="1" t="s">
         <v>122</v>
@@ -48941,16 +48885,16 @@
         <v>112</v>
       </c>
       <c r="CD202" s="1" t="s">
+        <v>2796</v>
+      </c>
+      <c r="CE202" s="1" t="s">
         <v>2797</v>
       </c>
-      <c r="CE202" s="1" t="s">
+      <c r="CF202" s="1" t="s">
         <v>2798</v>
       </c>
-      <c r="CF202" s="1" t="s">
+      <c r="CH202" s="1" t="s">
         <v>2799</v>
-      </c>
-      <c r="CH202" s="1" t="s">
-        <v>2800</v>
       </c>
       <c r="CI202" s="1" t="s">
         <v>2359</v>
@@ -48991,19 +48935,19 @@
         <v>97</v>
       </c>
       <c r="K203" s="1" t="s">
+        <v>2800</v>
+      </c>
+      <c r="L203" s="1" t="s">
         <v>2801</v>
       </c>
-      <c r="L203" s="1" t="s">
+      <c r="N203" s="1" t="s">
         <v>2802</v>
-      </c>
-      <c r="N203" s="1" t="s">
-        <v>2803</v>
       </c>
       <c r="O203" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P203" s="1" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="Q203" s="3">
         <v>28132</v>
@@ -49075,7 +49019,7 @@
         <v>112</v>
       </c>
       <c r="AZ203" s="1" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="BB203" s="1">
         <v>6</v>
@@ -49084,13 +49028,13 @@
         <v>23</v>
       </c>
       <c r="BD203" s="1" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="BG203" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH203" s="1" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="BI203" s="1" t="s">
         <v>2378</v>
@@ -49102,7 +49046,7 @@
         <v>106</v>
       </c>
       <c r="BU203" s="1" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="BV203" s="1" t="s">
         <v>122</v>
@@ -49120,16 +49064,16 @@
         <v>112</v>
       </c>
       <c r="CD203" s="1" t="s">
+        <v>2808</v>
+      </c>
+      <c r="CE203" s="1" t="s">
         <v>2809</v>
       </c>
-      <c r="CE203" s="1" t="s">
+      <c r="CF203" s="1" t="s">
         <v>2810</v>
       </c>
-      <c r="CF203" s="1" t="s">
+      <c r="CH203" s="1" t="s">
         <v>2811</v>
-      </c>
-      <c r="CH203" s="1" t="s">
-        <v>2812</v>
       </c>
       <c r="CI203" s="1" t="s">
         <v>2383</v>
@@ -49170,19 +49114,19 @@
         <v>97</v>
       </c>
       <c r="K204" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="L204" s="1" t="s">
         <v>2813</v>
       </c>
-      <c r="L204" s="1" t="s">
+      <c r="N204" s="1" t="s">
         <v>2814</v>
-      </c>
-      <c r="N204" s="1" t="s">
-        <v>2815</v>
       </c>
       <c r="O204" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P204" s="1" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
       <c r="Q204" s="3">
         <v>31743</v>
@@ -49263,13 +49207,13 @@
         <v>23</v>
       </c>
       <c r="BD204" s="1" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="BG204" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH204" s="1" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="BN204" s="1" t="s">
         <v>118</v>
@@ -49278,7 +49222,7 @@
         <v>106</v>
       </c>
       <c r="BU204" s="1" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="BV204" s="1" t="s">
         <v>122</v>
@@ -49296,16 +49240,16 @@
         <v>112</v>
       </c>
       <c r="CD204" s="1" t="s">
+        <v>2819</v>
+      </c>
+      <c r="CE204" s="1" t="s">
         <v>2820</v>
       </c>
-      <c r="CE204" s="1" t="s">
+      <c r="CF204" s="1" t="s">
         <v>2821</v>
       </c>
-      <c r="CF204" s="1" t="s">
+      <c r="CH204" s="1" t="s">
         <v>2822</v>
-      </c>
-      <c r="CH204" s="1" t="s">
-        <v>2823</v>
       </c>
       <c r="CI204" s="1" t="s">
         <v>130</v>
@@ -49346,19 +49290,19 @@
         <v>97</v>
       </c>
       <c r="K205" s="1" t="s">
+        <v>2823</v>
+      </c>
+      <c r="L205" s="1" t="s">
         <v>2824</v>
       </c>
-      <c r="L205" s="1" t="s">
+      <c r="N205" s="1" t="s">
         <v>2825</v>
-      </c>
-      <c r="N205" s="1" t="s">
-        <v>2826</v>
       </c>
       <c r="O205" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P205" s="1" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
       <c r="Q205" s="3">
         <v>23750</v>
@@ -49390,12 +49334,7 @@
       <c r="AB205" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AC205" s="3">
-        <v>43008</v>
-      </c>
-      <c r="AD205" s="1" t="s">
-        <v>2828</v>
-      </c>
+      <c r="AC205" s="3"/>
       <c r="AF205" s="1" t="s">
         <v>107</v>
       </c>
@@ -49445,7 +49384,7 @@
         <v>112</v>
       </c>
       <c r="AZ205" s="1" t="s">
-        <v>2829</v>
+        <v>2827</v>
       </c>
       <c r="BB205" s="1">
         <v>6</v>
@@ -49454,16 +49393,16 @@
         <v>23</v>
       </c>
       <c r="BD205" s="1" t="s">
-        <v>2830</v>
+        <v>2828</v>
       </c>
       <c r="BG205" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH205" s="1" t="s">
-        <v>2831</v>
+        <v>2829</v>
       </c>
       <c r="BI205" s="1" t="s">
-        <v>2832</v>
+        <v>2830</v>
       </c>
       <c r="BN205" s="1" t="s">
         <v>118</v>
@@ -49472,7 +49411,7 @@
         <v>106</v>
       </c>
       <c r="BU205" s="1" t="s">
-        <v>2833</v>
+        <v>2831</v>
       </c>
       <c r="BV205" s="1" t="s">
         <v>122</v>
@@ -49496,16 +49435,16 @@
         <v>1219</v>
       </c>
       <c r="CE205" s="1" t="s">
+        <v>2832</v>
+      </c>
+      <c r="CF205" s="1" t="s">
+        <v>2833</v>
+      </c>
+      <c r="CH205" s="1" t="s">
         <v>2834</v>
       </c>
-      <c r="CF205" s="1" t="s">
+      <c r="CI205" s="1" t="s">
         <v>2835</v>
-      </c>
-      <c r="CH205" s="1" t="s">
-        <v>2836</v>
-      </c>
-      <c r="CI205" s="1" t="s">
-        <v>2837</v>
       </c>
       <c r="CJ205" s="1" t="s">
         <v>130</v>
@@ -49525,7 +49464,7 @@
         <v>1500</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>2838</v>
+        <v>2836</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>112</v>
@@ -49537,16 +49476,16 @@
         <v>95</v>
       </c>
       <c r="I206" s="1" t="s">
-        <v>2839</v>
+        <v>2837</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K206" s="1" t="s">
-        <v>2840</v>
+        <v>2838</v>
       </c>
       <c r="L206" s="1" t="s">
-        <v>2841</v>
+        <v>2839</v>
       </c>
       <c r="O206" s="1" t="s">
         <v>111</v>
@@ -49570,7 +49509,7 @@
         <v>107</v>
       </c>
       <c r="AG206" s="1" t="s">
-        <v>2842</v>
+        <v>2840</v>
       </c>
       <c r="AH206" s="1" t="s">
         <v>387</v>
@@ -49615,7 +49554,7 @@
         <v>0</v>
       </c>
       <c r="CA206" s="1" t="s">
-        <v>2843</v>
+        <v>2841</v>
       </c>
       <c r="CB206" s="1" t="s">
         <v>124</v>
@@ -49624,10 +49563,10 @@
         <v>112</v>
       </c>
       <c r="CD206" s="1" t="s">
-        <v>2844</v>
+        <v>2842</v>
       </c>
       <c r="CF206" s="1" t="s">
-        <v>2841</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="207" spans="1:88" x14ac:dyDescent="0.25">
@@ -49644,7 +49583,7 @@
         <v>1500</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>2845</v>
+        <v>2843</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>112</v>
@@ -49656,16 +49595,16 @@
         <v>95</v>
       </c>
       <c r="I207" s="1" t="s">
-        <v>2846</v>
+        <v>2844</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K207" s="1" t="s">
-        <v>2847</v>
+        <v>2845</v>
       </c>
       <c r="L207" s="1" t="s">
-        <v>2848</v>
+        <v>2846</v>
       </c>
       <c r="O207" s="1" t="s">
         <v>111</v>
@@ -49692,7 +49631,7 @@
         <v>107</v>
       </c>
       <c r="AG207" s="1" t="s">
-        <v>2842</v>
+        <v>2840</v>
       </c>
       <c r="AH207" s="1" t="s">
         <v>387</v>
@@ -49737,7 +49676,7 @@
         <v>0</v>
       </c>
       <c r="CA207" s="1" t="s">
-        <v>2849</v>
+        <v>2847</v>
       </c>
       <c r="CB207" s="1" t="s">
         <v>124</v>
@@ -49746,10 +49685,10 @@
         <v>112</v>
       </c>
       <c r="CD207" s="1" t="s">
-        <v>2844</v>
+        <v>2842</v>
       </c>
       <c r="CF207" s="1" t="s">
-        <v>2848</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="208" spans="1:88" x14ac:dyDescent="0.25">
@@ -49784,10 +49723,10 @@
         <v>97</v>
       </c>
       <c r="K208" s="1" t="s">
-        <v>2850</v>
+        <v>2848</v>
       </c>
       <c r="L208" s="1" t="s">
-        <v>2851</v>
+        <v>2849</v>
       </c>
       <c r="O208" s="1" t="s">
         <v>111</v>
@@ -49811,7 +49750,7 @@
         <v>107</v>
       </c>
       <c r="AG208" s="1" t="s">
-        <v>2842</v>
+        <v>2840</v>
       </c>
       <c r="AH208" s="1" t="s">
         <v>387</v>
@@ -49865,10 +49804,10 @@
         <v>112</v>
       </c>
       <c r="CD208" s="1" t="s">
-        <v>2844</v>
+        <v>2842</v>
       </c>
       <c r="CF208" s="1" t="s">
-        <v>2851</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="209" spans="1:88" x14ac:dyDescent="0.25">
@@ -49885,7 +49824,7 @@
         <v>189</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>2852</v>
+        <v>2850</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>93</v>
@@ -49897,16 +49836,16 @@
         <v>95</v>
       </c>
       <c r="I209" s="1" t="s">
-        <v>2853</v>
+        <v>2851</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K209" s="1" t="s">
-        <v>2854</v>
+        <v>2852</v>
       </c>
       <c r="L209" s="1" t="s">
-        <v>2855</v>
+        <v>2853</v>
       </c>
       <c r="O209" s="1" t="s">
         <v>111</v>
@@ -49975,7 +49914,7 @@
         <v>0</v>
       </c>
       <c r="CA209" s="1" t="s">
-        <v>2856</v>
+        <v>2854</v>
       </c>
       <c r="CB209" s="1" t="s">
         <v>124</v>
@@ -49984,10 +49923,10 @@
         <v>112</v>
       </c>
       <c r="CD209" s="1" t="s">
-        <v>2844</v>
+        <v>2842</v>
       </c>
       <c r="CF209" s="1" t="s">
-        <v>2855</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="210" spans="1:88" x14ac:dyDescent="0.25">
@@ -50004,7 +49943,7 @@
         <v>1500</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>2838</v>
+        <v>2836</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>93</v>
@@ -50016,16 +49955,16 @@
         <v>95</v>
       </c>
       <c r="I210" s="1" t="s">
-        <v>2839</v>
+        <v>2837</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K210" s="1" t="s">
-        <v>2857</v>
+        <v>2855</v>
       </c>
       <c r="L210" s="1" t="s">
-        <v>2858</v>
+        <v>2856</v>
       </c>
       <c r="O210" s="1" t="s">
         <v>111</v>
@@ -50094,7 +50033,7 @@
         <v>0</v>
       </c>
       <c r="CA210" s="1" t="s">
-        <v>2843</v>
+        <v>2841</v>
       </c>
       <c r="CB210" s="1" t="s">
         <v>124</v>
@@ -50103,10 +50042,10 @@
         <v>112</v>
       </c>
       <c r="CD210" s="1" t="s">
-        <v>2844</v>
+        <v>2842</v>
       </c>
       <c r="CF210" s="1" t="s">
-        <v>2858</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="211" spans="1:88" x14ac:dyDescent="0.25">
@@ -50123,7 +50062,7 @@
         <v>189</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>2852</v>
+        <v>2850</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>93</v>
@@ -50135,16 +50074,16 @@
         <v>95</v>
       </c>
       <c r="I211" s="1" t="s">
-        <v>2853</v>
+        <v>2851</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K211" s="1" t="s">
-        <v>2859</v>
+        <v>2857</v>
       </c>
       <c r="L211" s="1" t="s">
-        <v>2860</v>
+        <v>2858</v>
       </c>
       <c r="O211" s="1" t="s">
         <v>111</v>
@@ -50213,7 +50152,7 @@
         <v>0</v>
       </c>
       <c r="CA211" s="1" t="s">
-        <v>2856</v>
+        <v>2854</v>
       </c>
       <c r="CB211" s="1" t="s">
         <v>124</v>
@@ -50222,10 +50161,10 @@
         <v>112</v>
       </c>
       <c r="CD211" s="1" t="s">
-        <v>2844</v>
+        <v>2842</v>
       </c>
       <c r="CF211" s="1" t="s">
-        <v>2860</v>
+        <v>2858</v>
       </c>
     </row>
     <row r="212" spans="1:88" x14ac:dyDescent="0.25">
@@ -50260,10 +50199,10 @@
         <v>97</v>
       </c>
       <c r="K212" s="1" t="s">
-        <v>2861</v>
+        <v>2859</v>
       </c>
       <c r="L212" s="1" t="s">
-        <v>2862</v>
+        <v>2860</v>
       </c>
       <c r="O212" s="1" t="s">
         <v>111</v>
@@ -50341,10 +50280,10 @@
         <v>112</v>
       </c>
       <c r="CD212" s="1" t="s">
-        <v>2844</v>
+        <v>2842</v>
       </c>
       <c r="CF212" s="1" t="s">
-        <v>2862</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="213" spans="1:88" x14ac:dyDescent="0.25">
@@ -50379,19 +50318,19 @@
         <v>97</v>
       </c>
       <c r="K213" s="1" t="s">
+        <v>2861</v>
+      </c>
+      <c r="L213" s="1" t="s">
+        <v>2862</v>
+      </c>
+      <c r="N213" s="1" t="s">
         <v>2863</v>
-      </c>
-      <c r="L213" s="1" t="s">
-        <v>2864</v>
-      </c>
-      <c r="N213" s="1" t="s">
-        <v>2865</v>
       </c>
       <c r="O213" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P213" s="1" t="s">
-        <v>2866</v>
+        <v>2864</v>
       </c>
       <c r="Q213" s="3">
         <v>26043</v>
@@ -50414,12 +50353,7 @@
       <c r="AA213" s="1">
         <v>0</v>
       </c>
-      <c r="AC213" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD213" s="1" t="s">
-        <v>2828</v>
-      </c>
+      <c r="AC213" s="3"/>
       <c r="AF213" s="1" t="s">
         <v>107</v>
       </c>
@@ -50472,13 +50406,13 @@
         <v>23</v>
       </c>
       <c r="BD213" s="1" t="s">
-        <v>2867</v>
+        <v>2865</v>
       </c>
       <c r="BG213" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH213" s="1" t="s">
-        <v>2868</v>
+        <v>2866</v>
       </c>
       <c r="BI213" s="1" t="s">
         <v>391</v>
@@ -50493,13 +50427,13 @@
         <v>103</v>
       </c>
       <c r="BS213" s="1" t="s">
-        <v>2869</v>
+        <v>2867</v>
       </c>
       <c r="BT213" s="3">
         <v>36306</v>
       </c>
       <c r="BU213" s="1" t="s">
-        <v>2870</v>
+        <v>2868</v>
       </c>
       <c r="BV213" s="1" t="s">
         <v>122</v>
@@ -50517,16 +50451,16 @@
         <v>112</v>
       </c>
       <c r="CD213" s="1" t="s">
+        <v>2869</v>
+      </c>
+      <c r="CE213" s="1" t="s">
+        <v>2870</v>
+      </c>
+      <c r="CF213" s="1" t="s">
         <v>2871</v>
       </c>
-      <c r="CE213" s="1" t="s">
+      <c r="CH213" s="1" t="s">
         <v>2872</v>
-      </c>
-      <c r="CF213" s="1" t="s">
-        <v>2873</v>
-      </c>
-      <c r="CH213" s="1" t="s">
-        <v>2874</v>
       </c>
       <c r="CI213" s="1" t="s">
         <v>398</v>
@@ -50567,19 +50501,19 @@
         <v>97</v>
       </c>
       <c r="K214" s="1" t="s">
+        <v>2873</v>
+      </c>
+      <c r="L214" s="1" t="s">
+        <v>2874</v>
+      </c>
+      <c r="N214" s="1" t="s">
         <v>2875</v>
-      </c>
-      <c r="L214" s="1" t="s">
-        <v>2876</v>
-      </c>
-      <c r="N214" s="1" t="s">
-        <v>2877</v>
       </c>
       <c r="O214" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P214" s="1" t="s">
-        <v>2878</v>
+        <v>2876</v>
       </c>
       <c r="Q214" s="3">
         <v>29945</v>
@@ -50602,12 +50536,7 @@
       <c r="AA214" s="1">
         <v>0</v>
       </c>
-      <c r="AC214" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD214" s="1" t="s">
-        <v>2828</v>
-      </c>
+      <c r="AC214" s="3"/>
       <c r="AF214" s="1" t="s">
         <v>107</v>
       </c>
@@ -50663,13 +50592,13 @@
         <v>23</v>
       </c>
       <c r="BD214" s="1" t="s">
-        <v>2879</v>
+        <v>2877</v>
       </c>
       <c r="BG214" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH214" s="1" t="s">
-        <v>2880</v>
+        <v>2878</v>
       </c>
       <c r="BI214" s="1" t="s">
         <v>1980</v>
@@ -50681,7 +50610,7 @@
         <v>106</v>
       </c>
       <c r="BU214" s="1" t="s">
-        <v>2881</v>
+        <v>2879</v>
       </c>
       <c r="BV214" s="1" t="s">
         <v>122</v>
@@ -50699,16 +50628,16 @@
         <v>112</v>
       </c>
       <c r="CD214" s="1" t="s">
-        <v>2882</v>
+        <v>2880</v>
       </c>
       <c r="CE214" s="1" t="s">
         <v>126</v>
       </c>
       <c r="CF214" s="1" t="s">
-        <v>2883</v>
+        <v>2881</v>
       </c>
       <c r="CH214" s="1" t="s">
-        <v>2884</v>
+        <v>2882</v>
       </c>
       <c r="CI214" s="1" t="s">
         <v>1988</v>
@@ -50749,19 +50678,19 @@
         <v>97</v>
       </c>
       <c r="K215" s="1" t="s">
+        <v>2883</v>
+      </c>
+      <c r="L215" s="1" t="s">
+        <v>2884</v>
+      </c>
+      <c r="N215" s="1" t="s">
         <v>2885</v>
-      </c>
-      <c r="L215" s="1" t="s">
-        <v>2886</v>
-      </c>
-      <c r="N215" s="1" t="s">
-        <v>2887</v>
       </c>
       <c r="O215" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P215" s="1" t="s">
-        <v>2888</v>
+        <v>2886</v>
       </c>
       <c r="Q215" s="3">
         <v>29034</v>
@@ -50787,12 +50716,7 @@
       <c r="AB215" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AC215" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD215" s="1" t="s">
-        <v>2828</v>
-      </c>
+      <c r="AC215" s="3"/>
       <c r="AF215" s="1" t="s">
         <v>107</v>
       </c>
@@ -50845,13 +50769,13 @@
         <v>23</v>
       </c>
       <c r="BD215" s="1" t="s">
-        <v>2889</v>
+        <v>2887</v>
       </c>
       <c r="BG215" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH215" s="1" t="s">
-        <v>2890</v>
+        <v>2888</v>
       </c>
       <c r="BI215" s="1" t="s">
         <v>630</v>
@@ -50866,13 +50790,13 @@
         <v>103</v>
       </c>
       <c r="BS215" s="1" t="s">
-        <v>2891</v>
+        <v>2889</v>
       </c>
       <c r="BT215" s="3">
         <v>38234</v>
       </c>
       <c r="BU215" s="1" t="s">
-        <v>2892</v>
+        <v>2890</v>
       </c>
       <c r="BV215" s="1" t="s">
         <v>122</v>
@@ -50890,16 +50814,16 @@
         <v>112</v>
       </c>
       <c r="CD215" s="1" t="s">
-        <v>2893</v>
+        <v>2891</v>
       </c>
       <c r="CE215" s="1" t="s">
         <v>1049</v>
       </c>
       <c r="CF215" s="1" t="s">
-        <v>2894</v>
+        <v>2892</v>
       </c>
       <c r="CH215" s="1" t="s">
-        <v>2895</v>
+        <v>2893</v>
       </c>
       <c r="CI215" s="1" t="s">
         <v>637</v>
@@ -50940,19 +50864,19 @@
         <v>97</v>
       </c>
       <c r="K216" s="1" t="s">
+        <v>2894</v>
+      </c>
+      <c r="L216" s="1" t="s">
+        <v>2895</v>
+      </c>
+      <c r="N216" s="1" t="s">
         <v>2896</v>
-      </c>
-      <c r="L216" s="1" t="s">
-        <v>2897</v>
-      </c>
-      <c r="N216" s="1" t="s">
-        <v>2898</v>
       </c>
       <c r="O216" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P216" s="1" t="s">
-        <v>2899</v>
+        <v>2897</v>
       </c>
       <c r="Q216" s="3">
         <v>29062</v>
@@ -50975,12 +50899,7 @@
       <c r="AA216" s="1">
         <v>0</v>
       </c>
-      <c r="AC216" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD216" s="1" t="s">
-        <v>2828</v>
-      </c>
+      <c r="AC216" s="3"/>
       <c r="AF216" s="1" t="s">
         <v>107</v>
       </c>
@@ -51036,13 +50955,13 @@
         <v>23</v>
       </c>
       <c r="BD216" s="1" t="s">
-        <v>2900</v>
+        <v>2898</v>
       </c>
       <c r="BG216" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH216" s="1" t="s">
-        <v>2901</v>
+        <v>2899</v>
       </c>
       <c r="BN216" s="1" t="s">
         <v>118</v>
@@ -51051,7 +50970,7 @@
         <v>106</v>
       </c>
       <c r="BU216" s="1" t="s">
-        <v>2902</v>
+        <v>2900</v>
       </c>
       <c r="BV216" s="1" t="s">
         <v>122</v>
@@ -51069,16 +50988,16 @@
         <v>112</v>
       </c>
       <c r="CD216" s="1" t="s">
+        <v>2901</v>
+      </c>
+      <c r="CE216" s="1" t="s">
+        <v>2902</v>
+      </c>
+      <c r="CF216" s="1" t="s">
         <v>2903</v>
       </c>
-      <c r="CE216" s="1" t="s">
+      <c r="CH216" s="1" t="s">
         <v>2904</v>
-      </c>
-      <c r="CF216" s="1" t="s">
-        <v>2905</v>
-      </c>
-      <c r="CH216" s="1" t="s">
-        <v>2906</v>
       </c>
       <c r="CI216" s="1" t="s">
         <v>130</v>
@@ -51119,19 +51038,19 @@
         <v>97</v>
       </c>
       <c r="K217" s="1" t="s">
+        <v>2905</v>
+      </c>
+      <c r="L217" s="1" t="s">
+        <v>2906</v>
+      </c>
+      <c r="N217" s="1" t="s">
         <v>2907</v>
-      </c>
-      <c r="L217" s="1" t="s">
-        <v>2908</v>
-      </c>
-      <c r="N217" s="1" t="s">
-        <v>2909</v>
       </c>
       <c r="O217" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P217" s="1" t="s">
-        <v>2910</v>
+        <v>2908</v>
       </c>
       <c r="Q217" s="3">
         <v>29181</v>
@@ -51154,12 +51073,7 @@
       <c r="AA217" s="1">
         <v>0</v>
       </c>
-      <c r="AC217" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD217" s="1" t="s">
-        <v>2828</v>
-      </c>
+      <c r="AC217" s="3"/>
       <c r="AF217" s="1" t="s">
         <v>107</v>
       </c>
@@ -51212,16 +51126,16 @@
         <v>23</v>
       </c>
       <c r="BD217" s="1" t="s">
-        <v>2911</v>
+        <v>2909</v>
       </c>
       <c r="BG217" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH217" s="1" t="s">
-        <v>2912</v>
+        <v>2910</v>
       </c>
       <c r="BI217" s="1" t="s">
-        <v>2913</v>
+        <v>2911</v>
       </c>
       <c r="BN217" s="1" t="s">
         <v>118</v>
@@ -51233,13 +51147,13 @@
         <v>236</v>
       </c>
       <c r="BS217" s="1" t="s">
-        <v>2914</v>
+        <v>2912</v>
       </c>
       <c r="BT217" s="3">
         <v>37069</v>
       </c>
       <c r="BU217" s="1" t="s">
-        <v>2915</v>
+        <v>2913</v>
       </c>
       <c r="BV217" s="1" t="s">
         <v>122</v>
@@ -51260,16 +51174,16 @@
         <v>782</v>
       </c>
       <c r="CE217" s="1" t="s">
+        <v>2914</v>
+      </c>
+      <c r="CF217" s="1" t="s">
+        <v>2915</v>
+      </c>
+      <c r="CH217" s="1" t="s">
         <v>2916</v>
       </c>
-      <c r="CF217" s="1" t="s">
+      <c r="CI217" s="1" t="s">
         <v>2917</v>
-      </c>
-      <c r="CH217" s="1" t="s">
-        <v>2918</v>
-      </c>
-      <c r="CI217" s="1" t="s">
-        <v>2919</v>
       </c>
       <c r="CJ217" s="1" t="s">
         <v>130</v>
@@ -51307,19 +51221,19 @@
         <v>97</v>
       </c>
       <c r="K218" s="1" t="s">
+        <v>2918</v>
+      </c>
+      <c r="L218" s="1" t="s">
+        <v>2919</v>
+      </c>
+      <c r="N218" s="1" t="s">
         <v>2920</v>
-      </c>
-      <c r="L218" s="1" t="s">
-        <v>2921</v>
-      </c>
-      <c r="N218" s="1" t="s">
-        <v>2922</v>
       </c>
       <c r="O218" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P218" s="1" t="s">
-        <v>2923</v>
+        <v>2921</v>
       </c>
       <c r="Q218" s="3">
         <v>30033</v>
@@ -51342,12 +51256,7 @@
       <c r="AA218" s="1">
         <v>0</v>
       </c>
-      <c r="AC218" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD218" s="1" t="s">
-        <v>2828</v>
-      </c>
+      <c r="AC218" s="3"/>
       <c r="AF218" s="1" t="s">
         <v>107</v>
       </c>
@@ -51403,13 +51312,13 @@
         <v>23</v>
       </c>
       <c r="BD218" s="1" t="s">
-        <v>2924</v>
+        <v>2922</v>
       </c>
       <c r="BG218" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH218" s="1" t="s">
-        <v>2925</v>
+        <v>2923</v>
       </c>
       <c r="BN218" s="1" t="s">
         <v>118</v>
@@ -51418,7 +51327,7 @@
         <v>106</v>
       </c>
       <c r="BU218" s="1" t="s">
-        <v>2926</v>
+        <v>2924</v>
       </c>
       <c r="BV218" s="1" t="s">
         <v>122</v>
@@ -51436,16 +51345,16 @@
         <v>112</v>
       </c>
       <c r="CD218" s="1" t="s">
+        <v>2925</v>
+      </c>
+      <c r="CE218" s="1" t="s">
+        <v>2926</v>
+      </c>
+      <c r="CF218" s="1" t="s">
         <v>2927</v>
       </c>
-      <c r="CE218" s="1" t="s">
+      <c r="CH218" s="1" t="s">
         <v>2928</v>
-      </c>
-      <c r="CF218" s="1" t="s">
-        <v>2929</v>
-      </c>
-      <c r="CH218" s="1" t="s">
-        <v>2930</v>
       </c>
       <c r="CI218" s="1" t="s">
         <v>130</v>
@@ -51486,19 +51395,19 @@
         <v>97</v>
       </c>
       <c r="K219" s="1" t="s">
+        <v>2929</v>
+      </c>
+      <c r="L219" s="1" t="s">
+        <v>2930</v>
+      </c>
+      <c r="N219" s="1" t="s">
         <v>2931</v>
-      </c>
-      <c r="L219" s="1" t="s">
-        <v>2932</v>
-      </c>
-      <c r="N219" s="1" t="s">
-        <v>2933</v>
       </c>
       <c r="O219" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P219" s="1" t="s">
-        <v>2934</v>
+        <v>2932</v>
       </c>
       <c r="Q219" s="3">
         <v>26843</v>
@@ -51521,12 +51430,7 @@
       <c r="AA219" s="1">
         <v>0</v>
       </c>
-      <c r="AC219" s="3">
-        <v>43404</v>
-      </c>
-      <c r="AD219" s="1" t="s">
-        <v>2935</v>
-      </c>
+      <c r="AC219" s="3"/>
       <c r="AF219" s="1" t="s">
         <v>107</v>
       </c>
@@ -51573,7 +51477,7 @@
         <v>112</v>
       </c>
       <c r="AZ219" s="1" t="s">
-        <v>2936</v>
+        <v>2933</v>
       </c>
       <c r="BB219" s="1">
         <v>6</v>
@@ -51582,16 +51486,16 @@
         <v>23</v>
       </c>
       <c r="BD219" s="1" t="s">
-        <v>2937</v>
+        <v>2934</v>
       </c>
       <c r="BG219" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH219" s="1" t="s">
-        <v>2938</v>
+        <v>2935</v>
       </c>
       <c r="BI219" s="1" t="s">
-        <v>2939</v>
+        <v>2936</v>
       </c>
       <c r="BN219" s="1" t="s">
         <v>118</v>
@@ -51603,13 +51507,13 @@
         <v>236</v>
       </c>
       <c r="BS219" s="1" t="s">
-        <v>2940</v>
+        <v>2937</v>
       </c>
       <c r="BT219" s="3">
         <v>35125</v>
       </c>
       <c r="BU219" s="1" t="s">
-        <v>2941</v>
+        <v>2938</v>
       </c>
       <c r="BV219" s="1" t="s">
         <v>122</v>
@@ -51627,19 +51531,19 @@
         <v>112</v>
       </c>
       <c r="CD219" s="1" t="s">
-        <v>2942</v>
+        <v>2939</v>
       </c>
       <c r="CE219" s="1" t="s">
         <v>125</v>
       </c>
       <c r="CF219" s="1" t="s">
-        <v>2943</v>
+        <v>2940</v>
       </c>
       <c r="CH219" s="1" t="s">
-        <v>2944</v>
+        <v>2941</v>
       </c>
       <c r="CI219" s="1" t="s">
-        <v>2945</v>
+        <v>2942</v>
       </c>
       <c r="CJ219" s="1" t="s">
         <v>130</v>
@@ -51677,19 +51581,19 @@
         <v>97</v>
       </c>
       <c r="K220" s="1" t="s">
-        <v>2946</v>
+        <v>2943</v>
       </c>
       <c r="L220" s="1" t="s">
-        <v>2947</v>
+        <v>2944</v>
       </c>
       <c r="N220" s="1" t="s">
-        <v>2948</v>
+        <v>2945</v>
       </c>
       <c r="O220" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P220" s="1" t="s">
-        <v>2949</v>
+        <v>2946</v>
       </c>
       <c r="Q220" s="3">
         <v>25903</v>
@@ -51719,7 +51623,7 @@
         <v>107</v>
       </c>
       <c r="AG220" s="1" t="s">
-        <v>2950</v>
+        <v>2947</v>
       </c>
       <c r="AH220" s="1" t="s">
         <v>2258</v>
@@ -51770,7 +51674,7 @@
         <v>23</v>
       </c>
       <c r="BD220" s="1" t="s">
-        <v>2951</v>
+        <v>2948</v>
       </c>
       <c r="BG220" s="1" t="s">
         <v>115</v>
@@ -51779,7 +51683,7 @@
         <v>118</v>
       </c>
       <c r="BU220" s="1" t="s">
-        <v>2952</v>
+        <v>2949</v>
       </c>
       <c r="BV220" s="1" t="s">
         <v>122</v>
@@ -51797,13 +51701,13 @@
         <v>112</v>
       </c>
       <c r="CD220" s="1" t="s">
-        <v>2953</v>
+        <v>2950</v>
       </c>
       <c r="CE220" s="1" t="s">
-        <v>2954</v>
+        <v>2951</v>
       </c>
       <c r="CF220" s="1" t="s">
-        <v>2955</v>
+        <v>2952</v>
       </c>
       <c r="CH220" s="1" t="s">
         <v>130</v>
@@ -51847,19 +51751,19 @@
         <v>97</v>
       </c>
       <c r="K221" s="1" t="s">
-        <v>2956</v>
+        <v>2953</v>
       </c>
       <c r="L221" s="1" t="s">
-        <v>2957</v>
+        <v>2954</v>
       </c>
       <c r="N221" s="1" t="s">
-        <v>2958</v>
+        <v>2955</v>
       </c>
       <c r="O221" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P221" s="1" t="s">
-        <v>2959</v>
+        <v>2956</v>
       </c>
       <c r="Q221" s="3">
         <v>28577</v>
@@ -51940,13 +51844,13 @@
         <v>23</v>
       </c>
       <c r="BD221" s="1" t="s">
-        <v>2960</v>
+        <v>2957</v>
       </c>
       <c r="BG221" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH221" s="1" t="s">
-        <v>2961</v>
+        <v>2958</v>
       </c>
       <c r="BN221" s="1" t="s">
         <v>118</v>
@@ -51955,7 +51859,7 @@
         <v>106</v>
       </c>
       <c r="BU221" s="1" t="s">
-        <v>2962</v>
+        <v>2959</v>
       </c>
       <c r="BV221" s="1" t="s">
         <v>122</v>
@@ -51976,13 +51880,13 @@
         <v>347</v>
       </c>
       <c r="CE221" s="1" t="s">
-        <v>2963</v>
+        <v>2960</v>
       </c>
       <c r="CF221" s="1" t="s">
-        <v>2964</v>
+        <v>2961</v>
       </c>
       <c r="CH221" s="1" t="s">
-        <v>2965</v>
+        <v>2962</v>
       </c>
       <c r="CI221" s="1" t="s">
         <v>130</v>
@@ -52023,19 +51927,19 @@
         <v>97</v>
       </c>
       <c r="K222" s="1" t="s">
-        <v>2966</v>
+        <v>2963</v>
       </c>
       <c r="L222" s="1" t="s">
-        <v>2967</v>
+        <v>2964</v>
       </c>
       <c r="N222" s="1" t="s">
-        <v>2968</v>
+        <v>2965</v>
       </c>
       <c r="O222" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P222" s="1" t="s">
-        <v>2969</v>
+        <v>2966</v>
       </c>
       <c r="Q222" s="3">
         <v>23039</v>
@@ -52113,16 +52017,16 @@
         <v>23</v>
       </c>
       <c r="BD222" s="1" t="s">
-        <v>2970</v>
+        <v>2967</v>
       </c>
       <c r="BG222" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH222" s="1" t="s">
-        <v>2971</v>
+        <v>2968</v>
       </c>
       <c r="BI222" s="1" t="s">
-        <v>2972</v>
+        <v>2969</v>
       </c>
       <c r="BN222" s="1" t="s">
         <v>118</v>
@@ -52134,13 +52038,13 @@
         <v>236</v>
       </c>
       <c r="BS222" s="1" t="s">
-        <v>2973</v>
+        <v>2970</v>
       </c>
       <c r="BT222" s="3">
         <v>34307</v>
       </c>
       <c r="BU222" s="1" t="s">
-        <v>2974</v>
+        <v>2971</v>
       </c>
       <c r="BV222" s="1" t="s">
         <v>122</v>
@@ -52158,19 +52062,19 @@
         <v>112</v>
       </c>
       <c r="CD222" s="1" t="s">
-        <v>2975</v>
+        <v>2972</v>
       </c>
       <c r="CE222" s="1" t="s">
         <v>438</v>
       </c>
       <c r="CF222" s="1" t="s">
-        <v>2976</v>
+        <v>2973</v>
       </c>
       <c r="CH222" s="1" t="s">
-        <v>2977</v>
+        <v>2974</v>
       </c>
       <c r="CI222" s="1" t="s">
-        <v>2978</v>
+        <v>2975</v>
       </c>
       <c r="CJ222" s="1" t="s">
         <v>130</v>
@@ -52208,19 +52112,19 @@
         <v>97</v>
       </c>
       <c r="K223" s="1" t="s">
-        <v>2979</v>
+        <v>2976</v>
       </c>
       <c r="L223" s="1" t="s">
-        <v>2980</v>
+        <v>2977</v>
       </c>
       <c r="N223" s="1" t="s">
-        <v>2981</v>
+        <v>2978</v>
       </c>
       <c r="O223" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P223" s="1" t="s">
-        <v>2982</v>
+        <v>2979</v>
       </c>
       <c r="Q223" s="3">
         <v>31561</v>
@@ -52304,13 +52208,13 @@
         <v>23</v>
       </c>
       <c r="BD223" s="1" t="s">
-        <v>2983</v>
+        <v>2980</v>
       </c>
       <c r="BG223" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH223" s="1" t="s">
-        <v>2984</v>
+        <v>2981</v>
       </c>
       <c r="BN223" s="1" t="s">
         <v>118</v>
@@ -52319,7 +52223,7 @@
         <v>106</v>
       </c>
       <c r="BU223" s="1" t="s">
-        <v>2985</v>
+        <v>2982</v>
       </c>
       <c r="BV223" s="1" t="s">
         <v>122</v>
@@ -52349,10 +52253,10 @@
         <v>1285</v>
       </c>
       <c r="CF223" s="1" t="s">
-        <v>2986</v>
+        <v>2983</v>
       </c>
       <c r="CH223" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="CI223" s="1" t="s">
         <v>130</v>
@@ -52393,19 +52297,19 @@
         <v>97</v>
       </c>
       <c r="K224" s="1" t="s">
-        <v>2988</v>
+        <v>2985</v>
       </c>
       <c r="L224" s="1" t="s">
-        <v>2989</v>
+        <v>2986</v>
       </c>
       <c r="N224" s="1" t="s">
-        <v>2990</v>
+        <v>2987</v>
       </c>
       <c r="O224" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P224" s="1" t="s">
-        <v>2991</v>
+        <v>2988</v>
       </c>
       <c r="Q224" s="3">
         <v>32847</v>
@@ -52486,13 +52390,13 @@
         <v>23</v>
       </c>
       <c r="BD224" s="1" t="s">
-        <v>2992</v>
+        <v>2989</v>
       </c>
       <c r="BG224" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH224" s="1" t="s">
-        <v>2993</v>
+        <v>2990</v>
       </c>
       <c r="BN224" s="1" t="s">
         <v>118</v>
@@ -52507,13 +52411,13 @@
         <v>163</v>
       </c>
       <c r="BS224" s="1" t="s">
-        <v>2994</v>
+        <v>2991</v>
       </c>
       <c r="BT224" s="3">
         <v>5347</v>
       </c>
       <c r="BU224" s="1" t="s">
-        <v>2995</v>
+        <v>2992</v>
       </c>
       <c r="BV224" s="1" t="s">
         <v>122</v>
@@ -52537,16 +52441,16 @@
         <v>112</v>
       </c>
       <c r="CD224" s="1" t="s">
-        <v>2996</v>
+        <v>2993</v>
       </c>
       <c r="CE224" s="1" t="s">
         <v>469</v>
       </c>
       <c r="CF224" s="1" t="s">
-        <v>2997</v>
+        <v>2994</v>
       </c>
       <c r="CH224" s="1" t="s">
-        <v>2998</v>
+        <v>2995</v>
       </c>
       <c r="CI224" s="1" t="s">
         <v>130</v>
@@ -52587,10 +52491,10 @@
         <v>97</v>
       </c>
       <c r="K225" s="1" t="s">
-        <v>2999</v>
+        <v>2996</v>
       </c>
       <c r="L225" s="1" t="s">
-        <v>3000</v>
+        <v>2997</v>
       </c>
       <c r="O225" s="1" t="s">
         <v>101</v>
@@ -52668,7 +52572,7 @@
         <v>22</v>
       </c>
       <c r="BD225" s="1" t="s">
-        <v>3001</v>
+        <v>2998</v>
       </c>
       <c r="BN225" s="1" t="s">
         <v>118</v>
@@ -52698,7 +52602,7 @@
         <v>112</v>
       </c>
       <c r="CD225" s="1" t="s">
-        <v>2999</v>
+        <v>2996</v>
       </c>
       <c r="CH225" s="1" t="s">
         <v>130</v>
@@ -52742,10 +52646,10 @@
         <v>97</v>
       </c>
       <c r="K226" s="1" t="s">
-        <v>3002</v>
+        <v>2999</v>
       </c>
       <c r="L226" s="1" t="s">
-        <v>2947</v>
+        <v>2944</v>
       </c>
       <c r="O226" s="1" t="s">
         <v>101</v>
@@ -52775,10 +52679,10 @@
         <v>107</v>
       </c>
       <c r="AG226" s="1" t="s">
-        <v>2839</v>
+        <v>2837</v>
       </c>
       <c r="AH226" s="1" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="AJ226" s="1" t="s">
         <v>110</v>
@@ -52826,7 +52730,7 @@
         <v>21</v>
       </c>
       <c r="BD226" s="1" t="s">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="BN226" s="1" t="s">
         <v>118</v>
@@ -52856,7 +52760,7 @@
         <v>93</v>
       </c>
       <c r="CD226" s="1" t="s">
-        <v>3002</v>
+        <v>2999</v>
       </c>
       <c r="CH226" s="1" t="s">
         <v>130</v>
@@ -52900,10 +52804,10 @@
         <v>97</v>
       </c>
       <c r="K227" s="1" t="s">
-        <v>3005</v>
+        <v>3002</v>
       </c>
       <c r="L227" s="1" t="s">
-        <v>3006</v>
+        <v>3003</v>
       </c>
       <c r="O227" s="1" t="s">
         <v>101</v>
@@ -52933,10 +52837,10 @@
         <v>107</v>
       </c>
       <c r="AG227" s="1" t="s">
-        <v>2839</v>
+        <v>2837</v>
       </c>
       <c r="AH227" s="1" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="AJ227" s="1" t="s">
         <v>110</v>
@@ -52984,7 +52888,7 @@
         <v>21</v>
       </c>
       <c r="BD227" s="1" t="s">
-        <v>3007</v>
+        <v>3004</v>
       </c>
       <c r="BN227" s="1" t="s">
         <v>118</v>
@@ -53011,7 +52915,7 @@
         <v>93</v>
       </c>
       <c r="CD227" s="1" t="s">
-        <v>3005</v>
+        <v>3002</v>
       </c>
       <c r="CH227" s="1" t="s">
         <v>130</v>
@@ -53055,19 +52959,19 @@
         <v>97</v>
       </c>
       <c r="K228" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="L228" s="1" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="N228" s="1" t="s">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="O228" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P228" s="1" t="s">
-        <v>3011</v>
+        <v>3008</v>
       </c>
       <c r="Q228" s="3">
         <v>27265</v>
@@ -53151,7 +53055,7 @@
         <v>23</v>
       </c>
       <c r="BD228" s="1" t="s">
-        <v>3012</v>
+        <v>3009</v>
       </c>
       <c r="BG228" s="1" t="s">
         <v>115</v>
@@ -53160,7 +53064,7 @@
         <v>118</v>
       </c>
       <c r="BU228" s="1" t="s">
-        <v>3013</v>
+        <v>3010</v>
       </c>
       <c r="BV228" s="1" t="s">
         <v>122</v>
@@ -53181,13 +53085,13 @@
         <v>112</v>
       </c>
       <c r="CD228" s="1" t="s">
-        <v>3014</v>
+        <v>3011</v>
       </c>
       <c r="CE228" s="1" t="s">
-        <v>3015</v>
+        <v>3012</v>
       </c>
       <c r="CF228" s="1" t="s">
-        <v>3016</v>
+        <v>3013</v>
       </c>
       <c r="CH228" s="1" t="s">
         <v>130</v>
@@ -53231,19 +53135,19 @@
         <v>97</v>
       </c>
       <c r="K229" s="1" t="s">
-        <v>3017</v>
+        <v>3014</v>
       </c>
       <c r="L229" s="1" t="s">
-        <v>3018</v>
+        <v>3015</v>
       </c>
       <c r="N229" s="1" t="s">
-        <v>3019</v>
+        <v>3016</v>
       </c>
       <c r="O229" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P229" s="1" t="s">
-        <v>3020</v>
+        <v>3017</v>
       </c>
       <c r="Q229" s="3">
         <v>27433</v>
@@ -53324,13 +53228,13 @@
         <v>23</v>
       </c>
       <c r="BD229" s="1" t="s">
-        <v>3021</v>
+        <v>3018</v>
       </c>
       <c r="BG229" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH229" s="1" t="s">
-        <v>3022</v>
+        <v>3019</v>
       </c>
       <c r="BN229" s="1" t="s">
         <v>118</v>
@@ -53342,13 +53246,13 @@
         <v>119</v>
       </c>
       <c r="BS229" s="1" t="s">
-        <v>3023</v>
+        <v>3020</v>
       </c>
       <c r="BT229" s="3">
         <v>35278</v>
       </c>
       <c r="BU229" s="1" t="s">
-        <v>3024</v>
+        <v>3021</v>
       </c>
       <c r="BV229" s="1" t="s">
         <v>122</v>
@@ -53369,16 +53273,16 @@
         <v>112</v>
       </c>
       <c r="CD229" s="1" t="s">
+        <v>3022</v>
+      </c>
+      <c r="CE229" s="1" t="s">
+        <v>3023</v>
+      </c>
+      <c r="CF229" s="1" t="s">
+        <v>3024</v>
+      </c>
+      <c r="CH229" s="1" t="s">
         <v>3025</v>
-      </c>
-      <c r="CE229" s="1" t="s">
-        <v>3026</v>
-      </c>
-      <c r="CF229" s="1" t="s">
-        <v>3027</v>
-      </c>
-      <c r="CH229" s="1" t="s">
-        <v>3028</v>
       </c>
       <c r="CI229" s="1" t="s">
         <v>130</v>
@@ -53419,19 +53323,19 @@
         <v>97</v>
       </c>
       <c r="K230" s="1" t="s">
-        <v>3029</v>
+        <v>3026</v>
       </c>
       <c r="L230" s="1" t="s">
-        <v>3030</v>
+        <v>3027</v>
       </c>
       <c r="N230" s="1" t="s">
-        <v>3031</v>
+        <v>3028</v>
       </c>
       <c r="O230" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P230" s="1" t="s">
-        <v>3032</v>
+        <v>3029</v>
       </c>
       <c r="Q230" s="3">
         <v>22262</v>
@@ -53515,19 +53419,19 @@
         <v>23</v>
       </c>
       <c r="BD230" s="1" t="s">
-        <v>3033</v>
+        <v>3030</v>
       </c>
       <c r="BG230" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH230" s="1" t="s">
-        <v>3034</v>
+        <v>3031</v>
       </c>
       <c r="BN230" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU230" s="1" t="s">
-        <v>3035</v>
+        <v>3032</v>
       </c>
       <c r="BV230" s="1" t="s">
         <v>122</v>
@@ -53548,16 +53452,16 @@
         <v>112</v>
       </c>
       <c r="CD230" s="1" t="s">
-        <v>3036</v>
+        <v>3033</v>
       </c>
       <c r="CE230" s="1" t="s">
         <v>470</v>
       </c>
       <c r="CF230" s="1" t="s">
-        <v>3037</v>
+        <v>3034</v>
       </c>
       <c r="CH230" s="1" t="s">
-        <v>3038</v>
+        <v>3035</v>
       </c>
       <c r="CI230" s="1" t="s">
         <v>130</v>
@@ -53598,10 +53502,10 @@
         <v>97</v>
       </c>
       <c r="K231" s="1" t="s">
-        <v>3039</v>
+        <v>3036</v>
       </c>
       <c r="L231" s="1" t="s">
-        <v>3040</v>
+        <v>3037</v>
       </c>
       <c r="O231" s="1" t="s">
         <v>101</v>
@@ -53631,10 +53535,10 @@
         <v>107</v>
       </c>
       <c r="AG231" s="1" t="s">
-        <v>3041</v>
+        <v>3038</v>
       </c>
       <c r="AH231" s="1" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="AJ231" s="1" t="s">
         <v>110</v>
@@ -53679,7 +53583,7 @@
         <v>22</v>
       </c>
       <c r="BD231" s="1" t="s">
-        <v>3042</v>
+        <v>3039</v>
       </c>
       <c r="BN231" s="1" t="s">
         <v>118</v>
@@ -53706,7 +53610,7 @@
         <v>93</v>
       </c>
       <c r="CD231" s="1" t="s">
-        <v>3039</v>
+        <v>3036</v>
       </c>
       <c r="CH231" s="1" t="s">
         <v>130</v>
@@ -53750,10 +53654,10 @@
         <v>97</v>
       </c>
       <c r="K232" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="L232" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="O232" s="1" t="s">
         <v>101</v>
@@ -53828,7 +53732,7 @@
         <v>23</v>
       </c>
       <c r="BD232" s="1" t="s">
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="BN232" s="1" t="s">
         <v>118</v>
@@ -53855,7 +53759,7 @@
         <v>112</v>
       </c>
       <c r="CD232" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="CH232" s="1" t="s">
         <v>1934</v>
@@ -53881,7 +53785,7 @@
         <v>189</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>3046</v>
+        <v>3043</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>93</v>
@@ -53893,22 +53797,22 @@
         <v>95</v>
       </c>
       <c r="I233" s="1" t="s">
-        <v>3047</v>
+        <v>3044</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K233" s="1" t="s">
+        <v>3045</v>
+      </c>
+      <c r="L233" s="1" t="s">
+        <v>3046</v>
+      </c>
+      <c r="M233" s="1" t="s">
+        <v>3047</v>
+      </c>
+      <c r="N233" s="1" t="s">
         <v>3048</v>
-      </c>
-      <c r="L233" s="1" t="s">
-        <v>3049</v>
-      </c>
-      <c r="M233" s="1" t="s">
-        <v>3050</v>
-      </c>
-      <c r="N233" s="1" t="s">
-        <v>3051</v>
       </c>
       <c r="Q233" s="3">
         <v>17060</v>
@@ -53941,13 +53845,13 @@
         <v>42628</v>
       </c>
       <c r="AD233" s="1" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="AF233" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG233" s="1" t="s">
-        <v>3053</v>
+        <v>3050</v>
       </c>
       <c r="AH233" s="1" t="s">
         <v>138</v>
@@ -53992,22 +53896,22 @@
         <v>112</v>
       </c>
       <c r="AZ233" s="1" t="s">
+        <v>3051</v>
+      </c>
+      <c r="BB233" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC233" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD233" s="1" t="s">
+        <v>3052</v>
+      </c>
+      <c r="BH233" s="1" t="s">
+        <v>3053</v>
+      </c>
+      <c r="BI233" s="1" t="s">
         <v>3054</v>
-      </c>
-      <c r="BB233" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC233" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD233" s="1" t="s">
-        <v>3055</v>
-      </c>
-      <c r="BH233" s="1" t="s">
-        <v>3056</v>
-      </c>
-      <c r="BI233" s="1" t="s">
-        <v>3057</v>
       </c>
       <c r="BN233" s="1" t="s">
         <v>118</v>
@@ -54016,7 +53920,7 @@
         <v>106</v>
       </c>
       <c r="BU233" s="1" t="s">
-        <v>3058</v>
+        <v>3055</v>
       </c>
       <c r="BV233" s="1" t="s">
         <v>122</v>
@@ -54040,13 +53944,13 @@
         <v>126</v>
       </c>
       <c r="CF233" s="1" t="s">
-        <v>3059</v>
+        <v>3056</v>
       </c>
       <c r="CH233" s="1" t="s">
-        <v>3060</v>
+        <v>3057</v>
       </c>
       <c r="CI233" s="1" t="s">
-        <v>3061</v>
+        <v>3058</v>
       </c>
       <c r="CJ233" s="1" t="s">
         <v>130</v>
@@ -54060,13 +53964,13 @@
         <v>89</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>3062</v>
+        <v>3059</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>3047</v>
+        <v>3044</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>3063</v>
+        <v>3060</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>112</v>
@@ -54078,22 +53982,22 @@
         <v>95</v>
       </c>
       <c r="I234" s="1" t="s">
-        <v>3064</v>
+        <v>3061</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K234" s="1" t="s">
-        <v>3065</v>
+        <v>3062</v>
       </c>
       <c r="L234" s="1" t="s">
-        <v>3066</v>
+        <v>3063</v>
       </c>
       <c r="M234" s="1" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="N234" s="1" t="s">
-        <v>3067</v>
+        <v>3064</v>
       </c>
       <c r="Q234" s="3">
         <v>26864</v>
@@ -54126,7 +54030,7 @@
         <v>42735</v>
       </c>
       <c r="AD234" s="1" t="s">
-        <v>3068</v>
+        <v>3065</v>
       </c>
       <c r="AF234" s="1" t="s">
         <v>107</v>
@@ -54180,10 +54084,10 @@
         <v>0</v>
       </c>
       <c r="BD234" s="1" t="s">
-        <v>3069</v>
+        <v>3066</v>
       </c>
       <c r="BH234" s="1" t="s">
-        <v>3070</v>
+        <v>3067</v>
       </c>
       <c r="BN234" s="1" t="s">
         <v>118</v>
@@ -54195,13 +54099,13 @@
         <v>236</v>
       </c>
       <c r="BS234" s="1" t="s">
-        <v>3071</v>
+        <v>3068</v>
       </c>
       <c r="BT234" s="3">
         <v>102</v>
       </c>
       <c r="BU234" s="1" t="s">
-        <v>3072</v>
+        <v>3069</v>
       </c>
       <c r="BV234" s="1" t="s">
         <v>122</v>
@@ -54213,7 +54117,7 @@
         <v>111</v>
       </c>
       <c r="CA234" s="1" t="s">
-        <v>3073</v>
+        <v>3070</v>
       </c>
       <c r="CB234" s="1" t="s">
         <v>124</v>
@@ -54222,16 +54126,16 @@
         <v>112</v>
       </c>
       <c r="CD234" s="1" t="s">
-        <v>3074</v>
+        <v>3071</v>
       </c>
       <c r="CE234" s="1" t="s">
-        <v>3075</v>
+        <v>3072</v>
       </c>
       <c r="CF234" s="1" t="s">
-        <v>3076</v>
+        <v>3073</v>
       </c>
       <c r="CH234" s="1" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="CI234" s="1" t="s">
         <v>130</v>
@@ -54272,16 +54176,16 @@
         <v>97</v>
       </c>
       <c r="K235" s="1" t="s">
-        <v>3077</v>
+        <v>3074</v>
       </c>
       <c r="L235" s="1" t="s">
-        <v>3078</v>
+        <v>3075</v>
       </c>
       <c r="M235" s="1" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="N235" s="1" t="s">
-        <v>3079</v>
+        <v>3076</v>
       </c>
       <c r="Q235" s="3">
         <v>25379</v>
@@ -54311,7 +54215,7 @@
         <v>39800</v>
       </c>
       <c r="AD235" s="1" t="s">
-        <v>3080</v>
+        <v>3077</v>
       </c>
       <c r="AF235" s="1" t="s">
         <v>251</v>
@@ -54365,10 +54269,10 @@
         <v>0</v>
       </c>
       <c r="BD235" s="1" t="s">
-        <v>3081</v>
+        <v>3078</v>
       </c>
       <c r="BH235" s="1" t="s">
-        <v>3082</v>
+        <v>3079</v>
       </c>
       <c r="BN235" s="1" t="s">
         <v>118</v>
@@ -54380,13 +54284,13 @@
         <v>1721</v>
       </c>
       <c r="BS235" s="1" t="s">
-        <v>3083</v>
+        <v>3080</v>
       </c>
       <c r="BT235" s="3">
         <v>35915</v>
       </c>
       <c r="BU235" s="1" t="s">
-        <v>3084</v>
+        <v>3081</v>
       </c>
       <c r="BV235" s="1" t="s">
         <v>122</v>
@@ -54416,10 +54320,10 @@
         <v>660</v>
       </c>
       <c r="CF235" s="1" t="s">
-        <v>3085</v>
+        <v>3082</v>
       </c>
       <c r="CH235" s="1" t="s">
-        <v>3060</v>
+        <v>3057</v>
       </c>
       <c r="CI235" s="1" t="s">
         <v>130</v>
@@ -54442,7 +54346,7 @@
         <v>91</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>3086</v>
+        <v>3083</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>112</v>
@@ -54454,22 +54358,22 @@
         <v>95</v>
       </c>
       <c r="I236" s="1" t="s">
-        <v>3087</v>
+        <v>3084</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K236" s="1" t="s">
-        <v>3088</v>
+        <v>3085</v>
       </c>
       <c r="L236" s="1" t="s">
-        <v>3089</v>
+        <v>3086</v>
       </c>
       <c r="M236" s="1" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="N236" s="1" t="s">
-        <v>3090</v>
+        <v>3087</v>
       </c>
       <c r="Q236" s="3">
         <v>17470</v>
@@ -54499,7 +54403,7 @@
         <v>43100</v>
       </c>
       <c r="AD236" s="1" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="AF236" s="1" t="s">
         <v>107</v>
@@ -54556,10 +54460,10 @@
         <v>0</v>
       </c>
       <c r="BD236" s="1" t="s">
-        <v>3091</v>
+        <v>3088</v>
       </c>
       <c r="BH236" s="1" t="s">
-        <v>3092</v>
+        <v>3089</v>
       </c>
       <c r="BN236" s="1" t="s">
         <v>118</v>
@@ -54568,7 +54472,7 @@
         <v>106</v>
       </c>
       <c r="BU236" s="1" t="s">
-        <v>3093</v>
+        <v>3090</v>
       </c>
       <c r="BV236" s="1" t="s">
         <v>122</v>
@@ -54592,16 +54496,16 @@
         <v>112</v>
       </c>
       <c r="CD236" s="1" t="s">
-        <v>3094</v>
+        <v>3091</v>
       </c>
       <c r="CE236" s="1" t="s">
-        <v>3095</v>
+        <v>3092</v>
       </c>
       <c r="CF236" s="1" t="s">
-        <v>3096</v>
+        <v>3093</v>
       </c>
       <c r="CH236" s="1" t="s">
-        <v>3060</v>
+        <v>3057</v>
       </c>
       <c r="CI236" s="1" t="s">
         <v>130</v>
@@ -54624,7 +54528,7 @@
         <v>91</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="F237" s="1" t="s">
         <v>112</v>
@@ -54636,22 +54540,22 @@
         <v>95</v>
       </c>
       <c r="I237" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K237" s="1" t="s">
-        <v>3099</v>
+        <v>3096</v>
       </c>
       <c r="L237" s="1" t="s">
-        <v>3100</v>
+        <v>3097</v>
       </c>
       <c r="M237" s="1" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="N237" s="1" t="s">
-        <v>3101</v>
+        <v>3098</v>
       </c>
       <c r="Q237" s="3">
         <v>23356</v>
@@ -54678,7 +54582,7 @@
         <v>43105</v>
       </c>
       <c r="AD237" s="1" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
       <c r="AF237" s="1" t="s">
         <v>107</v>
@@ -54732,10 +54636,10 @@
         <v>0</v>
       </c>
       <c r="BD237" s="1" t="s">
-        <v>3103</v>
+        <v>3100</v>
       </c>
       <c r="BH237" s="1" t="s">
-        <v>3104</v>
+        <v>3101</v>
       </c>
       <c r="BN237" s="1" t="s">
         <v>118</v>
@@ -54747,13 +54651,13 @@
         <v>103</v>
       </c>
       <c r="BS237" s="1" t="s">
-        <v>3105</v>
+        <v>3102</v>
       </c>
       <c r="BT237" s="3">
         <v>34412</v>
       </c>
       <c r="BU237" s="1" t="s">
-        <v>3106</v>
+        <v>3103</v>
       </c>
       <c r="BV237" s="1" t="s">
         <v>122</v>
@@ -54762,7 +54666,7 @@
         <v>0</v>
       </c>
       <c r="CA237" s="1" t="s">
-        <v>2856</v>
+        <v>2854</v>
       </c>
       <c r="CB237" s="1" t="s">
         <v>124</v>
@@ -54771,16 +54675,16 @@
         <v>112</v>
       </c>
       <c r="CD237" s="1" t="s">
+        <v>3104</v>
+      </c>
+      <c r="CE237" s="1" t="s">
+        <v>3105</v>
+      </c>
+      <c r="CF237" s="1" t="s">
+        <v>3106</v>
+      </c>
+      <c r="CH237" s="1" t="s">
         <v>3107</v>
-      </c>
-      <c r="CE237" s="1" t="s">
-        <v>3108</v>
-      </c>
-      <c r="CF237" s="1" t="s">
-        <v>3109</v>
-      </c>
-      <c r="CH237" s="1" t="s">
-        <v>3110</v>
       </c>
       <c r="CI237" s="1" t="s">
         <v>130</v>
@@ -54803,7 +54707,7 @@
         <v>1500</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>2845</v>
+        <v>2843</v>
       </c>
       <c r="F238" s="1" t="s">
         <v>93</v>
@@ -54815,22 +54719,22 @@
         <v>95</v>
       </c>
       <c r="I238" s="1" t="s">
-        <v>2846</v>
+        <v>2844</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K238" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="L238" s="1" t="s">
-        <v>3112</v>
+        <v>3109</v>
       </c>
       <c r="M238" s="1" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="N238" s="1" t="s">
-        <v>3113</v>
+        <v>3110</v>
       </c>
       <c r="Q238" s="3">
         <v>17726</v>
@@ -54866,7 +54770,7 @@
         <v>43312</v>
       </c>
       <c r="AD238" s="1" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="AF238" s="1" t="s">
         <v>251</v>
@@ -54917,7 +54821,7 @@
         <v>112</v>
       </c>
       <c r="AZ238" s="1" t="s">
-        <v>3114</v>
+        <v>3111</v>
       </c>
       <c r="BB238" s="1">
         <v>0</v>
@@ -54926,10 +54830,10 @@
         <v>0</v>
       </c>
       <c r="BD238" s="1" t="s">
-        <v>3115</v>
+        <v>3112</v>
       </c>
       <c r="BH238" s="1" t="s">
-        <v>3116</v>
+        <v>3113</v>
       </c>
       <c r="BN238" s="1" t="s">
         <v>118</v>
@@ -54938,7 +54842,7 @@
         <v>106</v>
       </c>
       <c r="BU238" s="1" t="s">
-        <v>3117</v>
+        <v>3114</v>
       </c>
       <c r="BV238" s="1" t="s">
         <v>122</v>
@@ -54947,7 +54851,7 @@
         <v>0</v>
       </c>
       <c r="CA238" s="1" t="s">
-        <v>2849</v>
+        <v>2847</v>
       </c>
       <c r="CB238" s="1" t="s">
         <v>124</v>
@@ -54956,16 +54860,16 @@
         <v>112</v>
       </c>
       <c r="CD238" s="1" t="s">
-        <v>3118</v>
+        <v>3115</v>
       </c>
       <c r="CE238" s="1" t="s">
-        <v>3119</v>
+        <v>3116</v>
       </c>
       <c r="CF238" s="1" t="s">
         <v>934</v>
       </c>
       <c r="CH238" s="1" t="s">
-        <v>3060</v>
+        <v>3057</v>
       </c>
       <c r="CI238" s="1" t="s">
         <v>130</v>
@@ -54988,7 +54892,7 @@
         <v>1500</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>3120</v>
+        <v>3117</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>93</v>
@@ -55000,22 +54904,22 @@
         <v>95</v>
       </c>
       <c r="I239" s="1" t="s">
-        <v>3121</v>
+        <v>3118</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K239" s="1" t="s">
-        <v>3122</v>
+        <v>3119</v>
       </c>
       <c r="L239" s="1" t="s">
-        <v>3123</v>
+        <v>3120</v>
       </c>
       <c r="M239" s="1" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="N239" s="1" t="s">
-        <v>3124</v>
+        <v>3121</v>
       </c>
       <c r="Q239" s="3">
         <v>17041</v>
@@ -55045,13 +54949,13 @@
         <v>42735</v>
       </c>
       <c r="AD239" s="1" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="AF239" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG239" s="1" t="s">
-        <v>2950</v>
+        <v>2947</v>
       </c>
       <c r="AH239" s="1" t="s">
         <v>2258</v>
@@ -55102,7 +55006,7 @@
         <v>0</v>
       </c>
       <c r="BD239" s="1" t="s">
-        <v>3125</v>
+        <v>3122</v>
       </c>
       <c r="BN239" s="1" t="s">
         <v>118</v>
@@ -55111,7 +55015,7 @@
         <v>106</v>
       </c>
       <c r="BU239" s="1" t="s">
-        <v>3126</v>
+        <v>3123</v>
       </c>
       <c r="BV239" s="1" t="s">
         <v>122</v>
@@ -55123,7 +55027,7 @@
         <v>111</v>
       </c>
       <c r="CA239" s="1" t="s">
-        <v>3127</v>
+        <v>3124</v>
       </c>
       <c r="CB239" s="1" t="s">
         <v>124</v>
@@ -55132,13 +55036,13 @@
         <v>112</v>
       </c>
       <c r="CD239" s="1" t="s">
-        <v>3128</v>
+        <v>3125</v>
       </c>
       <c r="CE239" s="1" t="s">
-        <v>3129</v>
+        <v>3126</v>
       </c>
       <c r="CF239" s="1" t="s">
-        <v>3130</v>
+        <v>3127</v>
       </c>
       <c r="CH239" s="1" t="s">
         <v>130</v>
@@ -55164,7 +55068,7 @@
         <v>1500</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>3131</v>
+        <v>3128</v>
       </c>
       <c r="F240" s="1" t="s">
         <v>112</v>
@@ -55176,22 +55080,22 @@
         <v>95</v>
       </c>
       <c r="I240" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K240" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="L240" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="M240" s="1" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="N240" s="1" t="s">
-        <v>3135</v>
+        <v>3132</v>
       </c>
       <c r="Q240" s="3">
         <v>30147</v>
@@ -55217,17 +55121,12 @@
       <c r="AA240" s="1">
         <v>0</v>
       </c>
-      <c r="AC240" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD240" s="1" t="s">
-        <v>2828</v>
-      </c>
+      <c r="AC240" s="3"/>
       <c r="AF240" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG240" s="1" t="s">
-        <v>2842</v>
+        <v>2840</v>
       </c>
       <c r="AH240" s="1" t="s">
         <v>387</v>
@@ -55275,10 +55174,10 @@
         <v>0</v>
       </c>
       <c r="BD240" s="1" t="s">
-        <v>3136</v>
+        <v>3133</v>
       </c>
       <c r="BH240" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="BN240" s="1" t="s">
         <v>118</v>
@@ -55290,13 +55189,13 @@
         <v>103</v>
       </c>
       <c r="BS240" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="BT240" s="3">
         <v>37124</v>
       </c>
       <c r="BU240" s="1" t="s">
-        <v>3139</v>
+        <v>3136</v>
       </c>
       <c r="BV240" s="1" t="s">
         <v>122</v>
@@ -55305,7 +55204,7 @@
         <v>0</v>
       </c>
       <c r="CA240" s="1" t="s">
-        <v>3140</v>
+        <v>3137</v>
       </c>
       <c r="CB240" s="1" t="s">
         <v>124</v>
@@ -55314,16 +55213,16 @@
         <v>112</v>
       </c>
       <c r="CD240" s="1" t="s">
-        <v>3141</v>
+        <v>3138</v>
       </c>
       <c r="CE240" s="1" t="s">
         <v>1190</v>
       </c>
       <c r="CF240" s="1" t="s">
-        <v>3142</v>
+        <v>3139</v>
       </c>
       <c r="CH240" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="CI240" s="1" t="s">
         <v>130</v>
@@ -55346,7 +55245,7 @@
         <v>91</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>3143</v>
+        <v>3140</v>
       </c>
       <c r="F241" s="1" t="s">
         <v>112</v>
@@ -55358,22 +55257,22 @@
         <v>95</v>
       </c>
       <c r="I241" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K241" s="1" t="s">
-        <v>3145</v>
+        <v>3142</v>
       </c>
       <c r="L241" s="1" t="s">
-        <v>3006</v>
+        <v>3003</v>
       </c>
       <c r="M241" s="1" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="N241" s="1" t="s">
-        <v>3146</v>
+        <v>3143</v>
       </c>
       <c r="Q241" s="3">
         <v>17821</v>
@@ -55409,7 +55308,7 @@
         <v>43388</v>
       </c>
       <c r="AD241" s="1" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="AF241" s="1" t="s">
         <v>107</v>
@@ -55460,25 +55359,25 @@
         <v>112</v>
       </c>
       <c r="AZ241" s="1" t="s">
+        <v>3144</v>
+      </c>
+      <c r="BB241" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC241" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD241" s="1" t="s">
+        <v>3145</v>
+      </c>
+      <c r="BE241" s="1" t="s">
+        <v>3146</v>
+      </c>
+      <c r="BF241" s="1" t="s">
         <v>3147</v>
       </c>
-      <c r="BB241" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC241" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD241" s="1" t="s">
+      <c r="BH241" s="1" t="s">
         <v>3148</v>
-      </c>
-      <c r="BE241" s="1" t="s">
-        <v>3149</v>
-      </c>
-      <c r="BF241" s="1" t="s">
-        <v>3150</v>
-      </c>
-      <c r="BH241" s="1" t="s">
-        <v>3151</v>
       </c>
       <c r="BN241" s="1" t="s">
         <v>118</v>
@@ -55487,7 +55386,7 @@
         <v>106</v>
       </c>
       <c r="BU241" s="1" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="BV241" s="1" t="s">
         <v>122</v>
@@ -55496,7 +55395,7 @@
         <v>0</v>
       </c>
       <c r="CA241" s="1" t="s">
-        <v>3153</v>
+        <v>3150</v>
       </c>
       <c r="CB241" s="1" t="s">
         <v>124</v>
@@ -55505,16 +55404,16 @@
         <v>112</v>
       </c>
       <c r="CD241" s="1" t="s">
-        <v>3154</v>
+        <v>3151</v>
       </c>
       <c r="CE241" s="1" t="s">
-        <v>3155</v>
+        <v>3152</v>
       </c>
       <c r="CF241" s="1" t="s">
         <v>501</v>
       </c>
       <c r="CH241" s="1" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="CI241" s="1" t="s">
         <v>130</v>
@@ -55555,16 +55454,16 @@
         <v>97</v>
       </c>
       <c r="K242" s="1" t="s">
-        <v>3077</v>
+        <v>3074</v>
       </c>
       <c r="L242" s="1" t="s">
-        <v>3156</v>
+        <v>3153</v>
       </c>
       <c r="M242" s="1" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="N242" s="1" t="s">
-        <v>3079</v>
+        <v>3076</v>
       </c>
       <c r="O242" s="1" t="s">
         <v>101</v>
@@ -55597,7 +55496,7 @@
         <v>43980</v>
       </c>
       <c r="AD242" s="1" t="s">
-        <v>3157</v>
+        <v>3154</v>
       </c>
       <c r="AF242" s="1" t="s">
         <v>107</v>
@@ -55651,10 +55550,10 @@
         <v>20</v>
       </c>
       <c r="BD242" s="1" t="s">
-        <v>3081</v>
+        <v>3078</v>
       </c>
       <c r="BH242" s="1" t="s">
-        <v>3158</v>
+        <v>3155</v>
       </c>
       <c r="BN242" s="1" t="s">
         <v>118</v>
@@ -55666,13 +55565,13 @@
         <v>1721</v>
       </c>
       <c r="BS242" s="1" t="s">
-        <v>3083</v>
+        <v>3080</v>
       </c>
       <c r="BT242" s="3">
         <v>35915</v>
       </c>
       <c r="BU242" s="1" t="s">
-        <v>3084</v>
+        <v>3081</v>
       </c>
       <c r="BV242" s="1" t="s">
         <v>122</v>
@@ -55696,7 +55595,7 @@
         <v>660</v>
       </c>
       <c r="CF242" s="1" t="s">
-        <v>3085</v>
+        <v>3082</v>
       </c>
       <c r="CH242" s="1" t="s">
         <v>1934</v>
@@ -55734,22 +55633,22 @@
         <v>95</v>
       </c>
       <c r="I243" s="1" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K243" s="1" t="s">
-        <v>3159</v>
+        <v>3156</v>
       </c>
       <c r="L243" s="1" t="s">
-        <v>3160</v>
+        <v>3157</v>
       </c>
       <c r="M243" s="1" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="N243" s="1" t="s">
-        <v>3161</v>
+        <v>3158</v>
       </c>
       <c r="O243" s="1" t="s">
         <v>101</v>
@@ -55785,7 +55684,7 @@
         <v>44135</v>
       </c>
       <c r="AD243" s="1" t="s">
-        <v>3162</v>
+        <v>3159</v>
       </c>
       <c r="AF243" s="1" t="s">
         <v>107</v>
@@ -55842,10 +55741,10 @@
         <v>20</v>
       </c>
       <c r="BD243" s="1" t="s">
-        <v>3163</v>
+        <v>3160</v>
       </c>
       <c r="BH243" s="1" t="s">
-        <v>3164</v>
+        <v>3161</v>
       </c>
       <c r="BN243" s="1" t="s">
         <v>118</v>
@@ -55854,7 +55753,7 @@
         <v>106</v>
       </c>
       <c r="BU243" s="1" t="s">
-        <v>3165</v>
+        <v>3162</v>
       </c>
       <c r="BV243" s="1" t="s">
         <v>122</v>
@@ -55863,7 +55762,7 @@
         <v>0</v>
       </c>
       <c r="CA243" s="1" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="CB243" s="1" t="s">
         <v>124</v>
@@ -55875,10 +55774,10 @@
         <v>1319</v>
       </c>
       <c r="CE243" s="1" t="s">
-        <v>3166</v>
+        <v>3163</v>
       </c>
       <c r="CF243" s="1" t="s">
-        <v>3167</v>
+        <v>3164</v>
       </c>
       <c r="CH243" s="1" t="s">
         <v>1934</v>
@@ -55922,16 +55821,16 @@
         <v>97</v>
       </c>
       <c r="K244" s="1" t="s">
-        <v>3168</v>
+        <v>3165</v>
       </c>
       <c r="L244" s="1" t="s">
-        <v>3169</v>
+        <v>3166</v>
       </c>
       <c r="M244" s="1" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="N244" s="1" t="s">
-        <v>3170</v>
+        <v>3167</v>
       </c>
       <c r="O244" s="1" t="s">
         <v>101</v>
@@ -55964,16 +55863,16 @@
         <v>43847</v>
       </c>
       <c r="AD244" s="1" t="s">
-        <v>3171</v>
+        <v>3168</v>
       </c>
       <c r="AF244" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG244" s="1" t="s">
+        <v>2588</v>
+      </c>
+      <c r="AH244" s="1" t="s">
         <v>2589</v>
-      </c>
-      <c r="AH244" s="1" t="s">
-        <v>2590</v>
       </c>
       <c r="AJ244" s="1" t="s">
         <v>110</v>
@@ -56015,7 +55914,7 @@
         <v>112</v>
       </c>
       <c r="AZ244" s="1" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
       <c r="BB244" s="1">
         <v>2</v>
@@ -56024,10 +55923,10 @@
         <v>21</v>
       </c>
       <c r="BD244" s="1" t="s">
-        <v>3172</v>
+        <v>3169</v>
       </c>
       <c r="BH244" s="1" t="s">
-        <v>3173</v>
+        <v>3170</v>
       </c>
       <c r="BN244" s="1" t="s">
         <v>118</v>
@@ -56039,13 +55938,13 @@
         <v>119</v>
       </c>
       <c r="BS244" s="1" t="s">
-        <v>3174</v>
+        <v>3171</v>
       </c>
       <c r="BT244" s="3">
         <v>34808</v>
       </c>
       <c r="BU244" s="1" t="s">
-        <v>3175</v>
+        <v>3172</v>
       </c>
       <c r="BV244" s="1" t="s">
         <v>122</v>
@@ -56063,13 +55962,13 @@
         <v>112</v>
       </c>
       <c r="CD244" s="1" t="s">
-        <v>3176</v>
+        <v>3173</v>
       </c>
       <c r="CE244" s="1" t="s">
-        <v>3177</v>
+        <v>3174</v>
       </c>
       <c r="CF244" s="1" t="s">
-        <v>3178</v>
+        <v>3175</v>
       </c>
       <c r="CH244" s="1" t="s">
         <v>1934</v>
@@ -56086,10 +55985,10 @@
         <v>88</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>3179</v>
+        <v>3176</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>3180</v>
+        <v>3177</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>1293</v>
@@ -56113,16 +56012,16 @@
         <v>92</v>
       </c>
       <c r="K245" s="1" t="s">
-        <v>3181</v>
+        <v>3178</v>
       </c>
       <c r="L245" s="1" t="s">
-        <v>3182</v>
+        <v>3179</v>
       </c>
       <c r="M245" s="1" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="N245" s="1" t="s">
-        <v>3183</v>
+        <v>3180</v>
       </c>
       <c r="O245" s="1" t="s">
         <v>101</v>
@@ -56176,7 +56075,7 @@
         <v>0</v>
       </c>
       <c r="AN245" s="1" t="s">
-        <v>3184</v>
+        <v>3181</v>
       </c>
       <c r="AO245" s="1">
         <v>0</v>
@@ -56206,7 +56105,7 @@
         <v>112</v>
       </c>
       <c r="AZ245" s="1" t="s">
-        <v>3185</v>
+        <v>3182</v>
       </c>
       <c r="BB245" s="1">
         <v>2</v>
@@ -56215,13 +56114,13 @@
         <v>21</v>
       </c>
       <c r="BD245" s="1" t="s">
-        <v>3186</v>
+        <v>3183</v>
       </c>
       <c r="BN245" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU245" s="1" t="s">
-        <v>3187</v>
+        <v>3184</v>
       </c>
       <c r="BV245" s="1" t="s">
         <v>122</v>
@@ -56239,13 +56138,13 @@
         <v>112</v>
       </c>
       <c r="CD245" s="1" t="s">
-        <v>3188</v>
+        <v>3185</v>
       </c>
       <c r="CE245" s="1" t="s">
-        <v>3189</v>
+        <v>3186</v>
       </c>
       <c r="CF245" s="1" t="s">
-        <v>3190</v>
+        <v>3187</v>
       </c>
       <c r="CH245" s="1" t="s">
         <v>130</v>
@@ -56289,16 +56188,16 @@
         <v>97</v>
       </c>
       <c r="K246" s="1" t="s">
-        <v>3191</v>
+        <v>3188</v>
       </c>
       <c r="L246" s="1" t="s">
-        <v>3192</v>
+        <v>3189</v>
       </c>
       <c r="M246" s="1" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="N246" s="1" t="s">
-        <v>3193</v>
+        <v>3190</v>
       </c>
       <c r="O246" s="1" t="s">
         <v>101</v>
@@ -56337,7 +56236,7 @@
         <v>44246</v>
       </c>
       <c r="AD246" s="1" t="s">
-        <v>3194</v>
+        <v>3191</v>
       </c>
       <c r="AF246" s="1" t="s">
         <v>107</v>
@@ -56394,10 +56293,10 @@
         <v>21</v>
       </c>
       <c r="BD246" s="1" t="s">
-        <v>3195</v>
+        <v>3192</v>
       </c>
       <c r="BH246" s="1" t="s">
-        <v>3196</v>
+        <v>3193</v>
       </c>
       <c r="BN246" s="1" t="s">
         <v>118</v>
@@ -56406,7 +56305,7 @@
         <v>106</v>
       </c>
       <c r="BU246" s="1" t="s">
-        <v>3197</v>
+        <v>3194</v>
       </c>
       <c r="BV246" s="1" t="s">
         <v>122</v>
@@ -56430,13 +56329,13 @@
         <v>112</v>
       </c>
       <c r="CD246" s="1" t="s">
-        <v>3198</v>
+        <v>3195</v>
       </c>
       <c r="CE246" s="1" t="s">
         <v>145</v>
       </c>
       <c r="CF246" s="1" t="s">
-        <v>3199</v>
+        <v>3196</v>
       </c>
       <c r="CH246" s="1" t="s">
         <v>130</v>
@@ -56480,16 +56379,16 @@
         <v>97</v>
       </c>
       <c r="K247" s="1" t="s">
-        <v>3200</v>
+        <v>3197</v>
       </c>
       <c r="L247" s="1" t="s">
-        <v>3201</v>
+        <v>3198</v>
       </c>
       <c r="M247" s="1" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="N247" s="1" t="s">
-        <v>3202</v>
+        <v>3199</v>
       </c>
       <c r="O247" s="1" t="s">
         <v>101</v>
@@ -56525,7 +56424,7 @@
         <v>44267</v>
       </c>
       <c r="AD247" s="1" t="s">
-        <v>3203</v>
+        <v>3200</v>
       </c>
       <c r="AF247" s="1" t="s">
         <v>107</v>
@@ -56582,10 +56481,10 @@
         <v>21</v>
       </c>
       <c r="BD247" s="1" t="s">
-        <v>3204</v>
+        <v>3201</v>
       </c>
       <c r="BH247" s="1" t="s">
-        <v>3205</v>
+        <v>3202</v>
       </c>
       <c r="BN247" s="1" t="s">
         <v>118</v>
@@ -56597,13 +56496,13 @@
         <v>119</v>
       </c>
       <c r="BS247" s="1" t="s">
-        <v>3206</v>
+        <v>3203</v>
       </c>
       <c r="BT247" s="3">
         <v>35711</v>
       </c>
       <c r="BU247" s="1" t="s">
-        <v>3207</v>
+        <v>3204</v>
       </c>
       <c r="BV247" s="1" t="s">
         <v>122</v>
@@ -56627,7 +56526,7 @@
         <v>395</v>
       </c>
       <c r="CF247" s="1" t="s">
-        <v>3208</v>
+        <v>3205</v>
       </c>
       <c r="CH247" s="1" t="s">
         <v>130</v>
@@ -56671,16 +56570,16 @@
         <v>97</v>
       </c>
       <c r="K248" s="1" t="s">
-        <v>3209</v>
+        <v>3206</v>
       </c>
       <c r="L248" s="1" t="s">
-        <v>3210</v>
+        <v>3207</v>
       </c>
       <c r="M248" s="1" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="N248" s="1" t="s">
-        <v>3211</v>
+        <v>3208</v>
       </c>
       <c r="O248" s="1" t="s">
         <v>101</v>
@@ -56716,16 +56615,16 @@
         <v>44255</v>
       </c>
       <c r="AD248" s="1" t="s">
-        <v>3212</v>
+        <v>3209</v>
       </c>
       <c r="AF248" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG248" s="1" t="s">
-        <v>2839</v>
+        <v>2837</v>
       </c>
       <c r="AH248" s="1" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="AJ248" s="1" t="s">
         <v>110</v>
@@ -56773,16 +56672,16 @@
         <v>21</v>
       </c>
       <c r="BD248" s="1" t="s">
-        <v>3213</v>
+        <v>3210</v>
       </c>
       <c r="BE248" s="1" t="s">
-        <v>3149</v>
+        <v>3146</v>
       </c>
       <c r="BF248" s="1" t="s">
-        <v>3150</v>
+        <v>3147</v>
       </c>
       <c r="BH248" s="1" t="s">
-        <v>3214</v>
+        <v>3211</v>
       </c>
       <c r="BN248" s="1" t="s">
         <v>118</v>
@@ -56791,13 +56690,13 @@
         <v>236</v>
       </c>
       <c r="BS248" s="1" t="s">
-        <v>3215</v>
+        <v>3212</v>
       </c>
       <c r="BT248" s="3">
         <v>2302</v>
       </c>
       <c r="BU248" s="1" t="s">
-        <v>3216</v>
+        <v>3213</v>
       </c>
       <c r="BV248" s="1" t="s">
         <v>122</v>
@@ -56821,16 +56720,16 @@
         <v>93</v>
       </c>
       <c r="CD248" s="1" t="s">
+        <v>3214</v>
+      </c>
+      <c r="CE248" s="1" t="s">
+        <v>3215</v>
+      </c>
+      <c r="CF248" s="1" t="s">
+        <v>3216</v>
+      </c>
+      <c r="CH248" s="1" t="s">
         <v>3217</v>
-      </c>
-      <c r="CE248" s="1" t="s">
-        <v>3218</v>
-      </c>
-      <c r="CF248" s="1" t="s">
-        <v>3219</v>
-      </c>
-      <c r="CH248" s="1" t="s">
-        <v>3220</v>
       </c>
       <c r="CI248" s="1" t="s">
         <v>130</v>
@@ -56871,16 +56770,16 @@
         <v>97</v>
       </c>
       <c r="K249" s="1" t="s">
-        <v>3221</v>
+        <v>3218</v>
       </c>
       <c r="L249" s="1" t="s">
-        <v>3222</v>
+        <v>3219</v>
       </c>
       <c r="M249" s="1" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="N249" s="1" t="s">
-        <v>3223</v>
+        <v>3220</v>
       </c>
       <c r="O249" s="1" t="s">
         <v>101</v>
@@ -56916,7 +56815,7 @@
         <v>44316</v>
       </c>
       <c r="AD249" s="1" t="s">
-        <v>3224</v>
+        <v>3221</v>
       </c>
       <c r="AF249" s="1" t="s">
         <v>107</v>
@@ -56973,10 +56872,10 @@
         <v>21</v>
       </c>
       <c r="BD249" s="1" t="s">
-        <v>3225</v>
+        <v>3222</v>
       </c>
       <c r="BH249" s="1" t="s">
-        <v>3226</v>
+        <v>3223</v>
       </c>
       <c r="BN249" s="1" t="s">
         <v>118</v>
@@ -56988,13 +56887,13 @@
         <v>236</v>
       </c>
       <c r="BS249" s="1" t="s">
-        <v>3227</v>
+        <v>3224</v>
       </c>
       <c r="BT249" s="3">
         <v>35108</v>
       </c>
       <c r="BU249" s="1" t="s">
-        <v>3228</v>
+        <v>3225</v>
       </c>
       <c r="BV249" s="1" t="s">
         <v>122</v>
@@ -57012,16 +56911,16 @@
         <v>112</v>
       </c>
       <c r="CD249" s="1" t="s">
-        <v>3229</v>
+        <v>3226</v>
       </c>
       <c r="CE249" s="1" t="s">
         <v>2035</v>
       </c>
       <c r="CF249" s="1" t="s">
-        <v>3230</v>
+        <v>3227</v>
       </c>
       <c r="CH249" s="1" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="CI249" s="1" t="s">
         <v>130</v>
@@ -57062,16 +56961,16 @@
         <v>97</v>
       </c>
       <c r="K250" s="1" t="s">
-        <v>3232</v>
+        <v>3229</v>
       </c>
       <c r="L250" s="1" t="s">
-        <v>3030</v>
+        <v>3027</v>
       </c>
       <c r="M250" s="1" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="N250" s="1" t="s">
-        <v>3233</v>
+        <v>3230</v>
       </c>
       <c r="O250" s="1" t="s">
         <v>101</v>
@@ -57107,16 +57006,16 @@
         <v>44507</v>
       </c>
       <c r="AD250" s="1" t="s">
-        <v>3203</v>
+        <v>3200</v>
       </c>
       <c r="AF250" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG250" s="1" t="s">
-        <v>2839</v>
+        <v>2837</v>
       </c>
       <c r="AH250" s="1" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="AI250" s="1" t="s">
         <v>112</v>
@@ -57167,16 +57066,16 @@
         <v>21</v>
       </c>
       <c r="BD250" s="1" t="s">
-        <v>3234</v>
+        <v>3231</v>
       </c>
       <c r="BH250" s="1" t="s">
-        <v>3214</v>
+        <v>3211</v>
       </c>
       <c r="BN250" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU250" s="1" t="s">
-        <v>3235</v>
+        <v>3232</v>
       </c>
       <c r="BV250" s="1" t="s">
         <v>122</v>
@@ -57200,16 +57099,16 @@
         <v>93</v>
       </c>
       <c r="CD250" s="1" t="s">
-        <v>3236</v>
+        <v>3233</v>
       </c>
       <c r="CE250" s="1" t="s">
-        <v>3236</v>
+        <v>3233</v>
       </c>
       <c r="CF250" s="1" t="s">
-        <v>3237</v>
+        <v>3234</v>
       </c>
       <c r="CH250" s="1" t="s">
-        <v>3220</v>
+        <v>3217</v>
       </c>
       <c r="CI250" s="1" t="s">
         <v>130</v>
@@ -57244,22 +57143,22 @@
         <v>95</v>
       </c>
       <c r="I251" s="1" t="s">
-        <v>3238</v>
+        <v>3235</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K251" s="1" t="s">
-        <v>3239</v>
+        <v>3236</v>
       </c>
       <c r="L251" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="M251" s="1" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="N251" s="1" t="s">
-        <v>3240</v>
+        <v>3237</v>
       </c>
       <c r="O251" s="1" t="s">
         <v>101</v>
@@ -57292,7 +57191,7 @@
         <v>44701</v>
       </c>
       <c r="AD251" s="1" t="s">
-        <v>3241</v>
+        <v>3238</v>
       </c>
       <c r="AF251" s="1" t="s">
         <v>107</v>
@@ -57340,7 +57239,7 @@
         <v>112</v>
       </c>
       <c r="AZ251" s="1" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="BB251" s="1">
         <v>5</v>
@@ -57349,13 +57248,13 @@
         <v>22</v>
       </c>
       <c r="BD251" s="1" t="s">
-        <v>3242</v>
+        <v>3239</v>
       </c>
       <c r="BH251" s="1" t="s">
-        <v>3243</v>
+        <v>3240</v>
       </c>
       <c r="BI251" s="1" t="s">
-        <v>3244</v>
+        <v>3241</v>
       </c>
       <c r="BN251" s="1" t="s">
         <v>118</v>
@@ -57370,13 +57269,13 @@
         <v>163</v>
       </c>
       <c r="BS251" s="1" t="s">
-        <v>3245</v>
+        <v>3242</v>
       </c>
       <c r="BT251" s="3">
         <v>36825</v>
       </c>
       <c r="BU251" s="1" t="s">
-        <v>3246</v>
+        <v>3243</v>
       </c>
       <c r="BV251" s="1" t="s">
         <v>122</v>
@@ -57391,7 +57290,7 @@
         <v>111</v>
       </c>
       <c r="CA251" s="1" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="CB251" s="1" t="s">
         <v>124</v>
@@ -57400,19 +57299,19 @@
         <v>112</v>
       </c>
       <c r="CD251" s="1" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="CE251" s="1" t="s">
-        <v>3247</v>
+        <v>3244</v>
       </c>
       <c r="CF251" s="1" t="s">
-        <v>3248</v>
+        <v>3245</v>
       </c>
       <c r="CH251" s="1" t="s">
-        <v>3060</v>
+        <v>3057</v>
       </c>
       <c r="CI251" s="1" t="s">
-        <v>3249</v>
+        <v>3246</v>
       </c>
       <c r="CJ251" s="1" t="s">
         <v>130</v>
@@ -57444,22 +57343,22 @@
         <v>95</v>
       </c>
       <c r="I252" s="1" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K252" s="1" t="s">
-        <v>3099</v>
+        <v>3096</v>
       </c>
       <c r="L252" s="1" t="s">
-        <v>3250</v>
+        <v>3247</v>
       </c>
       <c r="M252" s="1" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="N252" s="1" t="s">
-        <v>3101</v>
+        <v>3098</v>
       </c>
       <c r="O252" s="1" t="s">
         <v>101</v>
@@ -57492,7 +57391,7 @@
         <v>44733</v>
       </c>
       <c r="AD252" s="1" t="s">
-        <v>3251</v>
+        <v>3248</v>
       </c>
       <c r="AF252" s="1" t="s">
         <v>107</v>
@@ -57549,10 +57448,10 @@
         <v>22</v>
       </c>
       <c r="BD252" s="1" t="s">
-        <v>3252</v>
+        <v>3249</v>
       </c>
       <c r="BH252" s="1" t="s">
-        <v>3253</v>
+        <v>3250</v>
       </c>
       <c r="BN252" s="1" t="s">
         <v>118</v>
@@ -57564,13 +57463,13 @@
         <v>236</v>
       </c>
       <c r="BS252" s="1" t="s">
-        <v>3254</v>
+        <v>3251</v>
       </c>
       <c r="BT252" s="3">
         <v>34412</v>
       </c>
       <c r="BU252" s="1" t="s">
-        <v>3106</v>
+        <v>3103</v>
       </c>
       <c r="BV252" s="1" t="s">
         <v>122</v>
@@ -57591,13 +57490,13 @@
         <v>112</v>
       </c>
       <c r="CD252" s="1" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="CE252" s="1" t="s">
-        <v>3108</v>
+        <v>3105</v>
       </c>
       <c r="CF252" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="CH252" s="1" t="s">
         <v>2412</v>
@@ -57635,22 +57534,22 @@
         <v>95</v>
       </c>
       <c r="I253" s="1" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K253" s="1" t="s">
-        <v>3255</v>
+        <v>3252</v>
       </c>
       <c r="L253" s="1" t="s">
-        <v>3256</v>
+        <v>3253</v>
       </c>
       <c r="M253" s="1" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="N253" s="1" t="s">
-        <v>3257</v>
+        <v>3254</v>
       </c>
       <c r="O253" s="1" t="s">
         <v>101</v>
@@ -57683,7 +57582,7 @@
         <v>44561</v>
       </c>
       <c r="AD253" s="1" t="s">
-        <v>3203</v>
+        <v>3200</v>
       </c>
       <c r="AF253" s="1" t="s">
         <v>107</v>
@@ -57740,7 +57639,7 @@
         <v>22</v>
       </c>
       <c r="BD253" s="1" t="s">
-        <v>3258</v>
+        <v>3255</v>
       </c>
       <c r="BN253" s="1" t="s">
         <v>118</v>
@@ -57749,13 +57648,13 @@
         <v>236</v>
       </c>
       <c r="BS253" s="1" t="s">
-        <v>3259</v>
+        <v>3256</v>
       </c>
       <c r="BT253" s="3">
         <v>5480</v>
       </c>
       <c r="BU253" s="1" t="s">
-        <v>3260</v>
+        <v>3257</v>
       </c>
       <c r="BV253" s="1" t="s">
         <v>122</v>
@@ -57779,13 +57678,13 @@
         <v>112</v>
       </c>
       <c r="CD253" s="1" t="s">
-        <v>3261</v>
+        <v>3258</v>
       </c>
       <c r="CE253" s="1" t="s">
-        <v>3262</v>
+        <v>3259</v>
       </c>
       <c r="CF253" s="1" t="s">
-        <v>3263</v>
+        <v>3260</v>
       </c>
       <c r="CH253" s="1" t="s">
         <v>130</v>
@@ -57829,16 +57728,16 @@
         <v>97</v>
       </c>
       <c r="K254" s="1" t="s">
-        <v>3264</v>
+        <v>3261</v>
       </c>
       <c r="L254" s="1" t="s">
-        <v>3265</v>
+        <v>3262</v>
       </c>
       <c r="M254" s="1" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="N254" s="1" t="s">
-        <v>3266</v>
+        <v>3263</v>
       </c>
       <c r="O254" s="1" t="s">
         <v>101</v>
@@ -57874,7 +57773,7 @@
         <v>44788</v>
       </c>
       <c r="AD254" s="1" t="s">
-        <v>3267</v>
+        <v>3264</v>
       </c>
       <c r="AF254" s="1" t="s">
         <v>107</v>
@@ -57934,10 +57833,10 @@
         <v>22</v>
       </c>
       <c r="BD254" s="1" t="s">
-        <v>3268</v>
+        <v>3265</v>
       </c>
       <c r="BH254" s="1" t="s">
-        <v>3269</v>
+        <v>3266</v>
       </c>
       <c r="BN254" s="1" t="s">
         <v>118</v>
@@ -57952,13 +57851,13 @@
         <v>163</v>
       </c>
       <c r="BS254" s="1" t="s">
-        <v>3270</v>
+        <v>3267</v>
       </c>
       <c r="BT254" s="3">
         <v>35259</v>
       </c>
       <c r="BU254" s="1" t="s">
-        <v>3271</v>
+        <v>3268</v>
       </c>
       <c r="BV254" s="1" t="s">
         <v>122</v>
@@ -57976,13 +57875,13 @@
         <v>112</v>
       </c>
       <c r="CD254" s="1" t="s">
-        <v>3272</v>
+        <v>3269</v>
       </c>
       <c r="CE254" s="1" t="s">
-        <v>3273</v>
+        <v>3270</v>
       </c>
       <c r="CF254" s="1" t="s">
-        <v>3274</v>
+        <v>3271</v>
       </c>
       <c r="CH254" s="1" t="s">
         <v>130</v>
@@ -58026,16 +57925,16 @@
         <v>97</v>
       </c>
       <c r="K255" s="1" t="s">
-        <v>3275</v>
+        <v>3272</v>
       </c>
       <c r="L255" s="1" t="s">
-        <v>3276</v>
+        <v>3273</v>
       </c>
       <c r="M255" s="1" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="N255" s="1" t="s">
-        <v>3277</v>
+        <v>3274</v>
       </c>
       <c r="O255" s="1" t="s">
         <v>101</v>
@@ -58068,16 +57967,16 @@
         <v>44833</v>
       </c>
       <c r="AD255" s="1" t="s">
-        <v>3278</v>
+        <v>3275</v>
       </c>
       <c r="AF255" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG255" s="1" t="s">
-        <v>3041</v>
+        <v>3038</v>
       </c>
       <c r="AH255" s="1" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="AI255" s="1" t="s">
         <v>112</v>
@@ -58128,16 +58027,16 @@
         <v>22</v>
       </c>
       <c r="BD255" s="1" t="s">
-        <v>3279</v>
+        <v>3276</v>
       </c>
       <c r="BH255" s="1" t="s">
-        <v>3280</v>
+        <v>3277</v>
       </c>
       <c r="BN255" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU255" s="1" t="s">
-        <v>3281</v>
+        <v>3278</v>
       </c>
       <c r="BV255" s="1" t="s">
         <v>122</v>
@@ -58149,7 +58048,7 @@
         <v>111</v>
       </c>
       <c r="CA255" s="1" t="s">
-        <v>3282</v>
+        <v>3279</v>
       </c>
       <c r="CB255" s="1" t="s">
         <v>124</v>
@@ -58158,16 +58057,16 @@
         <v>93</v>
       </c>
       <c r="CD255" s="1" t="s">
-        <v>3283</v>
+        <v>3280</v>
       </c>
       <c r="CE255" s="1" t="s">
-        <v>3284</v>
+        <v>3281</v>
       </c>
       <c r="CF255" s="1" t="s">
-        <v>3285</v>
+        <v>3282</v>
       </c>
       <c r="CH255" s="1" t="s">
-        <v>3220</v>
+        <v>3217</v>
       </c>
       <c r="CI255" s="1" t="s">
         <v>130</v>
@@ -58208,16 +58107,16 @@
         <v>97</v>
       </c>
       <c r="K256" s="1" t="s">
-        <v>3286</v>
+        <v>3283</v>
       </c>
       <c r="L256" s="1" t="s">
-        <v>3287</v>
+        <v>3284</v>
       </c>
       <c r="M256" s="1" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="N256" s="1" t="s">
-        <v>3288</v>
+        <v>3285</v>
       </c>
       <c r="O256" s="1" t="s">
         <v>101</v>
@@ -58253,16 +58152,16 @@
         <v>44895</v>
       </c>
       <c r="AD256" s="1" t="s">
-        <v>3203</v>
+        <v>3200</v>
       </c>
       <c r="AF256" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG256" s="1" t="s">
-        <v>3041</v>
+        <v>3038</v>
       </c>
       <c r="AH256" s="1" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="AJ256" s="1" t="s">
         <v>110</v>
@@ -58307,10 +58206,10 @@
         <v>22</v>
       </c>
       <c r="BD256" s="1" t="s">
-        <v>3042</v>
+        <v>3039</v>
       </c>
       <c r="BH256" s="1" t="s">
-        <v>3280</v>
+        <v>3277</v>
       </c>
       <c r="BN256" s="1" t="s">
         <v>118</v>
@@ -58319,13 +58218,13 @@
         <v>119</v>
       </c>
       <c r="BS256" s="1" t="s">
-        <v>3289</v>
+        <v>3286</v>
       </c>
       <c r="BT256" s="3">
         <v>34170</v>
       </c>
       <c r="BU256" s="1" t="s">
-        <v>3290</v>
+        <v>3287</v>
       </c>
       <c r="BV256" s="1" t="s">
         <v>122</v>
@@ -58346,16 +58245,16 @@
         <v>93</v>
       </c>
       <c r="CD256" s="1" t="s">
-        <v>2871</v>
+        <v>2869</v>
       </c>
       <c r="CE256" s="1" t="s">
-        <v>3291</v>
+        <v>3288</v>
       </c>
       <c r="CF256" s="1" t="s">
-        <v>3292</v>
+        <v>3289</v>
       </c>
       <c r="CH256" s="1" t="s">
-        <v>3220</v>
+        <v>3217</v>
       </c>
       <c r="CI256" s="1" t="s">
         <v>130</v>
@@ -58396,19 +58295,19 @@
         <v>97</v>
       </c>
       <c r="K257" s="1" t="s">
-        <v>3293</v>
+        <v>3290</v>
       </c>
       <c r="L257" s="1" t="s">
-        <v>3294</v>
+        <v>3291</v>
       </c>
       <c r="N257" s="1" t="s">
-        <v>3295</v>
+        <v>3292</v>
       </c>
       <c r="O257" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P257" s="1" t="s">
-        <v>3296</v>
+        <v>3293</v>
       </c>
       <c r="Q257" s="3">
         <v>31999</v>
@@ -58489,13 +58388,13 @@
         <v>23</v>
       </c>
       <c r="BD257" s="1" t="s">
-        <v>3297</v>
+        <v>3294</v>
       </c>
       <c r="BG257" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH257" s="1" t="s">
-        <v>3298</v>
+        <v>3295</v>
       </c>
       <c r="BN257" s="1" t="s">
         <v>118</v>
@@ -58504,7 +58403,7 @@
         <v>106</v>
       </c>
       <c r="BU257" s="1" t="s">
-        <v>3299</v>
+        <v>3296</v>
       </c>
       <c r="BV257" s="1" t="s">
         <v>122</v>
@@ -58525,16 +58424,16 @@
         <v>112</v>
       </c>
       <c r="CD257" s="1" t="s">
+        <v>3297</v>
+      </c>
+      <c r="CE257" s="1" t="s">
+        <v>3298</v>
+      </c>
+      <c r="CF257" s="1" t="s">
+        <v>3299</v>
+      </c>
+      <c r="CH257" s="1" t="s">
         <v>3300</v>
-      </c>
-      <c r="CE257" s="1" t="s">
-        <v>3301</v>
-      </c>
-      <c r="CF257" s="1" t="s">
-        <v>3302</v>
-      </c>
-      <c r="CH257" s="1" t="s">
-        <v>3303</v>
       </c>
       <c r="CI257" s="1" t="s">
         <v>130</v>
@@ -58575,16 +58474,16 @@
         <v>97</v>
       </c>
       <c r="K258" s="1" t="s">
-        <v>3239</v>
+        <v>3236</v>
       </c>
       <c r="L258" s="1" t="s">
-        <v>3304</v>
+        <v>3301</v>
       </c>
       <c r="M258" s="1" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="N258" s="1" t="s">
-        <v>3240</v>
+        <v>3237</v>
       </c>
       <c r="O258" s="1" t="s">
         <v>101</v>
@@ -58617,7 +58516,7 @@
         <v>45007</v>
       </c>
       <c r="AD258" s="1" t="s">
-        <v>3305</v>
+        <v>3302</v>
       </c>
       <c r="AF258" s="1" t="s">
         <v>107</v>
@@ -58671,10 +58570,10 @@
         <v>23</v>
       </c>
       <c r="BD258" s="1" t="s">
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="BH258" s="1" t="s">
-        <v>3306</v>
+        <v>3303</v>
       </c>
       <c r="BN258" s="1" t="s">
         <v>118</v>
@@ -58683,13 +58582,13 @@
         <v>103</v>
       </c>
       <c r="BS258" s="1" t="s">
-        <v>3245</v>
+        <v>3242</v>
       </c>
       <c r="BT258" s="3">
         <v>300</v>
       </c>
       <c r="BU258" s="1" t="s">
-        <v>3246</v>
+        <v>3243</v>
       </c>
       <c r="BV258" s="1" t="s">
         <v>122</v>
@@ -58710,13 +58609,13 @@
         <v>112</v>
       </c>
       <c r="CD258" s="1" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="CE258" s="1" t="s">
-        <v>3247</v>
+        <v>3244</v>
       </c>
       <c r="CF258" s="1" t="s">
-        <v>3248</v>
+        <v>3245</v>
       </c>
       <c r="CH258" s="1" t="s">
         <v>1934</v>
@@ -58760,19 +58659,19 @@
         <v>97</v>
       </c>
       <c r="K259" s="1" t="s">
-        <v>3307</v>
+        <v>3304</v>
       </c>
       <c r="L259" s="1" t="s">
-        <v>3308</v>
+        <v>3305</v>
       </c>
       <c r="N259" s="1" t="s">
-        <v>3309</v>
+        <v>3306</v>
       </c>
       <c r="O259" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P259" s="1" t="s">
-        <v>3310</v>
+        <v>3307</v>
       </c>
       <c r="Q259" s="3">
         <v>19897</v>
@@ -58799,7 +58698,7 @@
         <v>107</v>
       </c>
       <c r="AG259" s="1" t="s">
-        <v>3311</v>
+        <v>3308</v>
       </c>
       <c r="AH259" s="1" t="s">
         <v>157</v>
@@ -58853,19 +58752,19 @@
         <v>23</v>
       </c>
       <c r="BD259" s="1" t="s">
-        <v>3312</v>
+        <v>3309</v>
       </c>
       <c r="BG259" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH259" s="1" t="s">
-        <v>3313</v>
+        <v>3310</v>
       </c>
       <c r="BN259" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU259" s="1" t="s">
-        <v>3314</v>
+        <v>3311</v>
       </c>
       <c r="BV259" s="1" t="s">
         <v>122</v>
@@ -58886,16 +58785,16 @@
         <v>112</v>
       </c>
       <c r="CD259" s="1" t="s">
-        <v>3261</v>
+        <v>3258</v>
       </c>
       <c r="CE259" s="1" t="s">
-        <v>3315</v>
+        <v>3312</v>
       </c>
       <c r="CF259" s="1" t="s">
-        <v>3316</v>
+        <v>3313</v>
       </c>
       <c r="CH259" s="1" t="s">
-        <v>3317</v>
+        <v>3314</v>
       </c>
       <c r="CI259" s="1" t="s">
         <v>130</v>
@@ -58936,22 +58835,22 @@
         <v>97</v>
       </c>
       <c r="K260" s="1" t="s">
-        <v>3318</v>
+        <v>3315</v>
       </c>
       <c r="L260" s="1" t="s">
-        <v>3319</v>
+        <v>3316</v>
       </c>
       <c r="M260" s="1" t="s">
         <v>103</v>
       </c>
       <c r="N260" s="1" t="s">
-        <v>3320</v>
+        <v>3317</v>
       </c>
       <c r="O260" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P260" s="1" t="s">
-        <v>3321</v>
+        <v>3318</v>
       </c>
       <c r="Q260" s="3">
         <v>27241</v>
@@ -59029,13 +58928,13 @@
         <v>23</v>
       </c>
       <c r="BD260" s="1" t="s">
-        <v>3322</v>
+        <v>3319</v>
       </c>
       <c r="BG260" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH260" s="1" t="s">
-        <v>3323</v>
+        <v>3320</v>
       </c>
       <c r="BI260" s="1" t="s">
         <v>1748</v>
@@ -59050,13 +58949,13 @@
         <v>103</v>
       </c>
       <c r="BS260" s="1" t="s">
-        <v>3324</v>
+        <v>3321</v>
       </c>
       <c r="BT260" s="3">
         <v>424</v>
       </c>
       <c r="BU260" s="1" t="s">
-        <v>3325</v>
+        <v>3322</v>
       </c>
       <c r="BV260" s="1" t="s">
         <v>122</v>
@@ -59077,16 +58976,16 @@
         <v>112</v>
       </c>
       <c r="CD260" s="1" t="s">
-        <v>3326</v>
+        <v>3323</v>
       </c>
       <c r="CE260" s="1" t="s">
         <v>2102</v>
       </c>
       <c r="CF260" s="1" t="s">
-        <v>3327</v>
+        <v>3324</v>
       </c>
       <c r="CH260" s="1" t="s">
-        <v>3328</v>
+        <v>3325</v>
       </c>
       <c r="CI260" s="1" t="s">
         <v>1755</v>
@@ -59100,10 +58999,10 @@
         <v>88</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>3179</v>
+        <v>3176</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>3180</v>
+        <v>3177</v>
       </c>
       <c r="D261" s="1" t="s">
         <v>1293</v>
@@ -59118,7 +59017,7 @@
         <v>94</v>
       </c>
       <c r="H261" s="1" t="s">
-        <v>3329</v>
+        <v>3326</v>
       </c>
       <c r="I261" s="1" t="s">
         <v>1293</v>
@@ -59127,19 +59026,19 @@
         <v>92</v>
       </c>
       <c r="K261" s="1" t="s">
-        <v>3330</v>
+        <v>3327</v>
       </c>
       <c r="L261" s="1" t="s">
-        <v>3331</v>
+        <v>3328</v>
       </c>
       <c r="N261" s="1" t="s">
-        <v>3332</v>
+        <v>3329</v>
       </c>
       <c r="O261" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P261" s="1" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="Q261" s="3">
         <v>20466</v>
@@ -59187,7 +59086,7 @@
         <v>0</v>
       </c>
       <c r="AN261" s="1" t="s">
-        <v>3334</v>
+        <v>3331</v>
       </c>
       <c r="AO261" s="1">
         <v>0</v>
@@ -59220,19 +59119,19 @@
         <v>23</v>
       </c>
       <c r="BD261" s="1" t="s">
-        <v>3335</v>
+        <v>3332</v>
       </c>
       <c r="BG261" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH261" s="1" t="s">
-        <v>3336</v>
+        <v>3333</v>
       </c>
       <c r="BN261" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU261" s="1" t="s">
-        <v>3337</v>
+        <v>3334</v>
       </c>
       <c r="BV261" s="1" t="s">
         <v>122</v>
@@ -59250,16 +59149,16 @@
         <v>112</v>
       </c>
       <c r="CD261" s="1" t="s">
-        <v>3338</v>
+        <v>3335</v>
       </c>
       <c r="CE261" s="1" t="s">
         <v>324</v>
       </c>
       <c r="CF261" s="1" t="s">
-        <v>3339</v>
+        <v>3336</v>
       </c>
       <c r="CH261" s="1" t="s">
-        <v>3340</v>
+        <v>3337</v>
       </c>
       <c r="CI261" s="1" t="s">
         <v>130</v>
@@ -59273,10 +59172,10 @@
         <v>88</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>3179</v>
+        <v>3176</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>3180</v>
+        <v>3177</v>
       </c>
       <c r="D262" s="1" t="s">
         <v>1293</v>
@@ -59291,7 +59190,7 @@
         <v>94</v>
       </c>
       <c r="H262" s="1" t="s">
-        <v>3329</v>
+        <v>3326</v>
       </c>
       <c r="I262" s="1" t="s">
         <v>1293</v>
@@ -59300,19 +59199,19 @@
         <v>92</v>
       </c>
       <c r="K262" s="1" t="s">
-        <v>3341</v>
+        <v>3338</v>
       </c>
       <c r="L262" s="1" t="s">
-        <v>3342</v>
+        <v>3339</v>
       </c>
       <c r="N262" s="1" t="s">
-        <v>3343</v>
+        <v>3340</v>
       </c>
       <c r="O262" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P262" s="1" t="s">
-        <v>3344</v>
+        <v>3341</v>
       </c>
       <c r="Q262" s="3">
         <v>24006</v>
@@ -59357,7 +59256,7 @@
         <v>0</v>
       </c>
       <c r="AN262" s="1" t="s">
-        <v>3345</v>
+        <v>3342</v>
       </c>
       <c r="AO262" s="1">
         <v>0</v>
@@ -59393,19 +59292,19 @@
         <v>23</v>
       </c>
       <c r="BD262" s="1" t="s">
-        <v>3346</v>
+        <v>3343</v>
       </c>
       <c r="BG262" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH262" s="1" t="s">
-        <v>3347</v>
+        <v>3344</v>
       </c>
       <c r="BN262" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU262" s="1" t="s">
-        <v>3348</v>
+        <v>3345</v>
       </c>
       <c r="BV262" s="1" t="s">
         <v>122</v>
@@ -59432,10 +59331,10 @@
         <v>1112</v>
       </c>
       <c r="CF262" s="1" t="s">
-        <v>3349</v>
+        <v>3346</v>
       </c>
       <c r="CH262" s="1" t="s">
-        <v>3350</v>
+        <v>3347</v>
       </c>
       <c r="CI262" s="1" t="s">
         <v>130</v>
@@ -59449,10 +59348,10 @@
         <v>88</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>3179</v>
+        <v>3176</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>3180</v>
+        <v>3177</v>
       </c>
       <c r="D263" s="1" t="s">
         <v>1293</v>
@@ -59467,7 +59366,7 @@
         <v>94</v>
       </c>
       <c r="H263" s="1" t="s">
-        <v>3329</v>
+        <v>3326</v>
       </c>
       <c r="I263" s="1" t="s">
         <v>1293</v>
@@ -59476,19 +59375,19 @@
         <v>92</v>
       </c>
       <c r="K263" s="1" t="s">
-        <v>3351</v>
+        <v>3348</v>
       </c>
       <c r="L263" s="1" t="s">
-        <v>3352</v>
+        <v>3349</v>
       </c>
       <c r="N263" s="1" t="s">
-        <v>3353</v>
+        <v>3350</v>
       </c>
       <c r="O263" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P263" s="1" t="s">
-        <v>3354</v>
+        <v>3351</v>
       </c>
       <c r="Q263" s="3">
         <v>26193</v>
@@ -59533,7 +59432,7 @@
         <v>0</v>
       </c>
       <c r="AN263" s="1" t="s">
-        <v>3355</v>
+        <v>3352</v>
       </c>
       <c r="AO263" s="1">
         <v>0</v>
@@ -59569,19 +59468,19 @@
         <v>23</v>
       </c>
       <c r="BD263" s="1" t="s">
-        <v>3356</v>
+        <v>3353</v>
       </c>
       <c r="BG263" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH263" s="1" t="s">
-        <v>3357</v>
+        <v>3354</v>
       </c>
       <c r="BN263" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU263" s="1" t="s">
-        <v>3358</v>
+        <v>3355</v>
       </c>
       <c r="BV263" s="1" t="s">
         <v>122</v>
@@ -59602,16 +59501,16 @@
         <v>112</v>
       </c>
       <c r="CD263" s="1" t="s">
+        <v>3356</v>
+      </c>
+      <c r="CE263" s="1" t="s">
+        <v>3357</v>
+      </c>
+      <c r="CF263" s="1" t="s">
+        <v>3358</v>
+      </c>
+      <c r="CH263" s="1" t="s">
         <v>3359</v>
-      </c>
-      <c r="CE263" s="1" t="s">
-        <v>3360</v>
-      </c>
-      <c r="CF263" s="1" t="s">
-        <v>3361</v>
-      </c>
-      <c r="CH263" s="1" t="s">
-        <v>3362</v>
       </c>
       <c r="CI263" s="1" t="s">
         <v>130</v>
@@ -59625,10 +59524,10 @@
         <v>88</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>3179</v>
+        <v>3176</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>3180</v>
+        <v>3177</v>
       </c>
       <c r="D264" s="1" t="s">
         <v>1293</v>
@@ -59643,7 +59542,7 @@
         <v>94</v>
       </c>
       <c r="H264" s="1" t="s">
-        <v>3329</v>
+        <v>3326</v>
       </c>
       <c r="I264" s="1" t="s">
         <v>1293</v>
@@ -59652,19 +59551,19 @@
         <v>92</v>
       </c>
       <c r="K264" s="1" t="s">
-        <v>3363</v>
+        <v>3360</v>
       </c>
       <c r="L264" s="1" t="s">
-        <v>3364</v>
+        <v>3361</v>
       </c>
       <c r="N264" s="1" t="s">
-        <v>3365</v>
+        <v>3362</v>
       </c>
       <c r="O264" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P264" s="1" t="s">
-        <v>3366</v>
+        <v>3363</v>
       </c>
       <c r="Q264" s="3">
         <v>24325</v>
@@ -59745,19 +59644,19 @@
         <v>23</v>
       </c>
       <c r="BD264" s="1" t="s">
-        <v>3367</v>
+        <v>3364</v>
       </c>
       <c r="BG264" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH264" s="1" t="s">
-        <v>3368</v>
+        <v>3365</v>
       </c>
       <c r="BN264" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU264" s="1" t="s">
-        <v>3369</v>
+        <v>3366</v>
       </c>
       <c r="BV264" s="1" t="s">
         <v>122</v>
@@ -59778,7 +59677,7 @@
         <v>112</v>
       </c>
       <c r="CD264" s="1" t="s">
-        <v>3370</v>
+        <v>3367</v>
       </c>
       <c r="CE264" s="1" t="s">
         <v>604</v>
@@ -59787,7 +59686,7 @@
         <v>501</v>
       </c>
       <c r="CH264" s="1" t="s">
-        <v>3371</v>
+        <v>3368</v>
       </c>
       <c r="CI264" s="1" t="s">
         <v>130</v>
@@ -59801,10 +59700,10 @@
         <v>88</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>3179</v>
+        <v>3176</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>3180</v>
+        <v>3177</v>
       </c>
       <c r="D265" s="1" t="s">
         <v>1293</v>
@@ -59819,7 +59718,7 @@
         <v>94</v>
       </c>
       <c r="H265" s="1" t="s">
-        <v>3329</v>
+        <v>3326</v>
       </c>
       <c r="I265" s="1" t="s">
         <v>1293</v>
@@ -59828,19 +59727,19 @@
         <v>92</v>
       </c>
       <c r="K265" s="1" t="s">
-        <v>3372</v>
+        <v>3369</v>
       </c>
       <c r="L265" s="1" t="s">
-        <v>3373</v>
+        <v>3370</v>
       </c>
       <c r="N265" s="1" t="s">
-        <v>3374</v>
+        <v>3371</v>
       </c>
       <c r="O265" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P265" s="1" t="s">
-        <v>3375</v>
+        <v>3372</v>
       </c>
       <c r="Q265" s="3">
         <v>24848</v>
@@ -59888,7 +59787,7 @@
         <v>0</v>
       </c>
       <c r="AN265" s="1" t="s">
-        <v>3376</v>
+        <v>3373</v>
       </c>
       <c r="AO265" s="1">
         <v>0</v>
@@ -59924,19 +59823,19 @@
         <v>23</v>
       </c>
       <c r="BD265" s="1" t="s">
-        <v>3377</v>
+        <v>3374</v>
       </c>
       <c r="BG265" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH265" s="1" t="s">
-        <v>3378</v>
+        <v>3375</v>
       </c>
       <c r="BN265" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU265" s="1" t="s">
-        <v>3379</v>
+        <v>3376</v>
       </c>
       <c r="BV265" s="1" t="s">
         <v>122</v>
@@ -59960,13 +59859,13 @@
         <v>484</v>
       </c>
       <c r="CE265" s="1" t="s">
-        <v>3380</v>
+        <v>3377</v>
       </c>
       <c r="CF265" s="1" t="s">
-        <v>3381</v>
+        <v>3378</v>
       </c>
       <c r="CH265" s="1" t="s">
-        <v>3382</v>
+        <v>3379</v>
       </c>
       <c r="CI265" s="1" t="s">
         <v>130</v>
@@ -59980,10 +59879,10 @@
         <v>88</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>3179</v>
+        <v>3176</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>3180</v>
+        <v>3177</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>1293</v>
@@ -59998,7 +59897,7 @@
         <v>94</v>
       </c>
       <c r="H266" s="1" t="s">
-        <v>3329</v>
+        <v>3326</v>
       </c>
       <c r="I266" s="1" t="s">
         <v>1293</v>
@@ -60007,19 +59906,19 @@
         <v>92</v>
       </c>
       <c r="K266" s="1" t="s">
-        <v>3383</v>
+        <v>3380</v>
       </c>
       <c r="L266" s="1" t="s">
-        <v>3384</v>
+        <v>3381</v>
       </c>
       <c r="N266" s="1" t="s">
-        <v>3385</v>
+        <v>3382</v>
       </c>
       <c r="O266" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P266" s="1" t="s">
-        <v>3386</v>
+        <v>3383</v>
       </c>
       <c r="Q266" s="3">
         <v>27702</v>
@@ -60100,19 +59999,19 @@
         <v>23</v>
       </c>
       <c r="BD266" s="1" t="s">
-        <v>3387</v>
+        <v>3384</v>
       </c>
       <c r="BG266" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH266" s="1" t="s">
-        <v>3388</v>
+        <v>3385</v>
       </c>
       <c r="BN266" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU266" s="1" t="s">
-        <v>3389</v>
+        <v>3386</v>
       </c>
       <c r="BV266" s="1" t="s">
         <v>122</v>
@@ -60133,16 +60032,16 @@
         <v>112</v>
       </c>
       <c r="CD266" s="1" t="s">
-        <v>3390</v>
+        <v>3387</v>
       </c>
       <c r="CE266" s="1" t="s">
         <v>616</v>
       </c>
       <c r="CF266" s="1" t="s">
-        <v>3391</v>
+        <v>3388</v>
       </c>
       <c r="CH266" s="1" t="s">
-        <v>3392</v>
+        <v>3389</v>
       </c>
       <c r="CI266" s="1" t="s">
         <v>130</v>
@@ -60156,10 +60055,10 @@
         <v>88</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>3179</v>
+        <v>3176</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>3180</v>
+        <v>3177</v>
       </c>
       <c r="D267" s="1" t="s">
         <v>1293</v>
@@ -60174,7 +60073,7 @@
         <v>94</v>
       </c>
       <c r="H267" s="1" t="s">
-        <v>3329</v>
+        <v>3326</v>
       </c>
       <c r="I267" s="1" t="s">
         <v>1293</v>
@@ -60183,19 +60082,19 @@
         <v>92</v>
       </c>
       <c r="K267" s="1" t="s">
-        <v>3393</v>
+        <v>3390</v>
       </c>
       <c r="L267" s="1" t="s">
-        <v>3394</v>
+        <v>3391</v>
       </c>
       <c r="N267" s="1" t="s">
-        <v>3395</v>
+        <v>3392</v>
       </c>
       <c r="O267" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P267" s="1" t="s">
-        <v>3396</v>
+        <v>3393</v>
       </c>
       <c r="Q267" s="3">
         <v>23289</v>
@@ -60243,7 +60142,7 @@
         <v>0</v>
       </c>
       <c r="AN267" s="1" t="s">
-        <v>3397</v>
+        <v>3394</v>
       </c>
       <c r="AO267" s="1">
         <v>0</v>
@@ -60279,19 +60178,19 @@
         <v>23</v>
       </c>
       <c r="BD267" s="1" t="s">
-        <v>3398</v>
+        <v>3395</v>
       </c>
       <c r="BG267" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH267" s="1" t="s">
-        <v>3399</v>
+        <v>3396</v>
       </c>
       <c r="BN267" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU267" s="1" t="s">
-        <v>3400</v>
+        <v>3397</v>
       </c>
       <c r="BV267" s="1" t="s">
         <v>122</v>
@@ -60312,16 +60211,16 @@
         <v>112</v>
       </c>
       <c r="CD267" s="1" t="s">
-        <v>3401</v>
+        <v>3398</v>
       </c>
       <c r="CE267" s="1" t="s">
         <v>1036</v>
       </c>
       <c r="CF267" s="1" t="s">
-        <v>3402</v>
+        <v>3399</v>
       </c>
       <c r="CH267" s="1" t="s">
-        <v>3403</v>
+        <v>3400</v>
       </c>
       <c r="CI267" s="1" t="s">
         <v>130</v>
@@ -60335,10 +60234,10 @@
         <v>88</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>3179</v>
+        <v>3176</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>3180</v>
+        <v>3177</v>
       </c>
       <c r="D268" s="1" t="s">
         <v>1293</v>
@@ -60353,7 +60252,7 @@
         <v>94</v>
       </c>
       <c r="H268" s="1" t="s">
-        <v>3329</v>
+        <v>3326</v>
       </c>
       <c r="I268" s="1" t="s">
         <v>1293</v>
@@ -60362,19 +60261,19 @@
         <v>92</v>
       </c>
       <c r="K268" s="1" t="s">
-        <v>3404</v>
+        <v>3401</v>
       </c>
       <c r="L268" s="1" t="s">
-        <v>3405</v>
+        <v>3402</v>
       </c>
       <c r="N268" s="1" t="s">
-        <v>3406</v>
+        <v>3403</v>
       </c>
       <c r="O268" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P268" s="1" t="s">
-        <v>3407</v>
+        <v>3404</v>
       </c>
       <c r="Q268" s="3">
         <v>16546</v>
@@ -60422,7 +60321,7 @@
         <v>0</v>
       </c>
       <c r="AN268" s="1" t="s">
-        <v>3376</v>
+        <v>3373</v>
       </c>
       <c r="AO268" s="1">
         <v>0</v>
@@ -60458,19 +60357,19 @@
         <v>23</v>
       </c>
       <c r="BD268" s="1" t="s">
-        <v>3408</v>
+        <v>3405</v>
       </c>
       <c r="BG268" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH268" s="1" t="s">
-        <v>3409</v>
+        <v>3406</v>
       </c>
       <c r="BN268" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU268" s="1" t="s">
-        <v>3410</v>
+        <v>3407</v>
       </c>
       <c r="BV268" s="1" t="s">
         <v>122</v>
@@ -60494,13 +60393,13 @@
         <v>1021</v>
       </c>
       <c r="CE268" s="1" t="s">
-        <v>3411</v>
+        <v>3408</v>
       </c>
       <c r="CF268" s="1" t="s">
-        <v>3412</v>
+        <v>3409</v>
       </c>
       <c r="CH268" s="1" t="s">
-        <v>3413</v>
+        <v>3410</v>
       </c>
       <c r="CI268" s="1" t="s">
         <v>130</v>
@@ -60514,10 +60413,10 @@
         <v>88</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>3179</v>
+        <v>3176</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>3180</v>
+        <v>3177</v>
       </c>
       <c r="D269" s="1" t="s">
         <v>1293</v>
@@ -60532,7 +60431,7 @@
         <v>94</v>
       </c>
       <c r="H269" s="1" t="s">
-        <v>3329</v>
+        <v>3326</v>
       </c>
       <c r="I269" s="1" t="s">
         <v>1293</v>
@@ -60541,10 +60440,10 @@
         <v>92</v>
       </c>
       <c r="K269" s="1" t="s">
-        <v>3414</v>
+        <v>3411</v>
       </c>
       <c r="L269" s="1" t="s">
-        <v>3415</v>
+        <v>3412</v>
       </c>
       <c r="O269" s="1" t="s">
         <v>101</v>
@@ -60586,7 +60485,7 @@
         <v>0</v>
       </c>
       <c r="AN269" s="1" t="s">
-        <v>3376</v>
+        <v>3373</v>
       </c>
       <c r="AO269" s="1">
         <v>0</v>
@@ -60622,7 +60521,7 @@
         <v>21</v>
       </c>
       <c r="BD269" s="1" t="s">
-        <v>3416</v>
+        <v>3413</v>
       </c>
       <c r="BN269" s="1" t="s">
         <v>118</v>
@@ -60646,7 +60545,7 @@
         <v>112</v>
       </c>
       <c r="CD269" s="1" t="s">
-        <v>3414</v>
+        <v>3411</v>
       </c>
       <c r="CH269" s="1" t="s">
         <v>130</v>
@@ -60663,10 +60562,10 @@
         <v>88</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>3179</v>
+        <v>3176</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>3180</v>
+        <v>3177</v>
       </c>
       <c r="D270" s="1" t="s">
         <v>1293</v>
@@ -60681,7 +60580,7 @@
         <v>94</v>
       </c>
       <c r="H270" s="1" t="s">
-        <v>3329</v>
+        <v>3326</v>
       </c>
       <c r="I270" s="1" t="s">
         <v>1293</v>
@@ -60690,19 +60589,19 @@
         <v>92</v>
       </c>
       <c r="K270" s="1" t="s">
-        <v>3417</v>
+        <v>3414</v>
       </c>
       <c r="L270" s="1" t="s">
         <v>2350</v>
       </c>
       <c r="N270" s="1" t="s">
-        <v>3418</v>
+        <v>3415</v>
       </c>
       <c r="O270" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P270" s="1" t="s">
-        <v>3419</v>
+        <v>3416</v>
       </c>
       <c r="Q270" s="3">
         <v>23611</v>
@@ -60747,7 +60646,7 @@
         <v>0</v>
       </c>
       <c r="AN270" s="1" t="s">
-        <v>3420</v>
+        <v>3417</v>
       </c>
       <c r="AO270" s="1">
         <v>0</v>
@@ -60780,19 +60679,19 @@
         <v>23</v>
       </c>
       <c r="BD270" s="1" t="s">
-        <v>3421</v>
+        <v>3418</v>
       </c>
       <c r="BG270" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH270" s="1" t="s">
-        <v>3422</v>
+        <v>3419</v>
       </c>
       <c r="BN270" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU270" s="1" t="s">
-        <v>3423</v>
+        <v>3420</v>
       </c>
       <c r="BV270" s="1" t="s">
         <v>122</v>
@@ -60810,16 +60709,16 @@
         <v>112</v>
       </c>
       <c r="CD270" s="1" t="s">
+        <v>3421</v>
+      </c>
+      <c r="CE270" s="1" t="s">
+        <v>3422</v>
+      </c>
+      <c r="CF270" s="1" t="s">
+        <v>3423</v>
+      </c>
+      <c r="CH270" s="1" t="s">
         <v>3424</v>
-      </c>
-      <c r="CE270" s="1" t="s">
-        <v>3425</v>
-      </c>
-      <c r="CF270" s="1" t="s">
-        <v>3426</v>
-      </c>
-      <c r="CH270" s="1" t="s">
-        <v>3427</v>
       </c>
       <c r="CI270" s="1" t="s">
         <v>130</v>
@@ -60833,10 +60732,10 @@
         <v>88</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>3179</v>
+        <v>3176</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>3180</v>
+        <v>3177</v>
       </c>
       <c r="D271" s="1" t="s">
         <v>1293</v>
@@ -60851,7 +60750,7 @@
         <v>94</v>
       </c>
       <c r="H271" s="1" t="s">
-        <v>3329</v>
+        <v>3326</v>
       </c>
       <c r="I271" s="1" t="s">
         <v>1293</v>
@@ -60860,13 +60759,13 @@
         <v>92</v>
       </c>
       <c r="K271" s="1" t="s">
-        <v>3428</v>
+        <v>3425</v>
       </c>
       <c r="L271" s="1" t="s">
-        <v>3210</v>
+        <v>3207</v>
       </c>
       <c r="N271" s="1" t="s">
-        <v>3429</v>
+        <v>3426</v>
       </c>
       <c r="O271" s="1" t="s">
         <v>101</v>
@@ -60950,19 +60849,19 @@
         <v>23</v>
       </c>
       <c r="BD271" s="1" t="s">
-        <v>3430</v>
+        <v>3427</v>
       </c>
       <c r="BG271" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH271" s="1" t="s">
-        <v>3431</v>
+        <v>3428</v>
       </c>
       <c r="BN271" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU271" s="1" t="s">
-        <v>3432</v>
+        <v>3429</v>
       </c>
       <c r="BV271" s="1" t="s">
         <v>122</v>
@@ -60983,16 +60882,16 @@
         <v>2281</v>
       </c>
       <c r="CD271" s="1" t="s">
+        <v>3430</v>
+      </c>
+      <c r="CE271" s="1" t="s">
+        <v>3431</v>
+      </c>
+      <c r="CF271" s="1" t="s">
+        <v>3432</v>
+      </c>
+      <c r="CH271" s="1" t="s">
         <v>3433</v>
-      </c>
-      <c r="CE271" s="1" t="s">
-        <v>3434</v>
-      </c>
-      <c r="CF271" s="1" t="s">
-        <v>3435</v>
-      </c>
-      <c r="CH271" s="1" t="s">
-        <v>3436</v>
       </c>
       <c r="CI271" s="1" t="s">
         <v>130</v>
@@ -61006,10 +60905,10 @@
         <v>88</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>3179</v>
+        <v>3176</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>3180</v>
+        <v>3177</v>
       </c>
       <c r="D272" s="1" t="s">
         <v>1293</v>
@@ -61024,7 +60923,7 @@
         <v>94</v>
       </c>
       <c r="H272" s="1" t="s">
-        <v>3329</v>
+        <v>3326</v>
       </c>
       <c r="I272" s="1" t="s">
         <v>1293</v>
@@ -61033,19 +60932,19 @@
         <v>92</v>
       </c>
       <c r="K272" s="1" t="s">
-        <v>3437</v>
+        <v>3434</v>
       </c>
       <c r="L272" s="1" t="s">
-        <v>3438</v>
+        <v>3435</v>
       </c>
       <c r="N272" s="1" t="s">
-        <v>3439</v>
+        <v>3436</v>
       </c>
       <c r="O272" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P272" s="1" t="s">
-        <v>3440</v>
+        <v>3437</v>
       </c>
       <c r="Q272" s="3">
         <v>26349</v>
@@ -61093,7 +60992,7 @@
         <v>0</v>
       </c>
       <c r="AN272" s="1" t="s">
-        <v>3441</v>
+        <v>3438</v>
       </c>
       <c r="AO272" s="1">
         <v>0</v>
@@ -61129,19 +61028,19 @@
         <v>23</v>
       </c>
       <c r="BD272" s="1" t="s">
-        <v>3442</v>
+        <v>3439</v>
       </c>
       <c r="BG272" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH272" s="1" t="s">
-        <v>3443</v>
+        <v>3440</v>
       </c>
       <c r="BN272" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU272" s="1" t="s">
-        <v>3444</v>
+        <v>3441</v>
       </c>
       <c r="BV272" s="1" t="s">
         <v>122</v>
@@ -61162,16 +61061,16 @@
         <v>112</v>
       </c>
       <c r="CD272" s="1" t="s">
-        <v>3433</v>
+        <v>3430</v>
       </c>
       <c r="CE272" s="1" t="s">
-        <v>3445</v>
+        <v>3442</v>
       </c>
       <c r="CF272" s="1" t="s">
-        <v>3446</v>
+        <v>3443</v>
       </c>
       <c r="CH272" s="1" t="s">
-        <v>3447</v>
+        <v>3444</v>
       </c>
       <c r="CI272" s="1" t="s">
         <v>130</v>
@@ -61185,10 +61084,10 @@
         <v>88</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>3179</v>
+        <v>3176</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>3180</v>
+        <v>3177</v>
       </c>
       <c r="D273" s="1" t="s">
         <v>1293</v>
@@ -61203,7 +61102,7 @@
         <v>94</v>
       </c>
       <c r="H273" s="1" t="s">
-        <v>3329</v>
+        <v>3326</v>
       </c>
       <c r="I273" s="1" t="s">
         <v>1293</v>
@@ -61212,10 +61111,10 @@
         <v>92</v>
       </c>
       <c r="K273" s="1" t="s">
-        <v>3448</v>
+        <v>3445</v>
       </c>
       <c r="L273" s="1" t="s">
-        <v>3449</v>
+        <v>3446</v>
       </c>
       <c r="O273" s="1" t="s">
         <v>101</v>
@@ -61257,7 +61156,7 @@
         <v>0</v>
       </c>
       <c r="AN273" s="1" t="s">
-        <v>3239</v>
+        <v>3236</v>
       </c>
       <c r="AO273" s="1">
         <v>0</v>
@@ -61293,7 +61192,7 @@
         <v>22</v>
       </c>
       <c r="BD273" s="1" t="s">
-        <v>3450</v>
+        <v>3447</v>
       </c>
       <c r="BN273" s="1" t="s">
         <v>118</v>
@@ -61317,7 +61216,7 @@
         <v>112</v>
       </c>
       <c r="CD273" s="1" t="s">
-        <v>3448</v>
+        <v>3445</v>
       </c>
       <c r="CH273" s="1" t="s">
         <v>130</v>
@@ -61334,10 +61233,10 @@
         <v>88</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>3179</v>
+        <v>3176</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>3180</v>
+        <v>3177</v>
       </c>
       <c r="D274" s="1" t="s">
         <v>1293</v>
@@ -61352,7 +61251,7 @@
         <v>94</v>
       </c>
       <c r="H274" s="1" t="s">
-        <v>3329</v>
+        <v>3326</v>
       </c>
       <c r="I274" s="1" t="s">
         <v>1293</v>
@@ -61361,10 +61260,10 @@
         <v>92</v>
       </c>
       <c r="K274" s="1" t="s">
-        <v>3451</v>
+        <v>3448</v>
       </c>
       <c r="L274" s="1" t="s">
-        <v>3452</v>
+        <v>3449</v>
       </c>
       <c r="O274" s="1" t="s">
         <v>101</v>
@@ -61406,7 +61305,7 @@
         <v>0</v>
       </c>
       <c r="AN274" s="1" t="s">
-        <v>3239</v>
+        <v>3236</v>
       </c>
       <c r="AO274" s="1">
         <v>0</v>
@@ -61442,7 +61341,7 @@
         <v>22</v>
       </c>
       <c r="BD274" s="1" t="s">
-        <v>3453</v>
+        <v>3450</v>
       </c>
       <c r="BN274" s="1" t="s">
         <v>118</v>
@@ -61466,7 +61365,7 @@
         <v>112</v>
       </c>
       <c r="CD274" s="1" t="s">
-        <v>3451</v>
+        <v>3448</v>
       </c>
       <c r="CH274" s="1" t="s">
         <v>130</v>
@@ -61483,10 +61382,10 @@
         <v>88</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>3179</v>
+        <v>3176</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>3180</v>
+        <v>3177</v>
       </c>
       <c r="D275" s="1" t="s">
         <v>1293</v>
@@ -61501,7 +61400,7 @@
         <v>94</v>
       </c>
       <c r="H275" s="1" t="s">
-        <v>3329</v>
+        <v>3326</v>
       </c>
       <c r="I275" s="1" t="s">
         <v>1293</v>
@@ -61510,19 +61409,19 @@
         <v>92</v>
       </c>
       <c r="K275" s="1" t="s">
-        <v>3454</v>
+        <v>3451</v>
       </c>
       <c r="L275" s="1" t="s">
-        <v>3455</v>
+        <v>3452</v>
       </c>
       <c r="N275" s="1" t="s">
-        <v>3456</v>
+        <v>3453</v>
       </c>
       <c r="O275" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P275" s="1" t="s">
-        <v>3457</v>
+        <v>3454</v>
       </c>
       <c r="Q275" s="3">
         <v>13756</v>
@@ -61609,7 +61508,7 @@
         <v>23</v>
       </c>
       <c r="BD275" s="1" t="s">
-        <v>3458</v>
+        <v>3455</v>
       </c>
       <c r="BG275" s="1" t="s">
         <v>115</v>
@@ -61636,10 +61535,10 @@
         <v>112</v>
       </c>
       <c r="CD275" s="1" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="CE275" s="1" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="CF275" s="1" t="s">
         <v>222</v>
@@ -61659,10 +61558,10 @@
         <v>88</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>3179</v>
+        <v>3176</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>3180</v>
+        <v>3177</v>
       </c>
       <c r="D276" s="1" t="s">
         <v>1293</v>
@@ -61677,7 +61576,7 @@
         <v>94</v>
       </c>
       <c r="H276" s="1" t="s">
-        <v>3329</v>
+        <v>3326</v>
       </c>
       <c r="I276" s="1" t="s">
         <v>1293</v>
@@ -61686,10 +61585,10 @@
         <v>92</v>
       </c>
       <c r="K276" s="1" t="s">
-        <v>3460</v>
+        <v>3457</v>
       </c>
       <c r="L276" s="1" t="s">
-        <v>3461</v>
+        <v>3458</v>
       </c>
       <c r="O276" s="1" t="s">
         <v>101</v>
@@ -61731,7 +61630,7 @@
         <v>0</v>
       </c>
       <c r="AN276" s="1" t="s">
-        <v>3239</v>
+        <v>3236</v>
       </c>
       <c r="AO276" s="1">
         <v>0</v>
@@ -61767,7 +61666,7 @@
         <v>22</v>
       </c>
       <c r="BD276" s="1" t="s">
-        <v>3462</v>
+        <v>3459</v>
       </c>
       <c r="BN276" s="1" t="s">
         <v>118</v>
@@ -61776,7 +61675,7 @@
         <v>122</v>
       </c>
       <c r="BX276" s="1" t="s">
-        <v>3463</v>
+        <v>3460</v>
       </c>
       <c r="BY276" s="1">
         <v>0</v>
@@ -61794,7 +61693,7 @@
         <v>112</v>
       </c>
       <c r="CD276" s="1" t="s">
-        <v>3460</v>
+        <v>3457</v>
       </c>
       <c r="CH276" s="1" t="s">
         <v>130</v>
@@ -61811,10 +61710,10 @@
         <v>88</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>3179</v>
+        <v>3176</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>3180</v>
+        <v>3177</v>
       </c>
       <c r="D277" s="1" t="s">
         <v>1293</v>
@@ -61829,7 +61728,7 @@
         <v>94</v>
       </c>
       <c r="H277" s="1" t="s">
-        <v>3329</v>
+        <v>3326</v>
       </c>
       <c r="I277" s="1" t="s">
         <v>1293</v>
@@ -61838,19 +61737,19 @@
         <v>92</v>
       </c>
       <c r="K277" s="1" t="s">
-        <v>3464</v>
+        <v>3461</v>
       </c>
       <c r="L277" s="1" t="s">
-        <v>3465</v>
+        <v>3462</v>
       </c>
       <c r="N277" s="1" t="s">
-        <v>3466</v>
+        <v>3463</v>
       </c>
       <c r="O277" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P277" s="1" t="s">
-        <v>3467</v>
+        <v>3464</v>
       </c>
       <c r="Q277" s="3">
         <v>28808</v>
@@ -61895,7 +61794,7 @@
         <v>0</v>
       </c>
       <c r="AN277" s="1" t="s">
-        <v>3468</v>
+        <v>3465</v>
       </c>
       <c r="AO277" s="1">
         <v>0</v>
@@ -61931,19 +61830,19 @@
         <v>23</v>
       </c>
       <c r="BD277" s="1" t="s">
-        <v>3469</v>
+        <v>3466</v>
       </c>
       <c r="BG277" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH277" s="1" t="s">
-        <v>3470</v>
+        <v>3467</v>
       </c>
       <c r="BN277" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU277" s="1" t="s">
-        <v>3471</v>
+        <v>3468</v>
       </c>
       <c r="BV277" s="1" t="s">
         <v>122</v>
@@ -61964,16 +61863,16 @@
         <v>112</v>
       </c>
       <c r="CD277" s="1" t="s">
-        <v>3472</v>
+        <v>3469</v>
       </c>
       <c r="CE277" s="1" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="CF277" s="1" t="s">
-        <v>3473</v>
+        <v>3470</v>
       </c>
       <c r="CH277" s="1" t="s">
-        <v>3474</v>
+        <v>3471</v>
       </c>
       <c r="CI277" s="1" t="s">
         <v>130</v>
@@ -61987,10 +61886,10 @@
         <v>88</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>3179</v>
+        <v>3176</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>3180</v>
+        <v>3177</v>
       </c>
       <c r="D278" s="1" t="s">
         <v>1293</v>
@@ -62005,7 +61904,7 @@
         <v>94</v>
       </c>
       <c r="H278" s="1" t="s">
-        <v>3329</v>
+        <v>3326</v>
       </c>
       <c r="I278" s="1" t="s">
         <v>1293</v>
@@ -62014,19 +61913,19 @@
         <v>92</v>
       </c>
       <c r="K278" s="1" t="s">
-        <v>3475</v>
+        <v>3472</v>
       </c>
       <c r="L278" s="1" t="s">
-        <v>3476</v>
+        <v>3473</v>
       </c>
       <c r="N278" s="1" t="s">
-        <v>3477</v>
+        <v>3474</v>
       </c>
       <c r="O278" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P278" s="1" t="s">
-        <v>3478</v>
+        <v>3475</v>
       </c>
       <c r="R278" s="1" t="s">
         <v>136</v>
@@ -62050,7 +61949,7 @@
         <v>107</v>
       </c>
       <c r="AG278" s="1" t="s">
-        <v>2842</v>
+        <v>2840</v>
       </c>
       <c r="AH278" s="1" t="s">
         <v>387</v>
@@ -62065,7 +61964,7 @@
         <v>0</v>
       </c>
       <c r="AN278" s="1" t="s">
-        <v>3479</v>
+        <v>3476</v>
       </c>
       <c r="AO278" s="1">
         <v>0</v>
@@ -62095,19 +61994,19 @@
         <v>23</v>
       </c>
       <c r="BD278" s="1" t="s">
-        <v>3480</v>
+        <v>3477</v>
       </c>
       <c r="BG278" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH278" s="1" t="s">
-        <v>3481</v>
+        <v>3478</v>
       </c>
       <c r="BN278" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU278" s="1" t="s">
-        <v>3482</v>
+        <v>3479</v>
       </c>
       <c r="BV278" s="1" t="s">
         <v>122</v>
@@ -62125,16 +62024,16 @@
         <v>112</v>
       </c>
       <c r="CD278" s="1" t="s">
-        <v>3483</v>
+        <v>3480</v>
       </c>
       <c r="CE278" s="1" t="s">
         <v>324</v>
       </c>
       <c r="CF278" s="1" t="s">
-        <v>3484</v>
+        <v>3481</v>
       </c>
       <c r="CH278" s="1" t="s">
-        <v>3485</v>
+        <v>3482</v>
       </c>
       <c r="CI278" s="1" t="s">
         <v>130</v>
@@ -62148,10 +62047,10 @@
         <v>88</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>3179</v>
+        <v>3176</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>3180</v>
+        <v>3177</v>
       </c>
       <c r="D279" s="1" t="s">
         <v>1293</v>
@@ -62166,7 +62065,7 @@
         <v>94</v>
       </c>
       <c r="H279" s="1" t="s">
-        <v>3329</v>
+        <v>3326</v>
       </c>
       <c r="I279" s="1" t="s">
         <v>1293</v>
@@ -62175,19 +62074,19 @@
         <v>92</v>
       </c>
       <c r="K279" s="1" t="s">
-        <v>3486</v>
+        <v>3483</v>
       </c>
       <c r="L279" s="1" t="s">
-        <v>3487</v>
+        <v>3484</v>
       </c>
       <c r="N279" s="1" t="s">
-        <v>3488</v>
+        <v>3485</v>
       </c>
       <c r="O279" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P279" s="1" t="s">
-        <v>3489</v>
+        <v>3486</v>
       </c>
       <c r="R279" s="1" t="s">
         <v>136</v>
@@ -62265,19 +62164,19 @@
         <v>23</v>
       </c>
       <c r="BD279" s="1" t="s">
-        <v>3490</v>
+        <v>3487</v>
       </c>
       <c r="BG279" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH279" s="1" t="s">
-        <v>3491</v>
+        <v>3488</v>
       </c>
       <c r="BN279" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU279" s="1" t="s">
-        <v>3492</v>
+        <v>3489</v>
       </c>
       <c r="BV279" s="1" t="s">
         <v>122</v>
@@ -62295,16 +62194,16 @@
         <v>112</v>
       </c>
       <c r="CD279" s="1" t="s">
+        <v>3490</v>
+      </c>
+      <c r="CE279" s="1" t="s">
+        <v>3491</v>
+      </c>
+      <c r="CF279" s="1" t="s">
+        <v>3492</v>
+      </c>
+      <c r="CH279" s="1" t="s">
         <v>3493</v>
-      </c>
-      <c r="CE279" s="1" t="s">
-        <v>3494</v>
-      </c>
-      <c r="CF279" s="1" t="s">
-        <v>3495</v>
-      </c>
-      <c r="CH279" s="1" t="s">
-        <v>3496</v>
       </c>
       <c r="CI279" s="1" t="s">
         <v>130</v>
@@ -62318,10 +62217,10 @@
         <v>88</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>3179</v>
+        <v>3176</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>3180</v>
+        <v>3177</v>
       </c>
       <c r="D280" s="1" t="s">
         <v>1293</v>
@@ -62336,7 +62235,7 @@
         <v>94</v>
       </c>
       <c r="H280" s="1" t="s">
-        <v>3329</v>
+        <v>3326</v>
       </c>
       <c r="I280" s="1" t="s">
         <v>1293</v>
@@ -62345,19 +62244,19 @@
         <v>92</v>
       </c>
       <c r="K280" s="1" t="s">
-        <v>3497</v>
+        <v>3494</v>
       </c>
       <c r="L280" s="1" t="s">
-        <v>3498</v>
+        <v>3495</v>
       </c>
       <c r="N280" s="1" t="s">
-        <v>3499</v>
+        <v>3496</v>
       </c>
       <c r="O280" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P280" s="1" t="s">
-        <v>3500</v>
+        <v>3497</v>
       </c>
       <c r="Q280" s="3">
         <v>29466</v>
@@ -62438,19 +62337,19 @@
         <v>23</v>
       </c>
       <c r="BD280" s="1" t="s">
-        <v>3501</v>
+        <v>3498</v>
       </c>
       <c r="BG280" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH280" s="1" t="s">
-        <v>3502</v>
+        <v>3499</v>
       </c>
       <c r="BN280" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU280" s="1" t="s">
-        <v>3503</v>
+        <v>3500</v>
       </c>
       <c r="BV280" s="1" t="s">
         <v>122</v>
@@ -62468,16 +62367,16 @@
         <v>112</v>
       </c>
       <c r="CD280" s="1" t="s">
+        <v>3501</v>
+      </c>
+      <c r="CE280" s="1" t="s">
+        <v>3502</v>
+      </c>
+      <c r="CF280" s="1" t="s">
+        <v>3503</v>
+      </c>
+      <c r="CH280" s="1" t="s">
         <v>3504</v>
-      </c>
-      <c r="CE280" s="1" t="s">
-        <v>3505</v>
-      </c>
-      <c r="CF280" s="1" t="s">
-        <v>3506</v>
-      </c>
-      <c r="CH280" s="1" t="s">
-        <v>3507</v>
       </c>
       <c r="CI280" s="1" t="s">
         <v>130</v>
@@ -62491,10 +62390,10 @@
         <v>88</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>3179</v>
+        <v>3176</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>3180</v>
+        <v>3177</v>
       </c>
       <c r="D281" s="1" t="s">
         <v>1293</v>
@@ -62509,7 +62408,7 @@
         <v>94</v>
       </c>
       <c r="H281" s="1" t="s">
-        <v>3329</v>
+        <v>3326</v>
       </c>
       <c r="I281" s="1" t="s">
         <v>1293</v>
@@ -62518,22 +62417,22 @@
         <v>92</v>
       </c>
       <c r="K281" s="1" t="s">
-        <v>3508</v>
+        <v>3505</v>
       </c>
       <c r="L281" s="1" t="s">
-        <v>3509</v>
+        <v>3506</v>
       </c>
       <c r="N281" s="1" t="s">
-        <v>3510</v>
+        <v>3507</v>
       </c>
       <c r="O281" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P281" s="1" t="s">
-        <v>3511</v>
+        <v>3508</v>
       </c>
       <c r="Q281" t="s">
-        <v>3512</v>
+        <v>3509</v>
       </c>
       <c r="R281" s="1" t="s">
         <v>136</v>
@@ -62575,7 +62474,7 @@
         <v>0</v>
       </c>
       <c r="AN281" s="1" t="s">
-        <v>3334</v>
+        <v>3331</v>
       </c>
       <c r="AO281" s="1">
         <v>0</v>
@@ -62608,19 +62507,19 @@
         <v>23</v>
       </c>
       <c r="BD281" s="1" t="s">
-        <v>3513</v>
+        <v>3510</v>
       </c>
       <c r="BG281" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH281" s="1" t="s">
-        <v>3514</v>
+        <v>3511</v>
       </c>
       <c r="BN281" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU281" s="1" t="s">
-        <v>3515</v>
+        <v>3512</v>
       </c>
       <c r="BV281" s="1" t="s">
         <v>122</v>
@@ -62638,16 +62537,16 @@
         <v>112</v>
       </c>
       <c r="CD281" s="1" t="s">
+        <v>3513</v>
+      </c>
+      <c r="CE281" s="1" t="s">
+        <v>3514</v>
+      </c>
+      <c r="CF281" s="1" t="s">
+        <v>3515</v>
+      </c>
+      <c r="CH281" s="1" t="s">
         <v>3516</v>
-      </c>
-      <c r="CE281" s="1" t="s">
-        <v>3517</v>
-      </c>
-      <c r="CF281" s="1" t="s">
-        <v>3518</v>
-      </c>
-      <c r="CH281" s="1" t="s">
-        <v>3519</v>
       </c>
       <c r="CI281" s="1" t="s">
         <v>130</v>
@@ -62661,10 +62560,10 @@
         <v>88</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>3179</v>
+        <v>3176</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>3180</v>
+        <v>3177</v>
       </c>
       <c r="D282" s="1" t="s">
         <v>1293</v>
@@ -62679,7 +62578,7 @@
         <v>94</v>
       </c>
       <c r="H282" s="1" t="s">
-        <v>3329</v>
+        <v>3326</v>
       </c>
       <c r="I282" s="1" t="s">
         <v>1293</v>
@@ -62688,19 +62587,19 @@
         <v>92</v>
       </c>
       <c r="K282" s="1" t="s">
-        <v>3520</v>
+        <v>3517</v>
       </c>
       <c r="L282" s="1" t="s">
-        <v>3521</v>
+        <v>3518</v>
       </c>
       <c r="N282" s="1" t="s">
-        <v>3522</v>
+        <v>3519</v>
       </c>
       <c r="O282" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P282" s="1" t="s">
-        <v>3523</v>
+        <v>3520</v>
       </c>
       <c r="Q282" s="3">
         <v>15186</v>
@@ -62748,7 +62647,7 @@
         <v>0</v>
       </c>
       <c r="AN282" s="1" t="s">
-        <v>3524</v>
+        <v>3521</v>
       </c>
       <c r="AO282" s="1">
         <v>0</v>
@@ -62784,19 +62683,19 @@
         <v>23</v>
       </c>
       <c r="BD282" s="1" t="s">
-        <v>3525</v>
+        <v>3522</v>
       </c>
       <c r="BG282" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH282" s="1" t="s">
-        <v>3526</v>
+        <v>3523</v>
       </c>
       <c r="BN282" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU282" s="1" t="s">
-        <v>3527</v>
+        <v>3524</v>
       </c>
       <c r="BV282" s="1" t="s">
         <v>122</v>
@@ -62823,10 +62722,10 @@
         <v>1550</v>
       </c>
       <c r="CF282" s="1" t="s">
-        <v>3528</v>
+        <v>3525</v>
       </c>
       <c r="CH282" s="1" t="s">
-        <v>3529</v>
+        <v>3526</v>
       </c>
       <c r="CI282" s="1" t="s">
         <v>130</v>
@@ -62840,10 +62739,10 @@
         <v>88</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>3179</v>
+        <v>3176</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>3180</v>
+        <v>3177</v>
       </c>
       <c r="D283" s="1" t="s">
         <v>1293</v>
@@ -62858,7 +62757,7 @@
         <v>94</v>
       </c>
       <c r="H283" s="1" t="s">
-        <v>3329</v>
+        <v>3326</v>
       </c>
       <c r="I283" s="1" t="s">
         <v>1293</v>
@@ -62867,10 +62766,10 @@
         <v>92</v>
       </c>
       <c r="K283" s="1" t="s">
-        <v>3448</v>
+        <v>3445</v>
       </c>
       <c r="L283" s="1" t="s">
-        <v>3449</v>
+        <v>3446</v>
       </c>
       <c r="O283" s="1" t="s">
         <v>101</v>
@@ -62915,7 +62814,7 @@
         <v>0</v>
       </c>
       <c r="AN283" s="1" t="s">
-        <v>3239</v>
+        <v>3236</v>
       </c>
       <c r="AO283" s="1">
         <v>0</v>
@@ -62951,7 +62850,7 @@
         <v>23</v>
       </c>
       <c r="BD283" s="1" t="s">
-        <v>3530</v>
+        <v>3527</v>
       </c>
       <c r="BN283" s="1" t="s">
         <v>118</v>
@@ -62975,7 +62874,7 @@
         <v>112</v>
       </c>
       <c r="CD283" s="1" t="s">
-        <v>3448</v>
+        <v>3445</v>
       </c>
       <c r="CH283" s="1" t="s">
         <v>130</v>
@@ -62992,10 +62891,10 @@
         <v>88</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>3179</v>
+        <v>3176</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>3180</v>
+        <v>3177</v>
       </c>
       <c r="D284" s="1" t="s">
         <v>1293</v>
@@ -63010,7 +62909,7 @@
         <v>94</v>
       </c>
       <c r="H284" s="1" t="s">
-        <v>3329</v>
+        <v>3326</v>
       </c>
       <c r="I284" s="1" t="s">
         <v>1293</v>
@@ -63019,10 +62918,10 @@
         <v>92</v>
       </c>
       <c r="K284" s="1" t="s">
-        <v>3451</v>
+        <v>3448</v>
       </c>
       <c r="L284" s="1" t="s">
-        <v>3452</v>
+        <v>3449</v>
       </c>
       <c r="O284" s="1" t="s">
         <v>101</v>
@@ -63067,7 +62966,7 @@
         <v>0</v>
       </c>
       <c r="AN284" s="1" t="s">
-        <v>3239</v>
+        <v>3236</v>
       </c>
       <c r="AO284" s="1">
         <v>0</v>
@@ -63103,7 +63002,7 @@
         <v>23</v>
       </c>
       <c r="BD284" s="1" t="s">
-        <v>3531</v>
+        <v>3528</v>
       </c>
       <c r="BN284" s="1" t="s">
         <v>118</v>
@@ -63127,7 +63026,7 @@
         <v>112</v>
       </c>
       <c r="CD284" s="1" t="s">
-        <v>3451</v>
+        <v>3448</v>
       </c>
       <c r="CH284" s="1" t="s">
         <v>130</v>
@@ -63144,10 +63043,10 @@
         <v>88</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>3179</v>
+        <v>3176</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>3180</v>
+        <v>3177</v>
       </c>
       <c r="D285" s="1" t="s">
         <v>1293</v>
@@ -63162,7 +63061,7 @@
         <v>94</v>
       </c>
       <c r="H285" s="1" t="s">
-        <v>3329</v>
+        <v>3326</v>
       </c>
       <c r="I285" s="1" t="s">
         <v>1293</v>
@@ -63171,10 +63070,10 @@
         <v>92</v>
       </c>
       <c r="K285" s="1" t="s">
-        <v>3460</v>
+        <v>3457</v>
       </c>
       <c r="L285" s="1" t="s">
-        <v>3461</v>
+        <v>3458</v>
       </c>
       <c r="O285" s="1" t="s">
         <v>101</v>
@@ -63219,7 +63118,7 @@
         <v>0</v>
       </c>
       <c r="AN285" s="1" t="s">
-        <v>3239</v>
+        <v>3236</v>
       </c>
       <c r="AO285" s="1">
         <v>0</v>
@@ -63255,7 +63154,7 @@
         <v>23</v>
       </c>
       <c r="BD285" s="1" t="s">
-        <v>3532</v>
+        <v>3529</v>
       </c>
       <c r="BN285" s="1" t="s">
         <v>118</v>
@@ -63279,7 +63178,7 @@
         <v>112</v>
       </c>
       <c r="CD285" s="1" t="s">
-        <v>3460</v>
+        <v>3457</v>
       </c>
       <c r="CH285" s="1" t="s">
         <v>130</v>
@@ -63292,6 +63191,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CJ285" xr:uid="{D7718A6A-5933-4073-A849-0EBCBB252CC0}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>